--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -377,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E803"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -419,7 +419,7 @@
         <v>1062</v>
       </c>
       <c r="E4" t="str">
-        <v>10.6</v>
+        <v>zzz</v>
       </c>
     </row>
     <row r="5">

--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -388,10 +388,4107 @@
         <v>Kata solutions</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>kata_id</v>
+      </c>
+      <c r="C4" t="str">
+        <v>solution</v>
+      </c>
+      <c r="D4" t="str">
+        <v>best_practices</v>
+      </c>
+      <c r="E4" t="str">
+        <v>clever</v>
+      </c>
+      <c r="F4" t="str">
+        <v>cpx</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>1062</v>
+      </c>
+      <c r="F5">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
+      <c r="E6">
+        <v>272</v>
+      </c>
+      <c r="F6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1013</v>
+      </c>
+      <c r="E8">
+        <v>185</v>
+      </c>
+      <c r="F8">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>526</v>
+      </c>
+      <c r="F9">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>385</v>
+      </c>
+      <c r="E11">
+        <v>1589</v>
+      </c>
+      <c r="F11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>243</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>285</v>
+      </c>
+      <c r="F13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>689</v>
+      </c>
+      <c r="E14">
+        <v>2286</v>
+      </c>
+      <c r="F14">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>170</v>
+      </c>
+      <c r="E15">
+        <v>104</v>
+      </c>
+      <c r="F15">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>927</v>
+      </c>
+      <c r="E17">
+        <v>438</v>
+      </c>
+      <c r="F17">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>952</v>
+      </c>
+      <c r="F18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1025</v>
+      </c>
+      <c r="E20">
+        <v>237</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>216</v>
+      </c>
+      <c r="E21">
+        <v>775</v>
+      </c>
+      <c r="F21">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>191</v>
+      </c>
+      <c r="E22">
+        <v>1044</v>
+      </c>
+      <c r="F22">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>527</v>
+      </c>
+      <c r="E23">
+        <v>250</v>
+      </c>
+      <c r="F23">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <v>693</v>
+      </c>
+      <c r="F24">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>68</v>
+      </c>
+      <c r="E25">
+        <v>109</v>
+      </c>
+      <c r="F25">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>764</v>
+      </c>
+      <c r="E26">
+        <v>343</v>
+      </c>
+      <c r="F26">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>763</v>
+      </c>
+      <c r="E27">
+        <v>2267</v>
+      </c>
+      <c r="F27">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>338</v>
+      </c>
+      <c r="E28">
+        <v>912</v>
+      </c>
+      <c r="F28">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>990</v>
+      </c>
+      <c r="E29">
+        <v>513</v>
+      </c>
+      <c r="F29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>529</v>
+      </c>
+      <c r="E30">
+        <v>382</v>
+      </c>
+      <c r="F30">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>566</v>
+      </c>
+      <c r="E32">
+        <v>1409</v>
+      </c>
+      <c r="F32">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>134</v>
+      </c>
+      <c r="E33">
+        <v>583</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>122</v>
+      </c>
+      <c r="E34">
+        <v>160</v>
+      </c>
+      <c r="F34">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>520</v>
+      </c>
+      <c r="E35">
+        <v>742</v>
+      </c>
+      <c r="F35">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>157</v>
+      </c>
+      <c r="E36">
+        <v>132</v>
+      </c>
+      <c r="F36">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>77</v>
+      </c>
+      <c r="E37">
+        <v>45</v>
+      </c>
+      <c r="F37">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="str">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>541</v>
+      </c>
+      <c r="E38">
+        <v>1048</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="str">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>113</v>
+      </c>
+      <c r="E39">
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="str">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>66</v>
+      </c>
+      <c r="E40">
+        <v>238</v>
+      </c>
+      <c r="F40">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="str">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>664</v>
+      </c>
+      <c r="E41">
+        <v>279</v>
+      </c>
+      <c r="F41">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>155</v>
+      </c>
+      <c r="E42">
+        <v>710</v>
+      </c>
+      <c r="F42">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="str">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>82</v>
+      </c>
+      <c r="E43">
+        <v>115</v>
+      </c>
+      <c r="F43">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="str">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>364</v>
+      </c>
+      <c r="E44">
+        <v>191</v>
+      </c>
+      <c r="F44">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="str">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>199</v>
+      </c>
+      <c r="E45">
+        <v>419</v>
+      </c>
+      <c r="F45">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="str">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>123</v>
+      </c>
+      <c r="E46">
+        <v>723</v>
+      </c>
+      <c r="F46">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="str">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>1306</v>
+      </c>
+      <c r="E47">
+        <v>589</v>
+      </c>
+      <c r="F47">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="str">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>129</v>
+      </c>
+      <c r="E48">
+        <v>680</v>
+      </c>
+      <c r="F48">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="str">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="str">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>483</v>
+      </c>
+      <c r="E50">
+        <v>549</v>
+      </c>
+      <c r="F50">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="str">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>120</v>
+      </c>
+      <c r="E51">
+        <v>137</v>
+      </c>
+      <c r="F51">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="str">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>92</v>
+      </c>
+      <c r="F52">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="str">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>748</v>
+      </c>
+      <c r="E53">
+        <v>989</v>
+      </c>
+      <c r="F53">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="str">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>71</v>
+      </c>
+      <c r="E54">
+        <v>62</v>
+      </c>
+      <c r="F54">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="str">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <v>51</v>
+      </c>
+      <c r="F55">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="str">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>409</v>
+      </c>
+      <c r="E56">
+        <v>309</v>
+      </c>
+      <c r="F56">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="str">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>97</v>
+      </c>
+      <c r="E57">
+        <v>113</v>
+      </c>
+      <c r="F57">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="str">
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>78</v>
+      </c>
+      <c r="E58">
+        <v>385</v>
+      </c>
+      <c r="F58">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="str">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>336</v>
+      </c>
+      <c r="E59">
+        <v>512</v>
+      </c>
+      <c r="F59">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="str">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>174</v>
+      </c>
+      <c r="E60">
+        <v>402</v>
+      </c>
+      <c r="F60">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="str">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>31</v>
+      </c>
+      <c r="E61">
+        <v>36</v>
+      </c>
+      <c r="F61">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="str">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>383</v>
+      </c>
+      <c r="E62">
+        <v>540</v>
+      </c>
+      <c r="F62">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="str">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>265</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="str">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>146</v>
+      </c>
+      <c r="F64">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="str">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <v>796</v>
+      </c>
+      <c r="E65">
+        <v>1057</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="str">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>127</v>
+      </c>
+      <c r="E66">
+        <v>62</v>
+      </c>
+      <c r="F66">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="str">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>21</v>
+      </c>
+      <c r="D67">
+        <v>91</v>
+      </c>
+      <c r="E67">
+        <v>322</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="str">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>1665</v>
+      </c>
+      <c r="E68">
+        <v>748</v>
+      </c>
+      <c r="F68">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="str">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>123</v>
+      </c>
+      <c r="E69">
+        <v>56</v>
+      </c>
+      <c r="F69">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="str">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>120</v>
+      </c>
+      <c r="E70">
+        <v>105</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="str">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>316</v>
+      </c>
+      <c r="E71">
+        <v>592</v>
+      </c>
+      <c r="F71">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="str">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="str">
+        <v>31</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>74</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="str">
+        <v>32</v>
+      </c>
+      <c r="C74">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>564</v>
+      </c>
+      <c r="E74">
+        <v>453</v>
+      </c>
+      <c r="F74">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="str">
+        <v>32</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>380</v>
+      </c>
+      <c r="E75">
+        <v>480</v>
+      </c>
+      <c r="F75">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="str">
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>62</v>
+      </c>
+      <c r="E76">
+        <v>36</v>
+      </c>
+      <c r="F76">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="str">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>470</v>
+      </c>
+      <c r="E77">
+        <v>725</v>
+      </c>
+      <c r="F77">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="str">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>133</v>
+      </c>
+      <c r="E78">
+        <v>68</v>
+      </c>
+      <c r="F78">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="str">
+        <v>33</v>
+      </c>
+      <c r="C79">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>88</v>
+      </c>
+      <c r="E79">
+        <v>145</v>
+      </c>
+      <c r="F79">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="str">
+        <v>34</v>
+      </c>
+      <c r="C80">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>1325</v>
+      </c>
+      <c r="E80">
+        <v>994</v>
+      </c>
+      <c r="F80">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="str">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>336</v>
+      </c>
+      <c r="E81">
+        <v>237</v>
+      </c>
+      <c r="F81">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="str">
+        <v>34</v>
+      </c>
+      <c r="C82">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>187</v>
+      </c>
+      <c r="E82">
+        <v>67</v>
+      </c>
+      <c r="F82">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="str">
+        <v>35</v>
+      </c>
+      <c r="C83">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>924</v>
+      </c>
+      <c r="E83">
+        <v>638</v>
+      </c>
+      <c r="F83">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="str">
+        <v>35</v>
+      </c>
+      <c r="C84">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>92</v>
+      </c>
+      <c r="E84">
+        <v>150</v>
+      </c>
+      <c r="F84">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="str">
+        <v>35</v>
+      </c>
+      <c r="C85">
+        <v>27</v>
+      </c>
+      <c r="D85">
+        <v>70</v>
+      </c>
+      <c r="E85">
+        <v>26</v>
+      </c>
+      <c r="F85">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="str">
+        <v>36</v>
+      </c>
+      <c r="C86">
+        <v>28</v>
+      </c>
+      <c r="D86">
+        <v>673</v>
+      </c>
+      <c r="E86">
+        <v>516</v>
+      </c>
+      <c r="F86">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="str">
+        <v>36</v>
+      </c>
+      <c r="C87">
+        <v>28</v>
+      </c>
+      <c r="D87">
+        <v>129</v>
+      </c>
+      <c r="E87">
+        <v>378</v>
+      </c>
+      <c r="F87">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="str">
+        <v>36</v>
+      </c>
+      <c r="C88">
+        <v>28</v>
+      </c>
+      <c r="D88">
+        <v>73</v>
+      </c>
+      <c r="E88">
+        <v>29</v>
+      </c>
+      <c r="F88">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="str">
+        <v>37</v>
+      </c>
+      <c r="C89">
+        <v>29</v>
+      </c>
+      <c r="D89">
+        <v>391</v>
+      </c>
+      <c r="E89">
+        <v>757</v>
+      </c>
+      <c r="F89">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="str">
+        <v>37</v>
+      </c>
+      <c r="C90">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>275</v>
+      </c>
+      <c r="E90">
+        <v>292</v>
+      </c>
+      <c r="F90">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="str">
+        <v>37</v>
+      </c>
+      <c r="C91">
+        <v>29</v>
+      </c>
+      <c r="D91">
+        <v>134</v>
+      </c>
+      <c r="E91">
+        <v>34</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="str">
+        <v>38</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>539</v>
+      </c>
+      <c r="E92">
+        <v>677</v>
+      </c>
+      <c r="F92">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="str">
+        <v>38</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>142</v>
+      </c>
+      <c r="E93">
+        <v>200</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="str">
+        <v>38</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>65</v>
+      </c>
+      <c r="E94">
+        <v>245</v>
+      </c>
+      <c r="F94">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="str">
+        <v>39</v>
+      </c>
+      <c r="C95">
+        <v>31</v>
+      </c>
+      <c r="D95">
+        <v>1034</v>
+      </c>
+      <c r="E95">
+        <v>360</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="str">
+        <v>39</v>
+      </c>
+      <c r="C96">
+        <v>31</v>
+      </c>
+      <c r="D96">
+        <v>223</v>
+      </c>
+      <c r="E96">
+        <v>842</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="str">
+        <v>39</v>
+      </c>
+      <c r="C97">
+        <v>31</v>
+      </c>
+      <c r="D97">
+        <v>116</v>
+      </c>
+      <c r="E97">
+        <v>45</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="str">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>32</v>
+      </c>
+      <c r="D98">
+        <v>484</v>
+      </c>
+      <c r="E98">
+        <v>698</v>
+      </c>
+      <c r="F98">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="str">
+        <v>40</v>
+      </c>
+      <c r="C99">
+        <v>32</v>
+      </c>
+      <c r="D99">
+        <v>257</v>
+      </c>
+      <c r="E99">
+        <v>201</v>
+      </c>
+      <c r="F99">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="str">
+        <v>40</v>
+      </c>
+      <c r="C100">
+        <v>32</v>
+      </c>
+      <c r="D100">
+        <v>55</v>
+      </c>
+      <c r="E100">
+        <v>124</v>
+      </c>
+      <c r="F100">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="str">
+        <v>41</v>
+      </c>
+      <c r="C101">
+        <v>33</v>
+      </c>
+      <c r="D101">
+        <v>676</v>
+      </c>
+      <c r="E101">
+        <v>333</v>
+      </c>
+      <c r="F101">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="str">
+        <v>41</v>
+      </c>
+      <c r="C102">
+        <v>33</v>
+      </c>
+      <c r="D102">
+        <v>427</v>
+      </c>
+      <c r="E102">
+        <v>155</v>
+      </c>
+      <c r="F102">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="str">
+        <v>41</v>
+      </c>
+      <c r="C103">
+        <v>33</v>
+      </c>
+      <c r="D103">
+        <v>160</v>
+      </c>
+      <c r="E103">
+        <v>104</v>
+      </c>
+      <c r="F103">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="str">
+        <v>42</v>
+      </c>
+      <c r="C104">
+        <v>34</v>
+      </c>
+      <c r="D104">
+        <v>459</v>
+      </c>
+      <c r="E104">
+        <v>1338</v>
+      </c>
+      <c r="F104">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="str">
+        <v>42</v>
+      </c>
+      <c r="C105">
+        <v>34</v>
+      </c>
+      <c r="D105">
+        <v>373</v>
+      </c>
+      <c r="E105">
+        <v>593</v>
+      </c>
+      <c r="F105">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="str">
+        <v>42</v>
+      </c>
+      <c r="C106">
+        <v>34</v>
+      </c>
+      <c r="D106">
+        <v>165</v>
+      </c>
+      <c r="E106">
+        <v>41</v>
+      </c>
+      <c r="F106">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="str">
+        <v>43</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+      <c r="D107">
+        <v>657</v>
+      </c>
+      <c r="E107">
+        <v>1184</v>
+      </c>
+      <c r="F107">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="str">
+        <v>43</v>
+      </c>
+      <c r="C108">
+        <v>35</v>
+      </c>
+      <c r="D108">
+        <v>147</v>
+      </c>
+      <c r="E108">
+        <v>366</v>
+      </c>
+      <c r="F108">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="str">
+        <v>43</v>
+      </c>
+      <c r="C109">
+        <v>35</v>
+      </c>
+      <c r="D109">
+        <v>143</v>
+      </c>
+      <c r="E109">
+        <v>270</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="str">
+        <v>44</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+      <c r="D110">
+        <v>703</v>
+      </c>
+      <c r="E110">
+        <v>322</v>
+      </c>
+      <c r="F110">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="str">
+        <v>44</v>
+      </c>
+      <c r="C111">
+        <v>36</v>
+      </c>
+      <c r="D111">
+        <v>241</v>
+      </c>
+      <c r="E111">
+        <v>619</v>
+      </c>
+      <c r="F111">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="str">
+        <v>44</v>
+      </c>
+      <c r="C112">
+        <v>36</v>
+      </c>
+      <c r="D112">
+        <v>76</v>
+      </c>
+      <c r="E112">
+        <v>48</v>
+      </c>
+      <c r="F112">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="str">
+        <v>45</v>
+      </c>
+      <c r="C113">
+        <v>37</v>
+      </c>
+      <c r="D113">
+        <v>763</v>
+      </c>
+      <c r="E113">
+        <v>894</v>
+      </c>
+      <c r="F113">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="str">
+        <v>45</v>
+      </c>
+      <c r="C114">
+        <v>37</v>
+      </c>
+      <c r="D114">
+        <v>215</v>
+      </c>
+      <c r="E114">
+        <v>513</v>
+      </c>
+      <c r="F114">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="str">
+        <v>45</v>
+      </c>
+      <c r="C115">
+        <v>37</v>
+      </c>
+      <c r="D115">
+        <v>130</v>
+      </c>
+      <c r="E115">
+        <v>186</v>
+      </c>
+      <c r="F115">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="str">
+        <v>46</v>
+      </c>
+      <c r="C116">
+        <v>38</v>
+      </c>
+      <c r="D116">
+        <v>327</v>
+      </c>
+      <c r="E116">
+        <v>348</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="str">
+        <v>46</v>
+      </c>
+      <c r="C117">
+        <v>38</v>
+      </c>
+      <c r="D117">
+        <v>316</v>
+      </c>
+      <c r="E117">
+        <v>49</v>
+      </c>
+      <c r="F117">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="str">
+        <v>46</v>
+      </c>
+      <c r="C118">
+        <v>38</v>
+      </c>
+      <c r="D118">
+        <v>47</v>
+      </c>
+      <c r="E118">
+        <v>191</v>
+      </c>
+      <c r="F118">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="str">
+        <v>47</v>
+      </c>
+      <c r="C119">
+        <v>39</v>
+      </c>
+      <c r="D119">
+        <v>700</v>
+      </c>
+      <c r="E119">
+        <v>342</v>
+      </c>
+      <c r="F119">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="str">
+        <v>47</v>
+      </c>
+      <c r="C120">
+        <v>39</v>
+      </c>
+      <c r="D120">
+        <v>43</v>
+      </c>
+      <c r="E120">
+        <v>367</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="str">
+        <v>47</v>
+      </c>
+      <c r="C121">
+        <v>39</v>
+      </c>
+      <c r="D121">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>255</v>
+      </c>
+      <c r="F121">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="str">
+        <v>48</v>
+      </c>
+      <c r="C122">
+        <v>40</v>
+      </c>
+      <c r="D122">
+        <v>592</v>
+      </c>
+      <c r="E122">
+        <v>896</v>
+      </c>
+      <c r="F122">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="str">
+        <v>48</v>
+      </c>
+      <c r="C123">
+        <v>40</v>
+      </c>
+      <c r="D123">
+        <v>154</v>
+      </c>
+      <c r="E123">
+        <v>172</v>
+      </c>
+      <c r="F123">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="str">
+        <v>48</v>
+      </c>
+      <c r="C124">
+        <v>40</v>
+      </c>
+      <c r="D124">
+        <v>31</v>
+      </c>
+      <c r="E124">
+        <v>59</v>
+      </c>
+      <c r="F124">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="str">
+        <v>49</v>
+      </c>
+      <c r="C125">
+        <v>41</v>
+      </c>
+      <c r="D125">
+        <v>644</v>
+      </c>
+      <c r="E125">
+        <v>1058</v>
+      </c>
+      <c r="F125">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="str">
+        <v>49</v>
+      </c>
+      <c r="C126">
+        <v>41</v>
+      </c>
+      <c r="D126">
+        <v>196</v>
+      </c>
+      <c r="E126">
+        <v>102</v>
+      </c>
+      <c r="F126">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="str">
+        <v>49</v>
+      </c>
+      <c r="C127">
+        <v>41</v>
+      </c>
+      <c r="D127">
+        <v>91</v>
+      </c>
+      <c r="E127">
+        <v>58</v>
+      </c>
+      <c r="F127">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="str">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>42</v>
+      </c>
+      <c r="D128">
+        <v>430</v>
+      </c>
+      <c r="E128">
+        <v>1422</v>
+      </c>
+      <c r="F128">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="str">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>42</v>
+      </c>
+      <c r="D129">
+        <v>92</v>
+      </c>
+      <c r="E129">
+        <v>66</v>
+      </c>
+      <c r="F129">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="str">
+        <v>50</v>
+      </c>
+      <c r="C130">
+        <v>42</v>
+      </c>
+      <c r="D130">
+        <v>35</v>
+      </c>
+      <c r="E130">
+        <v>11</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="str">
+        <v>51</v>
+      </c>
+      <c r="C131">
+        <v>43</v>
+      </c>
+      <c r="D131">
+        <v>274</v>
+      </c>
+      <c r="E131">
+        <v>430</v>
+      </c>
+      <c r="F131">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="str">
+        <v>51</v>
+      </c>
+      <c r="C132">
+        <v>43</v>
+      </c>
+      <c r="D132">
+        <v>129</v>
+      </c>
+      <c r="E132">
+        <v>38</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="str">
+        <v>51</v>
+      </c>
+      <c r="C133">
+        <v>43</v>
+      </c>
+      <c r="D133">
+        <v>43</v>
+      </c>
+      <c r="E133">
+        <v>169</v>
+      </c>
+      <c r="F133">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="str">
+        <v>52</v>
+      </c>
+      <c r="C134">
+        <v>44</v>
+      </c>
+      <c r="D134">
+        <v>365</v>
+      </c>
+      <c r="E134">
+        <v>282</v>
+      </c>
+      <c r="F134">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="str">
+        <v>52</v>
+      </c>
+      <c r="C135">
+        <v>44</v>
+      </c>
+      <c r="D135">
+        <v>204</v>
+      </c>
+      <c r="E135">
+        <v>56</v>
+      </c>
+      <c r="F135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="str">
+        <v>52</v>
+      </c>
+      <c r="C136">
+        <v>44</v>
+      </c>
+      <c r="D136">
+        <v>102</v>
+      </c>
+      <c r="E136">
+        <v>313</v>
+      </c>
+      <c r="F136">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="str">
+        <v>53</v>
+      </c>
+      <c r="C137">
+        <v>45</v>
+      </c>
+      <c r="D137">
+        <v>364</v>
+      </c>
+      <c r="E137">
+        <v>330</v>
+      </c>
+      <c r="F137">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="str">
+        <v>53</v>
+      </c>
+      <c r="C138">
+        <v>45</v>
+      </c>
+      <c r="D138">
+        <v>77</v>
+      </c>
+      <c r="E138">
+        <v>252</v>
+      </c>
+      <c r="F138">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="str">
+        <v>53</v>
+      </c>
+      <c r="C139">
+        <v>45</v>
+      </c>
+      <c r="D139">
+        <v>62</v>
+      </c>
+      <c r="E139">
+        <v>30</v>
+      </c>
+      <c r="F139">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="str">
+        <v>54</v>
+      </c>
+      <c r="C140">
+        <v>46</v>
+      </c>
+      <c r="D140">
+        <v>249</v>
+      </c>
+      <c r="E140">
+        <v>515</v>
+      </c>
+      <c r="F140">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="str">
+        <v>54</v>
+      </c>
+      <c r="C141">
+        <v>46</v>
+      </c>
+      <c r="D141">
+        <v>143</v>
+      </c>
+      <c r="E141">
+        <v>80</v>
+      </c>
+      <c r="F141">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="str">
+        <v>54</v>
+      </c>
+      <c r="C142">
+        <v>46</v>
+      </c>
+      <c r="D142">
+        <v>57</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="str">
+        <v>55</v>
+      </c>
+      <c r="C143">
+        <v>47</v>
+      </c>
+      <c r="D143">
+        <v>508</v>
+      </c>
+      <c r="E143">
+        <v>321</v>
+      </c>
+      <c r="F143">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="str">
+        <v>55</v>
+      </c>
+      <c r="C144">
+        <v>47</v>
+      </c>
+      <c r="D144">
+        <v>77</v>
+      </c>
+      <c r="E144">
+        <v>863</v>
+      </c>
+      <c r="F144">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="str">
+        <v>55</v>
+      </c>
+      <c r="C145">
+        <v>47</v>
+      </c>
+      <c r="D145">
+        <v>30</v>
+      </c>
+      <c r="E145">
+        <v>36</v>
+      </c>
+      <c r="F145">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="str">
+        <v>56</v>
+      </c>
+      <c r="C146">
+        <v>48</v>
+      </c>
+      <c r="D146">
+        <v>196</v>
+      </c>
+      <c r="E146">
+        <v>775</v>
+      </c>
+      <c r="F146">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="str">
+        <v>56</v>
+      </c>
+      <c r="C147">
+        <v>48</v>
+      </c>
+      <c r="D147">
+        <v>93</v>
+      </c>
+      <c r="E147">
+        <v>254</v>
+      </c>
+      <c r="F147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="str">
+        <v>56</v>
+      </c>
+      <c r="C148">
+        <v>48</v>
+      </c>
+      <c r="D148">
+        <v>44</v>
+      </c>
+      <c r="E148">
+        <v>24</v>
+      </c>
+      <c r="F148">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="str">
+        <v>57</v>
+      </c>
+      <c r="C149">
+        <v>49</v>
+      </c>
+      <c r="D149">
+        <v>140</v>
+      </c>
+      <c r="E149">
+        <v>410</v>
+      </c>
+      <c r="F149">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="str">
+        <v>57</v>
+      </c>
+      <c r="C150">
+        <v>49</v>
+      </c>
+      <c r="D150">
+        <v>102</v>
+      </c>
+      <c r="E150">
+        <v>120</v>
+      </c>
+      <c r="F150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="str">
+        <v>57</v>
+      </c>
+      <c r="C151">
+        <v>49</v>
+      </c>
+      <c r="D151">
+        <v>34</v>
+      </c>
+      <c r="E151">
+        <v>32</v>
+      </c>
+      <c r="F151">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="str">
+        <v>58</v>
+      </c>
+      <c r="C152">
+        <v>50</v>
+      </c>
+      <c r="D152">
+        <v>460</v>
+      </c>
+      <c r="E152">
+        <v>367</v>
+      </c>
+      <c r="F152">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="str">
+        <v>58</v>
+      </c>
+      <c r="C153">
+        <v>50</v>
+      </c>
+      <c r="D153">
+        <v>195</v>
+      </c>
+      <c r="E153">
+        <v>114</v>
+      </c>
+      <c r="F153">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="str">
+        <v>58</v>
+      </c>
+      <c r="C154">
+        <v>50</v>
+      </c>
+      <c r="D154">
+        <v>67</v>
+      </c>
+      <c r="E154">
+        <v>471</v>
+      </c>
+      <c r="F154">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="str">
+        <v>59</v>
+      </c>
+      <c r="C155">
+        <v>51</v>
+      </c>
+      <c r="D155">
+        <v>189</v>
+      </c>
+      <c r="E155">
+        <v>258</v>
+      </c>
+      <c r="F155">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="str">
+        <v>59</v>
+      </c>
+      <c r="C156">
+        <v>51</v>
+      </c>
+      <c r="D156">
+        <v>159</v>
+      </c>
+      <c r="E156">
+        <v>295</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="str">
+        <v>59</v>
+      </c>
+      <c r="C157">
+        <v>51</v>
+      </c>
+      <c r="D157">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="str">
+        <v>60</v>
+      </c>
+      <c r="C158">
+        <v>52</v>
+      </c>
+      <c r="D158">
+        <v>295</v>
+      </c>
+      <c r="E158">
+        <v>157</v>
+      </c>
+      <c r="F158">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="str">
+        <v>60</v>
+      </c>
+      <c r="C159">
+        <v>52</v>
+      </c>
+      <c r="D159">
+        <v>25</v>
+      </c>
+      <c r="E159">
+        <v>20</v>
+      </c>
+      <c r="F159">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="str">
+        <v>60</v>
+      </c>
+      <c r="C160">
+        <v>52</v>
+      </c>
+      <c r="D160">
+        <v>14</v>
+      </c>
+      <c r="E160">
+        <v>17</v>
+      </c>
+      <c r="F160">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="str">
+        <v>61</v>
+      </c>
+      <c r="C161">
+        <v>53</v>
+      </c>
+      <c r="D161">
+        <v>176</v>
+      </c>
+      <c r="E161">
+        <v>498</v>
+      </c>
+      <c r="F161">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="str">
+        <v>61</v>
+      </c>
+      <c r="C162">
+        <v>53</v>
+      </c>
+      <c r="D162">
+        <v>86</v>
+      </c>
+      <c r="E162">
+        <v>230</v>
+      </c>
+      <c r="F162">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="str">
+        <v>61</v>
+      </c>
+      <c r="C163">
+        <v>53</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163">
+        <v>28</v>
+      </c>
+      <c r="F163">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="str">
+        <v>62</v>
+      </c>
+      <c r="C164">
+        <v>54</v>
+      </c>
+      <c r="D164">
+        <v>354</v>
+      </c>
+      <c r="E164">
+        <v>464</v>
+      </c>
+      <c r="F164">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="str">
+        <v>62</v>
+      </c>
+      <c r="C165">
+        <v>54</v>
+      </c>
+      <c r="D165">
+        <v>105</v>
+      </c>
+      <c r="E165">
+        <v>226</v>
+      </c>
+      <c r="F165">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="str">
+        <v>62</v>
+      </c>
+      <c r="C166">
+        <v>54</v>
+      </c>
+      <c r="D166">
+        <v>62</v>
+      </c>
+      <c r="E166">
+        <v>25</v>
+      </c>
+      <c r="F166">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="str">
+        <v>63</v>
+      </c>
+      <c r="C167">
+        <v>55</v>
+      </c>
+      <c r="D167">
+        <v>176</v>
+      </c>
+      <c r="E167">
+        <v>351</v>
+      </c>
+      <c r="F167">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="str">
+        <v>63</v>
+      </c>
+      <c r="C168">
+        <v>55</v>
+      </c>
+      <c r="D168">
+        <v>101</v>
+      </c>
+      <c r="E168">
+        <v>166</v>
+      </c>
+      <c r="F168">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="str">
+        <v>63</v>
+      </c>
+      <c r="C169">
+        <v>55</v>
+      </c>
+      <c r="D169">
+        <v>26</v>
+      </c>
+      <c r="E169">
+        <v>38</v>
+      </c>
+      <c r="F169">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="str">
+        <v>64</v>
+      </c>
+      <c r="C170">
+        <v>56</v>
+      </c>
+      <c r="D170">
+        <v>126</v>
+      </c>
+      <c r="E170">
+        <v>116</v>
+      </c>
+      <c r="F170">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="str">
+        <v>64</v>
+      </c>
+      <c r="C171">
+        <v>56</v>
+      </c>
+      <c r="D171">
+        <v>78</v>
+      </c>
+      <c r="E171">
+        <v>57</v>
+      </c>
+      <c r="F171">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="str">
+        <v>64</v>
+      </c>
+      <c r="C172">
+        <v>56</v>
+      </c>
+      <c r="D172">
+        <v>25</v>
+      </c>
+      <c r="E172">
+        <v>7</v>
+      </c>
+      <c r="F172">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="str">
+        <v>65</v>
+      </c>
+      <c r="C173">
+        <v>57</v>
+      </c>
+      <c r="D173">
+        <v>77</v>
+      </c>
+      <c r="E173">
+        <v>167</v>
+      </c>
+      <c r="F173">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="str">
+        <v>65</v>
+      </c>
+      <c r="C174">
+        <v>57</v>
+      </c>
+      <c r="D174">
+        <v>24</v>
+      </c>
+      <c r="E174">
+        <v>82</v>
+      </c>
+      <c r="F174">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="str">
+        <v>65</v>
+      </c>
+      <c r="C175">
+        <v>57</v>
+      </c>
+      <c r="D175">
+        <v>14</v>
+      </c>
+      <c r="E175">
+        <v>15</v>
+      </c>
+      <c r="F175">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="str">
+        <v>66</v>
+      </c>
+      <c r="C176">
+        <v>58</v>
+      </c>
+      <c r="D176">
+        <v>63</v>
+      </c>
+      <c r="E176">
+        <v>178</v>
+      </c>
+      <c r="F176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="str">
+        <v>66</v>
+      </c>
+      <c r="C177">
+        <v>58</v>
+      </c>
+      <c r="D177">
+        <v>21</v>
+      </c>
+      <c r="E177">
+        <v>57</v>
+      </c>
+      <c r="F177">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="str">
+        <v>66</v>
+      </c>
+      <c r="C178">
+        <v>58</v>
+      </c>
+      <c r="D178">
+        <v>21</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="str">
+        <v>67</v>
+      </c>
+      <c r="C179">
+        <v>59</v>
+      </c>
+      <c r="D179">
+        <v>79</v>
+      </c>
+      <c r="E179">
+        <v>344</v>
+      </c>
+      <c r="F179">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="str">
+        <v>67</v>
+      </c>
+      <c r="C180">
+        <v>59</v>
+      </c>
+      <c r="D180">
+        <v>54</v>
+      </c>
+      <c r="E180">
+        <v>18</v>
+      </c>
+      <c r="F180">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="str">
+        <v>67</v>
+      </c>
+      <c r="C181">
+        <v>59</v>
+      </c>
+      <c r="D181">
+        <v>38</v>
+      </c>
+      <c r="E181">
+        <v>108</v>
+      </c>
+      <c r="F181">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="str">
+        <v>68</v>
+      </c>
+      <c r="C182">
+        <v>60</v>
+      </c>
+      <c r="D182">
+        <v>47</v>
+      </c>
+      <c r="E182">
+        <v>44</v>
+      </c>
+      <c r="F182">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="str">
+        <v>68</v>
+      </c>
+      <c r="C183">
+        <v>60</v>
+      </c>
+      <c r="D183">
+        <v>15</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="str">
+        <v>68</v>
+      </c>
+      <c r="C184">
+        <v>60</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="str">
+        <v>69</v>
+      </c>
+      <c r="C185">
+        <v>61</v>
+      </c>
+      <c r="D185">
+        <v>160</v>
+      </c>
+      <c r="E185">
+        <v>304</v>
+      </c>
+      <c r="F185">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="str">
+        <v>69</v>
+      </c>
+      <c r="C186">
+        <v>61</v>
+      </c>
+      <c r="D186">
+        <v>121</v>
+      </c>
+      <c r="E186">
+        <v>399</v>
+      </c>
+      <c r="F186">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="str">
+        <v>69</v>
+      </c>
+      <c r="C187">
+        <v>61</v>
+      </c>
+      <c r="D187">
+        <v>30</v>
+      </c>
+      <c r="E187">
+        <v>23</v>
+      </c>
+      <c r="F187">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="str">
+        <v>70</v>
+      </c>
+      <c r="C188">
+        <v>62</v>
+      </c>
+      <c r="D188">
+        <v>159</v>
+      </c>
+      <c r="E188">
+        <v>366</v>
+      </c>
+      <c r="F188">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="str">
+        <v>70</v>
+      </c>
+      <c r="C189">
+        <v>62</v>
+      </c>
+      <c r="D189">
+        <v>62</v>
+      </c>
+      <c r="E189">
+        <v>37</v>
+      </c>
+      <c r="F189">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="str">
+        <v>70</v>
+      </c>
+      <c r="C190">
+        <v>62</v>
+      </c>
+      <c r="D190">
+        <v>49</v>
+      </c>
+      <c r="E190">
+        <v>19</v>
+      </c>
+      <c r="F190">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="str">
+        <v>71</v>
+      </c>
+      <c r="C191">
+        <v>63</v>
+      </c>
+      <c r="D191">
+        <v>49</v>
+      </c>
+      <c r="E191">
+        <v>172</v>
+      </c>
+      <c r="F191">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="str">
+        <v>71</v>
+      </c>
+      <c r="C192">
+        <v>63</v>
+      </c>
+      <c r="D192">
+        <v>45</v>
+      </c>
+      <c r="E192">
+        <v>79</v>
+      </c>
+      <c r="F192">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="str">
+        <v>71</v>
+      </c>
+      <c r="C193">
+        <v>63</v>
+      </c>
+      <c r="D193">
+        <v>27</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
+      </c>
+      <c r="F193">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="str">
+        <v>72</v>
+      </c>
+      <c r="C194">
+        <v>64</v>
+      </c>
+      <c r="D194">
+        <v>110</v>
+      </c>
+      <c r="E194">
+        <v>176</v>
+      </c>
+      <c r="F194">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="str">
+        <v>72</v>
+      </c>
+      <c r="C195">
+        <v>64</v>
+      </c>
+      <c r="D195">
+        <v>88</v>
+      </c>
+      <c r="E195">
+        <v>319</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="str">
+        <v>72</v>
+      </c>
+      <c r="C196">
+        <v>64</v>
+      </c>
+      <c r="D196">
+        <v>22</v>
+      </c>
+      <c r="E196">
+        <v>20</v>
+      </c>
+      <c r="F196">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="str">
+        <v>73</v>
+      </c>
+      <c r="C197">
+        <v>65</v>
+      </c>
+      <c r="D197">
+        <v>123</v>
+      </c>
+      <c r="E197">
+        <v>27</v>
+      </c>
+      <c r="F197">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="str">
+        <v>73</v>
+      </c>
+      <c r="C198">
+        <v>65</v>
+      </c>
+      <c r="D198">
+        <v>62</v>
+      </c>
+      <c r="E198">
+        <v>268</v>
+      </c>
+      <c r="F198">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="str">
+        <v>73</v>
+      </c>
+      <c r="C199">
+        <v>65</v>
+      </c>
+      <c r="D199">
+        <v>17</v>
+      </c>
+      <c r="E199">
+        <v>19</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="str">
+        <v>74</v>
+      </c>
+      <c r="C200">
+        <v>66</v>
+      </c>
+      <c r="D200">
+        <v>40</v>
+      </c>
+      <c r="E200">
+        <v>123</v>
+      </c>
+      <c r="F200">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="str">
+        <v>74</v>
+      </c>
+      <c r="C201">
+        <v>66</v>
+      </c>
+      <c r="D201">
+        <v>25</v>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="str">
+        <v>74</v>
+      </c>
+      <c r="C202">
+        <v>66</v>
+      </c>
+      <c r="D202">
+        <v>23</v>
+      </c>
+      <c r="E202">
+        <v>39</v>
+      </c>
+      <c r="F202">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="str">
+        <v>75</v>
+      </c>
+      <c r="C203">
+        <v>67</v>
+      </c>
+      <c r="D203">
+        <v>103</v>
+      </c>
+      <c r="E203">
+        <v>412</v>
+      </c>
+      <c r="F203">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="str">
+        <v>75</v>
+      </c>
+      <c r="C204">
+        <v>67</v>
+      </c>
+      <c r="D204">
+        <v>88</v>
+      </c>
+      <c r="E204">
+        <v>67</v>
+      </c>
+      <c r="F204">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="str">
+        <v>75</v>
+      </c>
+      <c r="C205">
+        <v>67</v>
+      </c>
+      <c r="D205">
+        <v>28</v>
+      </c>
+      <c r="E205">
+        <v>44</v>
+      </c>
+      <c r="F205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="str">
+        <v>76</v>
+      </c>
+      <c r="C206">
+        <v>68</v>
+      </c>
+      <c r="D206">
+        <v>49</v>
+      </c>
+      <c r="E206">
+        <v>11</v>
+      </c>
+      <c r="F206">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="str">
+        <v>76</v>
+      </c>
+      <c r="C207">
+        <v>68</v>
+      </c>
+      <c r="D207">
+        <v>40</v>
+      </c>
+      <c r="E207">
+        <v>160</v>
+      </c>
+      <c r="F207">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="str">
+        <v>76</v>
+      </c>
+      <c r="C208">
+        <v>68</v>
+      </c>
+      <c r="D208">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="str">
+        <v>77</v>
+      </c>
+      <c r="C209">
+        <v>69</v>
+      </c>
+      <c r="D209">
+        <v>32</v>
+      </c>
+      <c r="E209">
+        <v>148</v>
+      </c>
+      <c r="F209">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="str">
+        <v>77</v>
+      </c>
+      <c r="C210">
+        <v>69</v>
+      </c>
+      <c r="D210">
+        <v>31</v>
+      </c>
+      <c r="E210">
+        <v>110</v>
+      </c>
+      <c r="F210">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="str">
+        <v>77</v>
+      </c>
+      <c r="C211">
+        <v>69</v>
+      </c>
+      <c r="D211">
+        <v>13</v>
+      </c>
+      <c r="E211">
+        <v>7</v>
+      </c>
+      <c r="F211">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="str">
+        <v>78</v>
+      </c>
+      <c r="C212">
+        <v>70</v>
+      </c>
+      <c r="D212">
+        <v>47</v>
+      </c>
+      <c r="E212">
+        <v>231</v>
+      </c>
+      <c r="F212">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="str">
+        <v>78</v>
+      </c>
+      <c r="C213">
+        <v>70</v>
+      </c>
+      <c r="D213">
+        <v>47</v>
+      </c>
+      <c r="E213">
+        <v>48</v>
+      </c>
+      <c r="F213">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="str">
+        <v>78</v>
+      </c>
+      <c r="C214">
+        <v>70</v>
+      </c>
+      <c r="D214">
+        <v>16</v>
+      </c>
+      <c r="E214">
+        <v>38</v>
+      </c>
+      <c r="F214">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="str">
+        <v>79</v>
+      </c>
+      <c r="C215">
+        <v>71</v>
+      </c>
+      <c r="D215">
+        <v>93</v>
+      </c>
+      <c r="E215">
+        <v>359</v>
+      </c>
+      <c r="F215">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="str">
+        <v>79</v>
+      </c>
+      <c r="C216">
+        <v>71</v>
+      </c>
+      <c r="D216">
+        <v>17</v>
+      </c>
+      <c r="E216">
+        <v>42</v>
+      </c>
+      <c r="F216">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="str">
+        <v>79</v>
+      </c>
+      <c r="C217">
+        <v>71</v>
+      </c>
+      <c r="D217">
+        <v>16</v>
+      </c>
+      <c r="E217">
+        <v>54</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="str">
+        <v>80</v>
+      </c>
+      <c r="C218">
+        <v>72</v>
+      </c>
+      <c r="D218">
+        <v>51</v>
+      </c>
+      <c r="E218">
+        <v>77</v>
+      </c>
+      <c r="F218">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="str">
+        <v>80</v>
+      </c>
+      <c r="C219">
+        <v>72</v>
+      </c>
+      <c r="D219">
+        <v>22</v>
+      </c>
+      <c r="E219">
+        <v>64</v>
+      </c>
+      <c r="F219">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="str">
+        <v>80</v>
+      </c>
+      <c r="C220">
+        <v>72</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="str">
+        <v>81</v>
+      </c>
+      <c r="C221">
+        <v>73</v>
+      </c>
+      <c r="D221">
+        <v>69</v>
+      </c>
+      <c r="E221">
+        <v>58</v>
+      </c>
+      <c r="F221">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="str">
+        <v>81</v>
+      </c>
+      <c r="C222">
+        <v>73</v>
+      </c>
+      <c r="D222">
+        <v>33</v>
+      </c>
+      <c r="E222">
+        <v>53</v>
+      </c>
+      <c r="F222">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="str">
+        <v>81</v>
+      </c>
+      <c r="C223">
+        <v>73</v>
+      </c>
+      <c r="D223">
+        <v>11</v>
+      </c>
+      <c r="E223">
+        <v>26</v>
+      </c>
+      <c r="F223">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="str">
+        <v>82</v>
+      </c>
+      <c r="C224">
+        <v>74</v>
+      </c>
+      <c r="D224">
+        <v>19</v>
+      </c>
+      <c r="E224">
+        <v>27</v>
+      </c>
+      <c r="F224">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="str">
+        <v>82</v>
+      </c>
+      <c r="C225">
+        <v>74</v>
+      </c>
+      <c r="D225">
+        <v>8</v>
+      </c>
+      <c r="E225">
+        <v>6</v>
+      </c>
+      <c r="F225">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="str">
+        <v>82</v>
+      </c>
+      <c r="C226">
+        <v>74</v>
+      </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="str">
+        <v>83</v>
+      </c>
+      <c r="C227">
+        <v>75</v>
+      </c>
+      <c r="D227">
+        <v>56</v>
+      </c>
+      <c r="E227">
+        <v>222</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="str">
+        <v>83</v>
+      </c>
+      <c r="C228">
+        <v>75</v>
+      </c>
+      <c r="D228">
+        <v>26</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="str">
+        <v>83</v>
+      </c>
+      <c r="C229">
+        <v>75</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="str">
+        <v>84</v>
+      </c>
+      <c r="C230">
+        <v>76</v>
+      </c>
+      <c r="D230">
+        <v>45</v>
+      </c>
+      <c r="E230">
+        <v>153</v>
+      </c>
+      <c r="F230">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="str">
+        <v>84</v>
+      </c>
+      <c r="C231">
+        <v>76</v>
+      </c>
+      <c r="D231">
+        <v>17</v>
+      </c>
+      <c r="E231">
+        <v>7</v>
+      </c>
+      <c r="F231">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="str">
+        <v>84</v>
+      </c>
+      <c r="C232">
+        <v>76</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="str">
+        <v>85</v>
+      </c>
+      <c r="C233">
+        <v>77</v>
+      </c>
+      <c r="D233">
+        <v>38</v>
+      </c>
+      <c r="E233">
+        <v>60</v>
+      </c>
+      <c r="F233">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="str">
+        <v>85</v>
+      </c>
+      <c r="C234">
+        <v>77</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="E234">
+        <v>15</v>
+      </c>
+      <c r="F234">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="str">
+        <v>85</v>
+      </c>
+      <c r="C235">
+        <v>77</v>
+      </c>
+      <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235">
+        <v>16</v>
+      </c>
+      <c r="F235">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="str">
+        <v>86</v>
+      </c>
+      <c r="C236">
+        <v>78</v>
+      </c>
+      <c r="D236">
+        <v>16</v>
+      </c>
+      <c r="E236">
+        <v>28</v>
+      </c>
+      <c r="F236">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="str">
+        <v>86</v>
+      </c>
+      <c r="C237">
+        <v>78</v>
+      </c>
+      <c r="D237">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>13</v>
+      </c>
+      <c r="F237">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="str">
+        <v>86</v>
+      </c>
+      <c r="C238">
+        <v>78</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="str">
+        <v>87</v>
+      </c>
+      <c r="C239">
+        <v>79</v>
+      </c>
+      <c r="D239">
+        <v>61</v>
+      </c>
+      <c r="E239">
+        <v>180</v>
+      </c>
+      <c r="F239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="str">
+        <v>87</v>
+      </c>
+      <c r="C240">
+        <v>79</v>
+      </c>
+      <c r="D240">
+        <v>28</v>
+      </c>
+      <c r="E240">
+        <v>15</v>
+      </c>
+      <c r="F240">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="str">
+        <v>87</v>
+      </c>
+      <c r="C241">
+        <v>79</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="str">
+        <v>88</v>
+      </c>
+      <c r="C242">
+        <v>80</v>
+      </c>
+      <c r="D242">
+        <v>52</v>
+      </c>
+      <c r="E242">
+        <v>182</v>
+      </c>
+      <c r="F242">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="str">
+        <v>88</v>
+      </c>
+      <c r="C243">
+        <v>80</v>
+      </c>
+      <c r="D243">
+        <v>18</v>
+      </c>
+      <c r="E243">
+        <v>9</v>
+      </c>
+      <c r="F243">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="str">
+        <v>88</v>
+      </c>
+      <c r="C244">
+        <v>80</v>
+      </c>
+      <c r="D244">
+        <v>11</v>
+      </c>
+      <c r="E244">
+        <v>13</v>
+      </c>
+      <c r="F244">
+        <v>38.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F244"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -388,41 +388,21 @@
         <v>Kata solutions</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v>kata_id</v>
-      </c>
-      <c r="C3" t="str">
-        <v>solution</v>
-      </c>
-      <c r="D3" t="str">
-        <v>best_practices</v>
-      </c>
-      <c r="E3" t="str">
-        <v>clever</v>
-      </c>
-      <c r="F3" t="str">
-        <v>cpx</v>
-      </c>
-    </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
-        <v>1062</v>
-      </c>
-      <c r="F4">
-        <v>10.6</v>
+        <v>kata_id</v>
+      </c>
+      <c r="C4" t="str">
+        <v>solution</v>
+      </c>
+      <c r="D4" t="str">
+        <v>best_practices</v>
+      </c>
+      <c r="E4" t="str">
+        <v>clever</v>
+      </c>
+      <c r="F4" t="str">
+        <v>cpx</v>
       </c>
     </row>
     <row r="5">
@@ -430,16 +410,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="E5">
-        <v>272</v>
+        <v>1062</v>
       </c>
       <c r="F5">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="6">
@@ -447,33 +427,33 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1013</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>7.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -484,13 +464,13 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>1013</v>
       </c>
       <c r="E8">
-        <v>526</v>
+        <v>185</v>
       </c>
       <c r="F8">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="9">
@@ -498,33 +478,33 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>526</v>
       </c>
       <c r="F9">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>385</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>1589</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="11">
@@ -532,16 +512,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>243</v>
+        <v>385</v>
       </c>
       <c r="E11">
-        <v>70</v>
+        <v>1589</v>
       </c>
       <c r="F11">
-        <v>11.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12">
@@ -552,30 +532,30 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="E12">
-        <v>285</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>689</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>2286</v>
+        <v>285</v>
       </c>
       <c r="F13">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14">
@@ -583,16 +563,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>170</v>
+        <v>689</v>
       </c>
       <c r="E14">
-        <v>104</v>
+        <v>2286</v>
       </c>
       <c r="F14">
-        <v>11.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -600,33 +580,33 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F15">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>927</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="17">
@@ -634,16 +614,16 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>195</v>
+        <v>927</v>
       </c>
       <c r="E17">
-        <v>952</v>
+        <v>438</v>
       </c>
       <c r="F17">
-        <v>9.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="18">
@@ -651,33 +631,33 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>952</v>
       </c>
       <c r="F18">
-        <v>13.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>1025</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="20">
@@ -685,16 +665,16 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>216</v>
+        <v>1025</v>
       </c>
       <c r="E20">
-        <v>775</v>
+        <v>237</v>
       </c>
       <c r="F20">
-        <v>5.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -702,33 +682,33 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="E21">
-        <v>1044</v>
+        <v>775</v>
       </c>
       <c r="F21">
-        <v>12.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>527</v>
+        <v>191</v>
       </c>
       <c r="E22">
-        <v>250</v>
+        <v>1044</v>
       </c>
       <c r="F22">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="23">
@@ -736,16 +716,16 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>92</v>
+        <v>527</v>
       </c>
       <c r="E23">
-        <v>693</v>
+        <v>250</v>
       </c>
       <c r="F23">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="24">
@@ -753,33 +733,33 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E24">
-        <v>109</v>
+        <v>693</v>
       </c>
       <c r="F24">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="E25">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="F25">
-        <v>7.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="26">
@@ -787,16 +767,16 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E26">
-        <v>2267</v>
+        <v>343</v>
       </c>
       <c r="F26">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="27">
@@ -804,30 +784,30 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>338</v>
+        <v>763</v>
       </c>
       <c r="E27">
-        <v>912</v>
+        <v>2267</v>
       </c>
       <c r="F27">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>990</v>
+        <v>338</v>
       </c>
       <c r="E28">
-        <v>513</v>
+        <v>912</v>
       </c>
       <c r="F28">
         <v>6.5</v>
@@ -838,16 +818,16 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>529</v>
+        <v>990</v>
       </c>
       <c r="E29">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="F29">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="30">
@@ -855,33 +835,33 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>529</v>
       </c>
       <c r="E30">
-        <v>73</v>
+        <v>382</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>566</v>
+        <v>99</v>
       </c>
       <c r="E31">
-        <v>1409</v>
+        <v>73</v>
       </c>
       <c r="F31">
-        <v>5.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -889,16 +869,16 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>134</v>
+        <v>566</v>
       </c>
       <c r="E32">
-        <v>583</v>
+        <v>1409</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="33">
@@ -906,33 +886,33 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E33">
-        <v>160</v>
+        <v>583</v>
       </c>
       <c r="F33">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>520</v>
+        <v>122</v>
       </c>
       <c r="E34">
-        <v>742</v>
+        <v>160</v>
       </c>
       <c r="F34">
-        <v>11.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="35">
@@ -940,16 +920,16 @@
         <v>19</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>157</v>
+        <v>520</v>
       </c>
       <c r="E35">
-        <v>132</v>
+        <v>742</v>
       </c>
       <c r="F35">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="36">
@@ -957,33 +937,33 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="E36">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="F36">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="str">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="E37">
-        <v>1048</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="38">
@@ -991,16 +971,16 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>113</v>
+        <v>541</v>
       </c>
       <c r="E38">
-        <v>47</v>
+        <v>1048</v>
       </c>
       <c r="F38">
-        <v>11.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1008,33 +988,33 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E39">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>664</v>
+        <v>66</v>
       </c>
       <c r="E40">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="F40">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="41">
@@ -1042,16 +1022,16 @@
         <v>21</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>155</v>
+        <v>664</v>
       </c>
       <c r="E41">
-        <v>710</v>
+        <v>279</v>
       </c>
       <c r="F41">
-        <v>18.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="42">
@@ -1059,33 +1039,33 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="E42">
-        <v>115</v>
+        <v>710</v>
       </c>
       <c r="F42">
-        <v>21.7</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="E43">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F43">
-        <v>7.4</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="44">
@@ -1093,16 +1073,16 @@
         <v>22</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>199</v>
+        <v>364</v>
       </c>
       <c r="E44">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="F44">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="45">
@@ -1110,33 +1090,33 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="E45">
-        <v>723</v>
+        <v>419</v>
       </c>
       <c r="F45">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>1306</v>
+        <v>123</v>
       </c>
       <c r="E46">
-        <v>589</v>
+        <v>723</v>
       </c>
       <c r="F46">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="47">
@@ -1144,16 +1124,16 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>129</v>
+        <v>1306</v>
       </c>
       <c r="E47">
-        <v>680</v>
+        <v>589</v>
       </c>
       <c r="F47">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="48">
@@ -1161,33 +1141,33 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="E48">
-        <v>47</v>
+        <v>680</v>
       </c>
       <c r="F48">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="str">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>483</v>
+        <v>70</v>
       </c>
       <c r="E49">
-        <v>549</v>
+        <v>47</v>
       </c>
       <c r="F49">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="50">
@@ -1195,16 +1175,16 @@
         <v>24</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>120</v>
+        <v>483</v>
       </c>
       <c r="E50">
-        <v>137</v>
+        <v>549</v>
       </c>
       <c r="F50">
-        <v>11.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="51">
@@ -1212,33 +1192,33 @@
         <v>24</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="E51">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="F51">
-        <v>8.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="str">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>748</v>
+        <v>74</v>
       </c>
       <c r="E52">
-        <v>989</v>
+        <v>92</v>
       </c>
       <c r="F52">
-        <v>11.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="53">
@@ -1246,16 +1226,16 @@
         <v>25</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>71</v>
+        <v>748</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>989</v>
       </c>
       <c r="F53">
-        <v>9.6</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="54">
@@ -1263,33 +1243,33 @@
         <v>25</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F54">
-        <v>13.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="str">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>409</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="F55">
-        <v>18.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="56">
@@ -1297,16 +1277,16 @@
         <v>26</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="E56">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="F56">
-        <v>15.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="57">
@@ -1314,33 +1294,33 @@
         <v>26</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E57">
-        <v>385</v>
+        <v>113</v>
       </c>
       <c r="F57">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="E58">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="F58">
-        <v>8.7</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="59">
@@ -1348,16 +1328,16 @@
         <v>27</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="E59">
-        <v>402</v>
+        <v>512</v>
       </c>
       <c r="F59">
-        <v>8.3</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="60">
@@ -1365,33 +1345,33 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E60">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="F60">
-        <v>16.5</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="E61">
-        <v>540</v>
+        <v>36</v>
       </c>
       <c r="F61">
-        <v>11.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="62">
@@ -1399,16 +1379,16 @@
         <v>28</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="E62">
-        <v>265</v>
+        <v>540</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="63">
@@ -1416,33 +1396,33 @@
         <v>28</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E63">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="F63">
-        <v>12.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>796</v>
+        <v>54</v>
       </c>
       <c r="E64">
-        <v>1057</v>
+        <v>146</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="65">
@@ -1450,16 +1430,16 @@
         <v>29</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>127</v>
+        <v>796</v>
       </c>
       <c r="E65">
-        <v>62</v>
+        <v>1057</v>
       </c>
       <c r="F65">
-        <v>9.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1467,33 +1447,33 @@
         <v>29</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E66">
-        <v>322</v>
+        <v>62</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="str">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>1665</v>
+        <v>91</v>
       </c>
       <c r="E67">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="F67">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -1501,16 +1481,16 @@
         <v>30</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>123</v>
+        <v>1665</v>
       </c>
       <c r="E68">
-        <v>56</v>
+        <v>748</v>
       </c>
       <c r="F68">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="69">
@@ -1518,33 +1498,33 @@
         <v>30</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E69">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>316</v>
+        <v>120</v>
       </c>
       <c r="E70">
-        <v>592</v>
+        <v>105</v>
       </c>
       <c r="F70">
-        <v>8.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1552,16 +1532,16 @@
         <v>31</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="E71">
-        <v>34</v>
+        <v>592</v>
       </c>
       <c r="F71">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="72">
@@ -1569,33 +1549,33 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F72">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="E73">
-        <v>453</v>
+        <v>18</v>
       </c>
       <c r="F73">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="74">
@@ -1603,16 +1583,16 @@
         <v>32</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>380</v>
+        <v>564</v>
       </c>
       <c r="E74">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="F74">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="75">
@@ -1620,33 +1600,33 @@
         <v>32</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>62</v>
+        <v>380</v>
       </c>
       <c r="E75">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="F75">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D76">
-        <v>470</v>
+        <v>62</v>
       </c>
       <c r="E76">
-        <v>725</v>
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="77">
@@ -1654,16 +1634,16 @@
         <v>33</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>133</v>
+        <v>470</v>
       </c>
       <c r="E77">
-        <v>68</v>
+        <v>725</v>
       </c>
       <c r="F77">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="78">
@@ -1671,33 +1651,33 @@
         <v>33</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D78">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="E78">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="F78">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D79">
-        <v>1325</v>
+        <v>88</v>
       </c>
       <c r="E79">
-        <v>994</v>
+        <v>145</v>
       </c>
       <c r="F79">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="80">
@@ -1705,16 +1685,16 @@
         <v>34</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>336</v>
+        <v>1325</v>
       </c>
       <c r="E80">
-        <v>237</v>
+        <v>994</v>
       </c>
       <c r="F80">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="81">
@@ -1722,33 +1702,33 @@
         <v>34</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="E81">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="F81">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>924</v>
+        <v>187</v>
       </c>
       <c r="E82">
-        <v>638</v>
+        <v>67</v>
       </c>
       <c r="F82">
-        <v>8.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="83">
@@ -1756,16 +1736,16 @@
         <v>35</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>92</v>
+        <v>924</v>
       </c>
       <c r="E83">
-        <v>150</v>
+        <v>638</v>
       </c>
       <c r="F83">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="84">
@@ -1773,33 +1753,33 @@
         <v>35</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D84">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E84">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="F84">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D85">
-        <v>673</v>
+        <v>70</v>
       </c>
       <c r="E85">
-        <v>516</v>
+        <v>26</v>
       </c>
       <c r="F85">
-        <v>11.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="86">
@@ -1807,16 +1787,16 @@
         <v>36</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D86">
-        <v>129</v>
+        <v>673</v>
       </c>
       <c r="E86">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="F86">
-        <v>12.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="87">
@@ -1824,33 +1804,33 @@
         <v>36</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="E87">
-        <v>29</v>
+        <v>378</v>
       </c>
       <c r="F87">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="str">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D88">
-        <v>391</v>
+        <v>73</v>
       </c>
       <c r="E88">
-        <v>757</v>
+        <v>29</v>
       </c>
       <c r="F88">
-        <v>7.7</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="89">
@@ -1858,16 +1838,16 @@
         <v>37</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D89">
-        <v>275</v>
+        <v>391</v>
       </c>
       <c r="E89">
-        <v>292</v>
+        <v>757</v>
       </c>
       <c r="F89">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="90">
@@ -1875,33 +1855,33 @@
         <v>37</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D90">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="E90">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="str">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D91">
-        <v>539</v>
+        <v>134</v>
       </c>
       <c r="E91">
-        <v>677</v>
+        <v>34</v>
       </c>
       <c r="F91">
-        <v>10.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -1909,16 +1889,16 @@
         <v>38</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D92">
-        <v>142</v>
+        <v>539</v>
       </c>
       <c r="E92">
-        <v>200</v>
+        <v>677</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="93">
@@ -1926,33 +1906,33 @@
         <v>38</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="E93">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="F93">
-        <v>7.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="str">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D94">
-        <v>1034</v>
+        <v>65</v>
       </c>
       <c r="E94">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="95">
@@ -1960,13 +1940,13 @@
         <v>39</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D95">
-        <v>223</v>
+        <v>1034</v>
       </c>
       <c r="E95">
-        <v>842</v>
+        <v>360</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -1977,13 +1957,13 @@
         <v>39</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D96">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="E96">
-        <v>45</v>
+        <v>842</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -1991,19 +1971,19 @@
     </row>
     <row r="97">
       <c r="B97" t="str">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D97">
-        <v>484</v>
+        <v>116</v>
       </c>
       <c r="E97">
-        <v>698</v>
+        <v>45</v>
       </c>
       <c r="F97">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2011,16 +1991,16 @@
         <v>40</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D98">
-        <v>257</v>
+        <v>484</v>
       </c>
       <c r="E98">
-        <v>201</v>
+        <v>698</v>
       </c>
       <c r="F98">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="99">
@@ -2028,33 +2008,33 @@
         <v>40</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D99">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="E99">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="F99">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="str">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D100">
-        <v>676</v>
+        <v>55</v>
       </c>
       <c r="E100">
-        <v>333</v>
+        <v>124</v>
       </c>
       <c r="F100">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="101">
@@ -2062,16 +2042,16 @@
         <v>41</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D101">
-        <v>427</v>
+        <v>676</v>
       </c>
       <c r="E101">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="F101">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="102">
@@ -2079,33 +2059,33 @@
         <v>41</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D102">
-        <v>160</v>
+        <v>427</v>
       </c>
       <c r="E102">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="F102">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="str">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D103">
-        <v>459</v>
+        <v>160</v>
       </c>
       <c r="E103">
-        <v>1338</v>
+        <v>104</v>
       </c>
       <c r="F103">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="104">
@@ -2113,16 +2093,16 @@
         <v>42</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D104">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="E104">
-        <v>593</v>
+        <v>1338</v>
       </c>
       <c r="F104">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="105">
@@ -2130,33 +2110,33 @@
         <v>42</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D105">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="E105">
-        <v>41</v>
+        <v>593</v>
       </c>
       <c r="F105">
-        <v>10.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="str">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D106">
-        <v>657</v>
+        <v>165</v>
       </c>
       <c r="E106">
-        <v>1184</v>
+        <v>41</v>
       </c>
       <c r="F106">
-        <v>5.9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="107">
@@ -2164,16 +2144,16 @@
         <v>43</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D107">
-        <v>147</v>
+        <v>657</v>
       </c>
       <c r="E107">
-        <v>366</v>
+        <v>1184</v>
       </c>
       <c r="F107">
-        <v>10.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="108">
@@ -2181,33 +2161,33 @@
         <v>43</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D108">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E108">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="str">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D109">
-        <v>703</v>
+        <v>143</v>
       </c>
       <c r="E109">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="F109">
-        <v>5.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -2215,16 +2195,16 @@
         <v>44</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D110">
-        <v>241</v>
+        <v>703</v>
       </c>
       <c r="E110">
-        <v>619</v>
+        <v>322</v>
       </c>
       <c r="F110">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="111">
@@ -2232,33 +2212,33 @@
         <v>44</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D111">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="E111">
-        <v>48</v>
+        <v>619</v>
       </c>
       <c r="F111">
-        <v>9.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="str">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D112">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="E112">
-        <v>894</v>
+        <v>48</v>
       </c>
       <c r="F112">
-        <v>6.8</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="113">
@@ -2266,16 +2246,16 @@
         <v>45</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D113">
-        <v>215</v>
+        <v>763</v>
       </c>
       <c r="E113">
-        <v>513</v>
+        <v>894</v>
       </c>
       <c r="F113">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="114">
@@ -2283,13 +2263,13 @@
         <v>45</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D114">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="E114">
-        <v>186</v>
+        <v>513</v>
       </c>
       <c r="F114">
         <v>4.9</v>
@@ -2297,19 +2277,19 @@
     </row>
     <row r="115">
       <c r="B115" t="str">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D115">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="E115">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="116">
@@ -2317,16 +2297,16 @@
         <v>46</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D116">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E116">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="F116">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -2334,33 +2314,33 @@
         <v>46</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D117">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="E117">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="F117">
-        <v>9.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="str">
+        <v>46</v>
+      </c>
+      <c r="C118">
+        <v>38</v>
+      </c>
+      <c r="D118">
         <v>47</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>700</v>
-      </c>
       <c r="E118">
-        <v>342</v>
+        <v>191</v>
       </c>
       <c r="F118">
-        <v>5.8</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="119">
@@ -2368,16 +2348,16 @@
         <v>47</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D119">
-        <v>43</v>
+        <v>700</v>
       </c>
       <c r="E119">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="120">
@@ -2385,33 +2365,33 @@
         <v>47</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D120">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E120">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="F120">
-        <v>4.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="str">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D121">
-        <v>592</v>
+        <v>40</v>
       </c>
       <c r="E121">
-        <v>896</v>
+        <v>255</v>
       </c>
       <c r="F121">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="122">
@@ -2419,16 +2399,16 @@
         <v>48</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D122">
-        <v>154</v>
+        <v>592</v>
       </c>
       <c r="E122">
-        <v>172</v>
+        <v>896</v>
       </c>
       <c r="F122">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="123">
@@ -2436,33 +2416,33 @@
         <v>48</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D123">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="E123">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="F123">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="str">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D124">
-        <v>644</v>
+        <v>31</v>
       </c>
       <c r="E124">
-        <v>1058</v>
+        <v>59</v>
       </c>
       <c r="F124">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="125">
@@ -2470,16 +2450,16 @@
         <v>49</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D125">
-        <v>196</v>
+        <v>644</v>
       </c>
       <c r="E125">
-        <v>102</v>
+        <v>1058</v>
       </c>
       <c r="F125">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="126">
@@ -2487,33 +2467,33 @@
         <v>49</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D126">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="E126">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F126">
-        <v>12.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="str">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D127">
-        <v>430</v>
+        <v>91</v>
       </c>
       <c r="E127">
-        <v>1422</v>
+        <v>58</v>
       </c>
       <c r="F127">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="128">
@@ -2521,16 +2501,16 @@
         <v>50</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D128">
-        <v>92</v>
+        <v>430</v>
       </c>
       <c r="E128">
-        <v>66</v>
+        <v>1422</v>
       </c>
       <c r="F128">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="129">
@@ -2538,33 +2518,33 @@
         <v>50</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D129">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E129">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="str">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D130">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="E130">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="F130">
-        <v>13.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -2572,16 +2552,16 @@
         <v>51</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D131">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="E131">
-        <v>38</v>
+        <v>430</v>
       </c>
       <c r="F131">
-        <v>14</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="132">
@@ -2589,33 +2569,33 @@
         <v>51</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D132">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E132">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="F132">
-        <v>11.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="str">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D133">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="E133">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="F133">
-        <v>10.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="134">
@@ -2623,16 +2603,16 @@
         <v>52</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D134">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="E134">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="F134">
-        <v>13</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="135">
@@ -2640,33 +2620,33 @@
         <v>52</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D135">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="E135">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="F135">
-        <v>7.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="str">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D136">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="E136">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F136">
-        <v>15.3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="137">
@@ -2674,16 +2654,16 @@
         <v>53</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D137">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="E137">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="F137">
-        <v>12.3</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="138">
@@ -2691,33 +2671,33 @@
         <v>53</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D138">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E138">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="F138">
-        <v>19.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="str">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D139">
-        <v>249</v>
+        <v>62</v>
       </c>
       <c r="E139">
-        <v>515</v>
+        <v>30</v>
       </c>
       <c r="F139">
-        <v>6.8</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="140">
@@ -2725,16 +2705,16 @@
         <v>54</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D140">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="E140">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="F140">
-        <v>11.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="141">
@@ -2742,33 +2722,33 @@
         <v>54</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D141">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="E141">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F141">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" t="str">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D142">
-        <v>508</v>
+        <v>57</v>
       </c>
       <c r="E142">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="F142">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="143">
@@ -2776,16 +2756,16 @@
         <v>55</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D143">
-        <v>77</v>
+        <v>508</v>
       </c>
       <c r="E143">
-        <v>863</v>
+        <v>321</v>
       </c>
       <c r="F143">
-        <v>18.1</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="144">
@@ -2793,33 +2773,33 @@
         <v>55</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D144">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E144">
-        <v>36</v>
+        <v>863</v>
       </c>
       <c r="F144">
-        <v>11.8</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" t="str">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D145">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="E145">
-        <v>775</v>
+        <v>36</v>
       </c>
       <c r="F145">
-        <v>8.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="146">
@@ -2827,16 +2807,16 @@
         <v>56</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D146">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="E146">
-        <v>254</v>
+        <v>775</v>
       </c>
       <c r="F146">
-        <v>13</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="147">
@@ -2844,33 +2824,33 @@
         <v>56</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D147">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E147">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="F147">
-        <v>19.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="str">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D148">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="E148">
-        <v>410</v>
+        <v>24</v>
       </c>
       <c r="F148">
-        <v>9.2</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="149">
@@ -2878,16 +2858,16 @@
         <v>57</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D149">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="E149">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="F149">
-        <v>9</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="150">
@@ -2895,33 +2875,33 @@
         <v>57</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D150">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E150">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="F150">
-        <v>9.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="str">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D151">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="E151">
-        <v>367</v>
+        <v>32</v>
       </c>
       <c r="F151">
-        <v>23.3</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="152">
@@ -2929,16 +2909,16 @@
         <v>58</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D152">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="E152">
-        <v>114</v>
+        <v>367</v>
       </c>
       <c r="F152">
-        <v>72.8</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="153">
@@ -2946,33 +2926,33 @@
         <v>58</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D153">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="E153">
-        <v>471</v>
+        <v>114</v>
       </c>
       <c r="F153">
-        <v>12.8</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" t="str">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D154">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="E154">
-        <v>258</v>
+        <v>471</v>
       </c>
       <c r="F154">
-        <v>5.4</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="155">
@@ -2980,16 +2960,16 @@
         <v>59</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D155">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="E155">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F155">
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="156">
@@ -2997,33 +2977,33 @@
         <v>59</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D156">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="E156">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="F156">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="str">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D157">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="E157">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="F157">
-        <v>13.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="158">
@@ -3031,16 +3011,16 @@
         <v>60</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D158">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="E158">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="F158">
-        <v>16.5</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="159">
@@ -3048,33 +3028,33 @@
         <v>60</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D159">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E159">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F159">
-        <v>13.1</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="str">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D160">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="E160">
-        <v>498</v>
+        <v>17</v>
       </c>
       <c r="F160">
-        <v>10.1</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="161">
@@ -3082,16 +3062,16 @@
         <v>61</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D161">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="E161">
-        <v>230</v>
+        <v>498</v>
       </c>
       <c r="F161">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="162">
@@ -3099,33 +3079,33 @@
         <v>61</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D162">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E162">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="F162">
-        <v>14.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="str">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D163">
-        <v>354</v>
+        <v>66</v>
       </c>
       <c r="E163">
-        <v>464</v>
+        <v>28</v>
       </c>
       <c r="F163">
-        <v>7.7</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="164">
@@ -3133,16 +3113,16 @@
         <v>62</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D164">
-        <v>105</v>
+        <v>354</v>
       </c>
       <c r="E164">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="F164">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="165">
@@ -3150,30 +3130,30 @@
         <v>62</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D165">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E165">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="F165">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="str">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D166">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="E166">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F166">
         <v>6.8</v>
@@ -3184,16 +3164,16 @@
         <v>63</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D167">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="E167">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="F167">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="168">
@@ -3201,33 +3181,33 @@
         <v>63</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D168">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E168">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="F168">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="str">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D169">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="E169">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="F169">
-        <v>29</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="170">
@@ -3235,16 +3215,16 @@
         <v>64</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D170">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E170">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F170">
-        <v>24.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
@@ -3252,33 +3232,33 @@
         <v>64</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D171">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E171">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="F171">
-        <v>18.7</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="str">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D172">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E172">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="F172">
-        <v>5.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="173">
@@ -3286,16 +3266,16 @@
         <v>65</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D173">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E173">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="F173">
-        <v>8.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="174">
@@ -3303,33 +3283,33 @@
         <v>65</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D174">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E174">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F174">
-        <v>5.5</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" t="str">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D175">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E175">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="F175">
-        <v>15</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="176">
@@ -3337,16 +3317,16 @@
         <v>66</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D176">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E176">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="F176">
-        <v>22.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
@@ -3354,33 +3334,33 @@
         <v>66</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D177">
         <v>21</v>
       </c>
       <c r="E177">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F177">
-        <v>14.1</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="str">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D178">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E178">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="F178">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="179">
@@ -3388,16 +3368,16 @@
         <v>67</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D179">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E179">
-        <v>18</v>
+        <v>344</v>
       </c>
       <c r="F179">
-        <v>29.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="180">
@@ -3405,33 +3385,33 @@
         <v>67</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D180">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E180">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F180">
-        <v>31.5</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="str">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D181">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E181">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F181">
-        <v>10.4</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="182">
@@ -3439,16 +3419,16 @@
         <v>68</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E182">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F182">
-        <v>7.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="183">
@@ -3456,33 +3436,33 @@
         <v>68</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F183">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="184">
       <c r="B184" t="str">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D184">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="F184">
-        <v>27.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="185">
@@ -3490,16 +3470,16 @@
         <v>69</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D185">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E185">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="F185">
-        <v>18.2</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="186">
@@ -3507,33 +3487,33 @@
         <v>69</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D186">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="E186">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="F186">
-        <v>35.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="187">
       <c r="B187" t="str">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D187">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="E187">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="F187">
-        <v>21.1</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="188">
@@ -3541,16 +3521,16 @@
         <v>70</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D188">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="E188">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="F188">
-        <v>37.5</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="189">
@@ -3558,33 +3538,33 @@
         <v>70</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D189">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E189">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F189">
-        <v>18.3</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" t="str">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D190">
         <v>49</v>
       </c>
       <c r="E190">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F190">
-        <v>27.9</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="191">
@@ -3592,16 +3572,16 @@
         <v>71</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D191">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E191">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F191">
-        <v>60.8</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="192">
@@ -3609,33 +3589,33 @@
         <v>71</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D192">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E192">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="F192">
-        <v>39.9</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="193">
       <c r="B193" t="str">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D193">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="E193">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="F193">
-        <v>14.9</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="194">
@@ -3643,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D194">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E194">
-        <v>319</v>
+        <v>176</v>
       </c>
       <c r="F194">
-        <v>5</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="195">
@@ -3660,33 +3640,33 @@
         <v>72</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D195">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E195">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="F195">
-        <v>4.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="B196" t="str">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D196">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E196">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F196">
-        <v>20.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="197">
@@ -3694,16 +3674,16 @@
         <v>73</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D197">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E197">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="F197">
-        <v>13.5</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="198">
@@ -3711,33 +3691,33 @@
         <v>73</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D198">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E198">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="str">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D199">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E199">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F199">
-        <v>31.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3745,16 +3725,16 @@
         <v>74</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D200">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E200">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F200">
-        <v>25.8</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="201">
@@ -3762,33 +3742,33 @@
         <v>74</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="D201">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E201">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F201">
-        <v>28.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" t="str">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D202">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="E202">
-        <v>412</v>
+        <v>39</v>
       </c>
       <c r="F202">
-        <v>15.8</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="203">
@@ -3796,16 +3776,16 @@
         <v>75</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D203">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E203">
-        <v>67</v>
+        <v>412</v>
       </c>
       <c r="F203">
-        <v>27.4</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="204">
@@ -3813,33 +3793,33 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D204">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E204">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F204">
-        <v>8</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="str">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D205">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E205">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F205">
-        <v>25.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -3847,16 +3827,16 @@
         <v>76</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D206">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E206">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F206">
-        <v>23.8</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="207">
@@ -3864,33 +3844,33 @@
         <v>76</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D207">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E207">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="F207">
-        <v>27.4</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="208">
       <c r="B208" t="str">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D208">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E208">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="F208">
-        <v>20.9</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="209">
@@ -3898,16 +3878,16 @@
         <v>77</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D209">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E209">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="F209">
-        <v>26</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="210">
@@ -3915,33 +3895,33 @@
         <v>77</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E210">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="F210">
-        <v>22.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="str">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D211">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E211">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="F211">
-        <v>12.7</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="212">
@@ -3949,16 +3929,16 @@
         <v>78</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D212">
         <v>47</v>
       </c>
       <c r="E212">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="F212">
-        <v>9.7</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="213">
@@ -3966,33 +3946,33 @@
         <v>78</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D213">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E213">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F213">
-        <v>8.9</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="str">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D214">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E214">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="F214">
-        <v>13.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="215">
@@ -4000,16 +3980,16 @@
         <v>79</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D215">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E215">
-        <v>42</v>
+        <v>359</v>
       </c>
       <c r="F215">
-        <v>16.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="216">
@@ -4017,33 +3997,33 @@
         <v>79</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D216">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E216">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="str">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D217">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E217">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F217">
-        <v>45.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4051,16 +4031,16 @@
         <v>80</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D218">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E218">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F218">
-        <v>54.8</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="219">
@@ -4068,33 +4048,33 @@
         <v>80</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E219">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="F219">
-        <v>82.3</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" t="str">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D220">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F220">
-        <v>15.9</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="221">
@@ -4102,16 +4082,16 @@
         <v>81</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D221">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E221">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F221">
-        <v>12</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="222">
@@ -4119,33 +4099,33 @@
         <v>81</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D222">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E222">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F222">
-        <v>14.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="str">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D223">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F223">
-        <v>24.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="224">
@@ -4153,16 +4133,16 @@
         <v>82</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E224">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F224">
-        <v>37.4</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="225">
@@ -4170,33 +4150,33 @@
         <v>82</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F225">
-        <v>36.3</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" t="str">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D226">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="227">
@@ -4204,13 +4184,13 @@
         <v>83</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D227">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4221,13 +4201,13 @@
         <v>83</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D228">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4235,19 +4215,19 @@
     </row>
     <row r="229">
       <c r="B229" t="str">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D229">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="F229">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4255,16 +4235,16 @@
         <v>84</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D230">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E230">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="F230">
-        <v>61</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="231">
@@ -4272,33 +4252,33 @@
         <v>84</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F231">
-        <v>48.8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="str">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D232">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E232">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>26.4</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="233">
@@ -4306,16 +4286,16 @@
         <v>85</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E233">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F233">
-        <v>17.4</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="234">
@@ -4323,33 +4303,33 @@
         <v>85</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F234">
-        <v>20</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="str">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235">
         <v>16</v>
       </c>
-      <c r="E235">
-        <v>28</v>
-      </c>
       <c r="F235">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236">
@@ -4357,16 +4337,16 @@
         <v>86</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D236">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F236">
-        <v>32.4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237">
@@ -4374,33 +4354,33 @@
         <v>86</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F237">
-        <v>36.5</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="str">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D238">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>12</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="239">
@@ -4408,16 +4388,16 @@
         <v>87</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D239">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E239">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F239">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
@@ -4425,33 +4405,33 @@
         <v>87</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F240">
-        <v>14.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" t="str">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D241">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E241">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="F241">
-        <v>48.1</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="242">
@@ -4459,16 +4439,16 @@
         <v>88</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D242">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E242">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="F242">
-        <v>65.8</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="243">
@@ -4476,21 +4456,39 @@
         <v>88</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D243">
+        <v>18</v>
+      </c>
+      <c r="E243">
+        <v>9</v>
+      </c>
+      <c r="F243">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="str">
+        <v>88</v>
+      </c>
+      <c r="C244">
+        <v>80</v>
+      </c>
+      <c r="D244">
         <v>11</v>
       </c>
-      <c r="E243">
+      <c r="E244">
         <v>13</v>
       </c>
-      <c r="F243">
+      <c r="F244">
         <v>38.3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F243"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F244"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -404,6 +404,12 @@
       <c r="F4" t="str">
         <v>cpx</v>
       </c>
+      <c r="G4" t="str">
+        <v>bp_percent</v>
+      </c>
+      <c r="H4" t="str">
+        <v>cpx_percent</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
@@ -421,6 +427,12 @@
       <c r="F5">
         <v>10.6</v>
       </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
@@ -438,6 +450,12 @@
       <c r="F6">
         <v>11.1</v>
       </c>
+      <c r="G6">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="H6">
+        <v>104.71698113207547</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
@@ -455,6 +473,12 @@
       <c r="F7">
         <v>15</v>
       </c>
+      <c r="G7">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H7">
+        <v>141.50943396226415</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
@@ -472,6 +496,12 @@
       <c r="F8">
         <v>7.7</v>
       </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
@@ -489,6 +519,12 @@
       <c r="F9">
         <v>8.9</v>
       </c>
+      <c r="G9">
+        <v>6.219151036525172</v>
+      </c>
+      <c r="H9">
+        <v>115.58441558441558</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
@@ -506,6 +542,12 @@
       <c r="F10">
         <v>7.7</v>
       </c>
+      <c r="G10">
+        <v>5.923000987166831</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
@@ -523,6 +565,12 @@
       <c r="F11">
         <v>7.5</v>
       </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
@@ -540,6 +588,12 @@
       <c r="F12">
         <v>11.8</v>
       </c>
+      <c r="G12">
+        <v>63.116883116883116</v>
+      </c>
+      <c r="H12">
+        <v>157.33333333333334</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
@@ -557,6 +611,12 @@
       <c r="F13">
         <v>6.8</v>
       </c>
+      <c r="G13">
+        <v>12.987012987012987</v>
+      </c>
+      <c r="H13">
+        <v>90.66666666666667</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
@@ -574,6 +634,12 @@
       <c r="F14">
         <v>2.2</v>
       </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
@@ -591,6 +657,12 @@
       <c r="F15">
         <v>11.7</v>
       </c>
+      <c r="G15">
+        <v>24.673439767779392</v>
+      </c>
+      <c r="H15">
+        <v>531.8181818181818</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
@@ -608,6 +680,12 @@
       <c r="F16">
         <v>11.1</v>
       </c>
+      <c r="G16">
+        <v>7.547169811320755</v>
+      </c>
+      <c r="H16">
+        <v>504.5454545454545</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
@@ -625,6 +703,12 @@
       <c r="F17">
         <v>12.7</v>
       </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
@@ -642,6 +726,12 @@
       <c r="F18">
         <v>9.5</v>
       </c>
+      <c r="G18">
+        <v>21.035598705501616</v>
+      </c>
+      <c r="H18">
+        <v>74.80314960629921</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
@@ -659,6 +749,12 @@
       <c r="F19">
         <v>13.6</v>
       </c>
+      <c r="G19">
+        <v>7.44336569579288</v>
+      </c>
+      <c r="H19">
+        <v>107.08661417322836</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
@@ -676,6 +772,12 @@
       <c r="F20">
         <v>12</v>
       </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
@@ -693,6 +795,12 @@
       <c r="F21">
         <v>5.6</v>
       </c>
+      <c r="G21">
+        <v>21.073170731707318</v>
+      </c>
+      <c r="H21">
+        <v>46.666666666666664</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
@@ -710,6 +818,12 @@
       <c r="F22">
         <v>12.6</v>
       </c>
+      <c r="G22">
+        <v>18.634146341463413</v>
+      </c>
+      <c r="H22">
+        <v>105</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
@@ -727,6 +841,12 @@
       <c r="F23">
         <v>13.1</v>
       </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
@@ -744,6 +864,12 @@
       <c r="F24">
         <v>11.6</v>
       </c>
+      <c r="G24">
+        <v>17.4573055028463</v>
+      </c>
+      <c r="H24">
+        <v>88.54961832061069</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
@@ -761,6 +887,12 @@
       <c r="F25">
         <v>10.3</v>
       </c>
+      <c r="G25">
+        <v>12.903225806451612</v>
+      </c>
+      <c r="H25">
+        <v>78.62595419847328</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="str">
@@ -778,6 +910,12 @@
       <c r="F26">
         <v>7.9</v>
       </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="str">
@@ -795,6 +933,12 @@
       <c r="F27">
         <v>5.4</v>
       </c>
+      <c r="G27">
+        <v>99.86910994764398</v>
+      </c>
+      <c r="H27">
+        <v>68.35443037974683</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
@@ -812,6 +956,12 @@
       <c r="F28">
         <v>6.5</v>
       </c>
+      <c r="G28">
+        <v>44.24083769633508</v>
+      </c>
+      <c r="H28">
+        <v>82.27848101265822</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="str">
@@ -829,6 +979,12 @@
       <c r="F29">
         <v>6.5</v>
       </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="str">
@@ -846,6 +1002,12 @@
       <c r="F30">
         <v>5.8</v>
       </c>
+      <c r="G30">
+        <v>53.43434343434343</v>
+      </c>
+      <c r="H30">
+        <v>89.23076923076923</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
@@ -863,6 +1025,12 @@
       <c r="F31">
         <v>7</v>
       </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>107.6923076923077</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
@@ -880,6 +1048,12 @@
       <c r="F32">
         <v>5.2</v>
       </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="str">
@@ -897,6 +1071,12 @@
       <c r="F33">
         <v>6</v>
       </c>
+      <c r="G33">
+        <v>23.674911660777386</v>
+      </c>
+      <c r="H33">
+        <v>115.38461538461539</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
@@ -914,6 +1094,12 @@
       <c r="F34">
         <v>5.5</v>
       </c>
+      <c r="G34">
+        <v>21.554770318021202</v>
+      </c>
+      <c r="H34">
+        <v>105.76923076923076</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
@@ -931,6 +1117,12 @@
       <c r="F35">
         <v>11.8</v>
       </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="str">
@@ -948,6 +1140,12 @@
       <c r="F36">
         <v>12.8</v>
       </c>
+      <c r="G36">
+        <v>30.192307692307693</v>
+      </c>
+      <c r="H36">
+        <v>108.47457627118644</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="str">
@@ -965,6 +1163,12 @@
       <c r="F37">
         <v>11.8</v>
       </c>
+      <c r="G37">
+        <v>14.807692307692308</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="str">
@@ -982,6 +1186,12 @@
       <c r="F38">
         <v>13</v>
       </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="str">
@@ -999,6 +1209,12 @@
       <c r="F39">
         <v>11.3</v>
       </c>
+      <c r="G39">
+        <v>20.88724584103512</v>
+      </c>
+      <c r="H39">
+        <v>86.92307692307692</v>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="str">
@@ -1016,6 +1232,12 @@
       <c r="F40">
         <v>12.7</v>
       </c>
+      <c r="G40">
+        <v>12.199630314232902</v>
+      </c>
+      <c r="H40">
+        <v>97.6923076923077</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="str">
@@ -1033,6 +1255,12 @@
       <c r="F41">
         <v>10.6</v>
       </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" t="str">
@@ -1050,6 +1278,12 @@
       <c r="F42">
         <v>18.3</v>
       </c>
+      <c r="G42">
+        <v>23.343373493975903</v>
+      </c>
+      <c r="H42">
+        <v>172.64150943396228</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="str">
@@ -1067,6 +1301,12 @@
       <c r="F43">
         <v>21.7</v>
       </c>
+      <c r="G43">
+        <v>12.349397590361447</v>
+      </c>
+      <c r="H43">
+        <v>204.7169811320755</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" t="str">
@@ -1084,6 +1324,12 @@
       <c r="F44">
         <v>7.4</v>
       </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="str">
@@ -1101,6 +1347,12 @@
       <c r="F45">
         <v>6.9</v>
       </c>
+      <c r="G45">
+        <v>54.67032967032967</v>
+      </c>
+      <c r="H45">
+        <v>93.24324324324324</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="str">
@@ -1118,6 +1370,12 @@
       <c r="F46">
         <v>6.1</v>
       </c>
+      <c r="G46">
+        <v>33.79120879120879</v>
+      </c>
+      <c r="H46">
+        <v>82.43243243243244</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" t="str">
@@ -1135,6 +1393,12 @@
       <c r="F47">
         <v>5.7</v>
       </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" t="str">
@@ -1152,6 +1416,12 @@
       <c r="F48">
         <v>5.2</v>
       </c>
+      <c r="G48">
+        <v>9.877488514548238</v>
+      </c>
+      <c r="H48">
+        <v>91.22807017543859</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="str">
@@ -1169,6 +1439,12 @@
       <c r="F49">
         <v>7.6</v>
       </c>
+      <c r="G49">
+        <v>5.359877488514548</v>
+      </c>
+      <c r="H49">
+        <v>133.33333333333334</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="str">
@@ -1186,6 +1462,12 @@
       <c r="F50">
         <v>7.4</v>
       </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="str">
@@ -1203,6 +1485,12 @@
       <c r="F51">
         <v>11.1</v>
       </c>
+      <c r="G51">
+        <v>24.84472049689441</v>
+      </c>
+      <c r="H51">
+        <v>150</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" t="str">
@@ -1220,6 +1508,12 @@
       <c r="F52">
         <v>8.4</v>
       </c>
+      <c r="G52">
+        <v>15.320910973084887</v>
+      </c>
+      <c r="H52">
+        <v>113.5135135135135</v>
+      </c>
     </row>
     <row r="53">
       <c r="B53" t="str">
@@ -1237,6 +1531,12 @@
       <c r="F53">
         <v>11.8</v>
       </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" t="str">
@@ -1254,6 +1554,12 @@
       <c r="F54">
         <v>9.6</v>
       </c>
+      <c r="G54">
+        <v>9.491978609625669</v>
+      </c>
+      <c r="H54">
+        <v>81.35593220338983</v>
+      </c>
     </row>
     <row r="55">
       <c r="B55" t="str">
@@ -1271,6 +1577,12 @@
       <c r="F55">
         <v>13.9</v>
       </c>
+      <c r="G55">
+        <v>8.02139037433155</v>
+      </c>
+      <c r="H55">
+        <v>117.79661016949152</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" t="str">
@@ -1288,6 +1600,12 @@
       <c r="F56">
         <v>18.1</v>
       </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="B57" t="str">
@@ -1305,6 +1623,12 @@
       <c r="F57">
         <v>15.3</v>
       </c>
+      <c r="G57">
+        <v>23.716381418092908</v>
+      </c>
+      <c r="H57">
+        <v>84.53038674033148</v>
+      </c>
     </row>
     <row r="58">
       <c r="B58" t="str">
@@ -1322,6 +1646,12 @@
       <c r="F58">
         <v>14.2</v>
       </c>
+      <c r="G58">
+        <v>19.070904645476773</v>
+      </c>
+      <c r="H58">
+        <v>78.45303867403314</v>
+      </c>
     </row>
     <row r="59">
       <c r="B59" t="str">
@@ -1339,6 +1669,12 @@
       <c r="F59">
         <v>8.7</v>
       </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
     </row>
     <row r="60">
       <c r="B60" t="str">
@@ -1356,6 +1692,12 @@
       <c r="F60">
         <v>8.3</v>
       </c>
+      <c r="G60">
+        <v>51.785714285714285</v>
+      </c>
+      <c r="H60">
+        <v>95.40229885057474</v>
+      </c>
     </row>
     <row r="61">
       <c r="B61" t="str">
@@ -1373,6 +1715,12 @@
       <c r="F61">
         <v>16.5</v>
       </c>
+      <c r="G61">
+        <v>9.226190476190476</v>
+      </c>
+      <c r="H61">
+        <v>189.6551724137931</v>
+      </c>
     </row>
     <row r="62">
       <c r="B62" t="str">
@@ -1390,6 +1738,12 @@
       <c r="F62">
         <v>11.8</v>
       </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
     </row>
     <row r="63">
       <c r="B63" t="str">
@@ -1407,6 +1761,12 @@
       <c r="F63">
         <v>5</v>
       </c>
+      <c r="G63">
+        <v>21.409921671018278</v>
+      </c>
+      <c r="H63">
+        <v>42.3728813559322</v>
+      </c>
     </row>
     <row r="64">
       <c r="B64" t="str">
@@ -1424,6 +1784,12 @@
       <c r="F64">
         <v>12.5</v>
       </c>
+      <c r="G64">
+        <v>14.099216710182768</v>
+      </c>
+      <c r="H64">
+        <v>105.9322033898305</v>
+      </c>
     </row>
     <row r="65">
       <c r="B65" t="str">
@@ -1441,6 +1807,12 @@
       <c r="F65">
         <v>6</v>
       </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
     </row>
     <row r="66">
       <c r="B66" t="str">
@@ -1458,6 +1830,12 @@
       <c r="F66">
         <v>9.4</v>
       </c>
+      <c r="G66">
+        <v>15.954773869346734</v>
+      </c>
+      <c r="H66">
+        <v>156.66666666666666</v>
+      </c>
     </row>
     <row r="67">
       <c r="B67" t="str">
@@ -1475,6 +1853,12 @@
       <c r="F67">
         <v>5</v>
       </c>
+      <c r="G67">
+        <v>11.4321608040201</v>
+      </c>
+      <c r="H67">
+        <v>83.33333333333333</v>
+      </c>
     </row>
     <row r="68">
       <c r="B68" t="str">
@@ -1492,6 +1876,12 @@
       <c r="F68">
         <v>4.8</v>
       </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" t="str">
@@ -1509,6 +1899,12 @@
       <c r="F69">
         <v>6.1</v>
       </c>
+      <c r="G69">
+        <v>7.387387387387387</v>
+      </c>
+      <c r="H69">
+        <v>127.08333333333334</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
@@ -1526,6 +1922,12 @@
       <c r="F70">
         <v>0</v>
       </c>
+      <c r="G70">
+        <v>7.207207207207207</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" t="str">
@@ -1543,6 +1945,12 @@
       <c r="F71">
         <v>8.1</v>
       </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" t="str">
@@ -1560,6 +1968,12 @@
       <c r="F72">
         <v>10.7</v>
       </c>
+      <c r="G72">
+        <v>31.645569620253166</v>
+      </c>
+      <c r="H72">
+        <v>132.09876543209876</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" t="str">
@@ -1577,6 +1991,12 @@
       <c r="F73">
         <v>8.1</v>
       </c>
+      <c r="G73">
+        <v>23.417721518987342</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" t="str">
@@ -1594,6 +2014,12 @@
       <c r="F74">
         <v>7.5</v>
       </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" t="str">
@@ -1611,6 +2037,12 @@
       <c r="F75">
         <v>5.6</v>
       </c>
+      <c r="G75">
+        <v>67.37588652482269</v>
+      </c>
+      <c r="H75">
+        <v>74.66666666666667</v>
+      </c>
     </row>
     <row r="76">
       <c r="B76" t="str">
@@ -1628,6 +2060,12 @@
       <c r="F76">
         <v>6.1</v>
       </c>
+      <c r="G76">
+        <v>10.99290780141844</v>
+      </c>
+      <c r="H76">
+        <v>81.33333333333333</v>
+      </c>
     </row>
     <row r="77">
       <c r="B77" t="str">
@@ -1645,6 +2083,12 @@
       <c r="F77">
         <v>6.4</v>
       </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
     </row>
     <row r="78">
       <c r="B78" t="str">
@@ -1662,6 +2106,12 @@
       <c r="F78">
         <v>7.9</v>
       </c>
+      <c r="G78">
+        <v>28.29787234042553</v>
+      </c>
+      <c r="H78">
+        <v>123.4375</v>
+      </c>
     </row>
     <row r="79">
       <c r="B79" t="str">
@@ -1679,6 +2129,12 @@
       <c r="F79">
         <v>3.9</v>
       </c>
+      <c r="G79">
+        <v>18.72340425531915</v>
+      </c>
+      <c r="H79">
+        <v>60.9375</v>
+      </c>
     </row>
     <row r="80">
       <c r="B80" t="str">
@@ -1696,6 +2152,12 @@
       <c r="F80">
         <v>3.2</v>
       </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" t="str">
@@ -1713,6 +2175,12 @@
       <c r="F81">
         <v>3.9</v>
       </c>
+      <c r="G81">
+        <v>25.358490566037737</v>
+      </c>
+      <c r="H81">
+        <v>121.875</v>
+      </c>
     </row>
     <row r="82">
       <c r="B82" t="str">
@@ -1730,6 +2198,12 @@
       <c r="F82">
         <v>4.1</v>
       </c>
+      <c r="G82">
+        <v>14.11320754716981</v>
+      </c>
+      <c r="H82">
+        <v>128.12499999999997</v>
+      </c>
     </row>
     <row r="83">
       <c r="B83" t="str">
@@ -1747,6 +2221,12 @@
       <c r="F83">
         <v>8.4</v>
       </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
     </row>
     <row r="84">
       <c r="B84" t="str">
@@ -1764,6 +2244,12 @@
       <c r="F84">
         <v>7.2</v>
       </c>
+      <c r="G84">
+        <v>9.956709956709958</v>
+      </c>
+      <c r="H84">
+        <v>85.71428571428571</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" t="str">
@@ -1781,6 +2267,12 @@
       <c r="F85">
         <v>8.5</v>
       </c>
+      <c r="G85">
+        <v>7.575757575757576</v>
+      </c>
+      <c r="H85">
+        <v>101.19047619047619</v>
+      </c>
     </row>
     <row r="86">
       <c r="B86" t="str">
@@ -1798,6 +2290,12 @@
       <c r="F86">
         <v>11.3</v>
       </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
     </row>
     <row r="87">
       <c r="B87" t="str">
@@ -1815,6 +2313,12 @@
       <c r="F87">
         <v>12.6</v>
       </c>
+      <c r="G87">
+        <v>19.167904903417533</v>
+      </c>
+      <c r="H87">
+        <v>111.50442477876105</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" t="str">
@@ -1832,6 +2336,12 @@
       <c r="F88">
         <v>12.7</v>
       </c>
+      <c r="G88">
+        <v>10.846953937592868</v>
+      </c>
+      <c r="H88">
+        <v>112.38938053097344</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" t="str">
@@ -1849,6 +2359,12 @@
       <c r="F89">
         <v>7.7</v>
       </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
     </row>
     <row r="90">
       <c r="B90" t="str">
@@ -1866,6 +2382,12 @@
       <c r="F90">
         <v>7.6</v>
       </c>
+      <c r="G90">
+        <v>70.33248081841433</v>
+      </c>
+      <c r="H90">
+        <v>98.7012987012987</v>
+      </c>
     </row>
     <row r="91">
       <c r="B91" t="str">
@@ -1883,6 +2405,12 @@
       <c r="F91">
         <v>8</v>
       </c>
+      <c r="G91">
+        <v>34.271099744245525</v>
+      </c>
+      <c r="H91">
+        <v>103.8961038961039</v>
+      </c>
     </row>
     <row r="92">
       <c r="B92" t="str">
@@ -1900,6 +2428,12 @@
       <c r="F92">
         <v>10.2</v>
       </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
     </row>
     <row r="93">
       <c r="B93" t="str">
@@ -1917,6 +2451,12 @@
       <c r="F93">
         <v>12</v>
       </c>
+      <c r="G93">
+        <v>26.34508348794063</v>
+      </c>
+      <c r="H93">
+        <v>117.64705882352942</v>
+      </c>
     </row>
     <row r="94">
       <c r="B94" t="str">
@@ -1934,6 +2474,12 @@
       <c r="F94">
         <v>7.7</v>
       </c>
+      <c r="G94">
+        <v>12.059369202226344</v>
+      </c>
+      <c r="H94">
+        <v>75.49019607843138</v>
+      </c>
     </row>
     <row r="95">
       <c r="B95" t="str">
@@ -1951,6 +2497,12 @@
       <c r="F95">
         <v>0</v>
       </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="B96" t="str">
@@ -1968,6 +2520,12 @@
       <c r="F96">
         <v>0</v>
       </c>
+      <c r="G96">
+        <v>21.566731141199227</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" t="str">
@@ -1985,6 +2543,12 @@
       <c r="F97">
         <v>0</v>
       </c>
+      <c r="G97">
+        <v>11.218568665377177</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="B98" t="str">
@@ -2002,6 +2566,12 @@
       <c r="F98">
         <v>5.7</v>
       </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
     </row>
     <row r="99">
       <c r="B99" t="str">
@@ -2019,6 +2589,12 @@
       <c r="F99">
         <v>6.7</v>
       </c>
+      <c r="G99">
+        <v>53.099173553719005</v>
+      </c>
+      <c r="H99">
+        <v>117.54385964912281</v>
+      </c>
     </row>
     <row r="100">
       <c r="B100" t="str">
@@ -2036,6 +2612,12 @@
       <c r="F100">
         <v>6.4</v>
       </c>
+      <c r="G100">
+        <v>11.363636363636363</v>
+      </c>
+      <c r="H100">
+        <v>112.28070175438596</v>
+      </c>
     </row>
     <row r="101">
       <c r="B101" t="str">
@@ -2053,6 +2635,12 @@
       <c r="F101">
         <v>4.4</v>
       </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
     </row>
     <row r="102">
       <c r="B102" t="str">
@@ -2070,6 +2658,12 @@
       <c r="F102">
         <v>5.3</v>
       </c>
+      <c r="G102">
+        <v>63.16568047337278</v>
+      </c>
+      <c r="H102">
+        <v>120.45454545454544</v>
+      </c>
     </row>
     <row r="103">
       <c r="B103" t="str">
@@ -2087,6 +2681,12 @@
       <c r="F103">
         <v>6.3</v>
       </c>
+      <c r="G103">
+        <v>23.668639053254438</v>
+      </c>
+      <c r="H103">
+        <v>143.18181818181816</v>
+      </c>
     </row>
     <row r="104">
       <c r="B104" t="str">
@@ -2104,6 +2704,12 @@
       <c r="F104">
         <v>4.7</v>
       </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
     </row>
     <row r="105">
       <c r="B105" t="str">
@@ -2121,6 +2727,12 @@
       <c r="F105">
         <v>3.3</v>
       </c>
+      <c r="G105">
+        <v>81.26361655773421</v>
+      </c>
+      <c r="H105">
+        <v>70.2127659574468</v>
+      </c>
     </row>
     <row r="106">
       <c r="B106" t="str">
@@ -2138,6 +2750,12 @@
       <c r="F106">
         <v>10.6</v>
       </c>
+      <c r="G106">
+        <v>35.947712418300654</v>
+      </c>
+      <c r="H106">
+        <v>225.531914893617</v>
+      </c>
     </row>
     <row r="107">
       <c r="B107" t="str">
@@ -2155,6 +2773,12 @@
       <c r="F107">
         <v>5.9</v>
       </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
     </row>
     <row r="108">
       <c r="B108" t="str">
@@ -2172,6 +2796,12 @@
       <c r="F108">
         <v>10.2</v>
       </c>
+      <c r="G108">
+        <v>22.374429223744293</v>
+      </c>
+      <c r="H108">
+        <v>172.88135593220335</v>
+      </c>
     </row>
     <row r="109">
       <c r="B109" t="str">
@@ -2189,6 +2819,12 @@
       <c r="F109">
         <v>4</v>
       </c>
+      <c r="G109">
+        <v>21.765601217656013</v>
+      </c>
+      <c r="H109">
+        <v>67.79661016949152</v>
+      </c>
     </row>
     <row r="110">
       <c r="B110" t="str">
@@ -2206,6 +2842,12 @@
       <c r="F110">
         <v>5.3</v>
       </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
     </row>
     <row r="111">
       <c r="B111" t="str">
@@ -2223,6 +2865,12 @@
       <c r="F111">
         <v>6.1</v>
       </c>
+      <c r="G111">
+        <v>34.28165007112376</v>
+      </c>
+      <c r="H111">
+        <v>115.09433962264151</v>
+      </c>
     </row>
     <row r="112">
       <c r="B112" t="str">
@@ -2240,6 +2888,12 @@
       <c r="F112">
         <v>9.3</v>
       </c>
+      <c r="G112">
+        <v>10.81081081081081</v>
+      </c>
+      <c r="H112">
+        <v>175.47169811320757</v>
+      </c>
     </row>
     <row r="113">
       <c r="B113" t="str">
@@ -2257,6 +2911,12 @@
       <c r="F113">
         <v>6.8</v>
       </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
     </row>
     <row r="114">
       <c r="B114" t="str">
@@ -2274,6 +2934,12 @@
       <c r="F114">
         <v>4.9</v>
       </c>
+      <c r="G114">
+        <v>28.17824377457405</v>
+      </c>
+      <c r="H114">
+        <v>72.05882352941177</v>
+      </c>
     </row>
     <row r="115">
       <c r="B115" t="str">
@@ -2291,6 +2957,12 @@
       <c r="F115">
         <v>4.9</v>
       </c>
+      <c r="G115">
+        <v>17.03800786369594</v>
+      </c>
+      <c r="H115">
+        <v>72.05882352941177</v>
+      </c>
     </row>
     <row r="116">
       <c r="B116" t="str">
@@ -2308,6 +2980,12 @@
       <c r="F116">
         <v>5</v>
       </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
     </row>
     <row r="117">
       <c r="B117" t="str">
@@ -2325,6 +3003,12 @@
       <c r="F117">
         <v>4.9</v>
       </c>
+      <c r="G117">
+        <v>96.63608562691131</v>
+      </c>
+      <c r="H117">
+        <v>98.00000000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="B118" t="str">
@@ -2342,6 +3026,12 @@
       <c r="F118">
         <v>9.3</v>
       </c>
+      <c r="G118">
+        <v>14.37308868501529</v>
+      </c>
+      <c r="H118">
+        <v>186.00000000000003</v>
+      </c>
     </row>
     <row r="119">
       <c r="B119" t="str">
@@ -2359,6 +3049,12 @@
       <c r="F119">
         <v>5.8</v>
       </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
     </row>
     <row r="120">
       <c r="B120" t="str">
@@ -2376,6 +3072,12 @@
       <c r="F120">
         <v>7</v>
       </c>
+      <c r="G120">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="H120">
+        <v>120.6896551724138</v>
+      </c>
     </row>
     <row r="121">
       <c r="B121" t="str">
@@ -2393,6 +3095,12 @@
       <c r="F121">
         <v>4.1</v>
       </c>
+      <c r="G121">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="H121">
+        <v>70.68965517241378</v>
+      </c>
     </row>
     <row r="122">
       <c r="B122" t="str">
@@ -2410,6 +3118,12 @@
       <c r="F122">
         <v>4.4</v>
       </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
     </row>
     <row r="123">
       <c r="B123" t="str">
@@ -2427,6 +3141,12 @@
       <c r="F123">
         <v>5.7</v>
       </c>
+      <c r="G123">
+        <v>26.013513513513512</v>
+      </c>
+      <c r="H123">
+        <v>129.54545454545453</v>
+      </c>
     </row>
     <row r="124">
       <c r="B124" t="str">
@@ -2444,6 +3164,12 @@
       <c r="F124">
         <v>9.9</v>
       </c>
+      <c r="G124">
+        <v>5.236486486486487</v>
+      </c>
+      <c r="H124">
+        <v>224.99999999999997</v>
+      </c>
     </row>
     <row r="125">
       <c r="B125" t="str">
@@ -2461,6 +3187,12 @@
       <c r="F125">
         <v>10.5</v>
       </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+      <c r="H125">
+        <v>100</v>
+      </c>
     </row>
     <row r="126">
       <c r="B126" t="str">
@@ -2478,6 +3210,12 @@
       <c r="F126">
         <v>11.1</v>
       </c>
+      <c r="G126">
+        <v>30.434782608695652</v>
+      </c>
+      <c r="H126">
+        <v>105.71428571428571</v>
+      </c>
     </row>
     <row r="127">
       <c r="B127" t="str">
@@ -2495,6 +3233,12 @@
       <c r="F127">
         <v>12.3</v>
       </c>
+      <c r="G127">
+        <v>14.130434782608695</v>
+      </c>
+      <c r="H127">
+        <v>117.14285714285714</v>
+      </c>
     </row>
     <row r="128">
       <c r="B128" t="str">
@@ -2512,6 +3256,12 @@
       <c r="F128">
         <v>5.5</v>
       </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+      <c r="H128">
+        <v>100</v>
+      </c>
     </row>
     <row r="129">
       <c r="B129" t="str">
@@ -2529,6 +3279,12 @@
       <c r="F129">
         <v>8.4</v>
       </c>
+      <c r="G129">
+        <v>21.3953488372093</v>
+      </c>
+      <c r="H129">
+        <v>152.72727272727272</v>
+      </c>
     </row>
     <row r="130">
       <c r="B130" t="str">
@@ -2546,6 +3302,12 @@
       <c r="F130">
         <v>10</v>
       </c>
+      <c r="G130">
+        <v>8.13953488372093</v>
+      </c>
+      <c r="H130">
+        <v>181.8181818181818</v>
+      </c>
     </row>
     <row r="131">
       <c r="B131" t="str">
@@ -2563,6 +3325,12 @@
       <c r="F131">
         <v>13.3</v>
       </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <v>100</v>
+      </c>
     </row>
     <row r="132">
       <c r="B132" t="str">
@@ -2580,6 +3348,12 @@
       <c r="F132">
         <v>14</v>
       </c>
+      <c r="G132">
+        <v>47.08029197080292</v>
+      </c>
+      <c r="H132">
+        <v>105.26315789473684</v>
+      </c>
     </row>
     <row r="133">
       <c r="B133" t="str">
@@ -2597,6 +3371,12 @@
       <c r="F133">
         <v>11.8</v>
       </c>
+      <c r="G133">
+        <v>15.693430656934307</v>
+      </c>
+      <c r="H133">
+        <v>88.7218045112782</v>
+      </c>
     </row>
     <row r="134">
       <c r="B134" t="str">
@@ -2614,6 +3394,12 @@
       <c r="F134">
         <v>10.2</v>
       </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134">
+        <v>100</v>
+      </c>
     </row>
     <row r="135">
       <c r="B135" t="str">
@@ -2631,6 +3417,12 @@
       <c r="F135">
         <v>13</v>
       </c>
+      <c r="G135">
+        <v>55.89041095890411</v>
+      </c>
+      <c r="H135">
+        <v>127.45098039215686</v>
+      </c>
     </row>
     <row r="136">
       <c r="B136" t="str">
@@ -2648,6 +3440,12 @@
       <c r="F136">
         <v>7.8</v>
       </c>
+      <c r="G136">
+        <v>27.945205479452056</v>
+      </c>
+      <c r="H136">
+        <v>76.47058823529412</v>
+      </c>
     </row>
     <row r="137">
       <c r="B137" t="str">
@@ -2665,6 +3463,12 @@
       <c r="F137">
         <v>15.3</v>
       </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+      <c r="H137">
+        <v>100</v>
+      </c>
     </row>
     <row r="138">
       <c r="B138" t="str">
@@ -2682,6 +3486,12 @@
       <c r="F138">
         <v>12.3</v>
       </c>
+      <c r="G138">
+        <v>21.153846153846153</v>
+      </c>
+      <c r="H138">
+        <v>80.3921568627451</v>
+      </c>
     </row>
     <row r="139">
       <c r="B139" t="str">
@@ -2699,6 +3509,12 @@
       <c r="F139">
         <v>19.9</v>
       </c>
+      <c r="G139">
+        <v>17.032967032967033</v>
+      </c>
+      <c r="H139">
+        <v>130.06535947712416</v>
+      </c>
     </row>
     <row r="140">
       <c r="B140" t="str">
@@ -2716,6 +3532,12 @@
       <c r="F140">
         <v>6.8</v>
       </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140">
+        <v>100</v>
+      </c>
     </row>
     <row r="141">
       <c r="B141" t="str">
@@ -2733,6 +3555,12 @@
       <c r="F141">
         <v>11.9</v>
       </c>
+      <c r="G141">
+        <v>57.429718875502004</v>
+      </c>
+      <c r="H141">
+        <v>175</v>
+      </c>
     </row>
     <row r="142">
       <c r="B142" t="str">
@@ -2750,6 +3578,12 @@
       <c r="F142">
         <v>12.4</v>
       </c>
+      <c r="G142">
+        <v>22.89156626506024</v>
+      </c>
+      <c r="H142">
+        <v>182.35294117647058</v>
+      </c>
     </row>
     <row r="143">
       <c r="B143" t="str">
@@ -2767,6 +3601,12 @@
       <c r="F143">
         <v>10.8</v>
       </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+      <c r="H143">
+        <v>100</v>
+      </c>
     </row>
     <row r="144">
       <c r="B144" t="str">
@@ -2784,6 +3624,12 @@
       <c r="F144">
         <v>18.1</v>
       </c>
+      <c r="G144">
+        <v>15.15748031496063</v>
+      </c>
+      <c r="H144">
+        <v>167.5925925925926</v>
+      </c>
     </row>
     <row r="145">
       <c r="B145" t="str">
@@ -2801,6 +3647,12 @@
       <c r="F145">
         <v>11.8</v>
       </c>
+      <c r="G145">
+        <v>5.905511811023622</v>
+      </c>
+      <c r="H145">
+        <v>109.25925925925925</v>
+      </c>
     </row>
     <row r="146">
       <c r="B146" t="str">
@@ -2818,6 +3670,12 @@
       <c r="F146">
         <v>8.8</v>
       </c>
+      <c r="G146">
+        <v>100</v>
+      </c>
+      <c r="H146">
+        <v>100</v>
+      </c>
     </row>
     <row r="147">
       <c r="B147" t="str">
@@ -2835,6 +3693,12 @@
       <c r="F147">
         <v>13</v>
       </c>
+      <c r="G147">
+        <v>47.44897959183673</v>
+      </c>
+      <c r="H147">
+        <v>147.72727272727272</v>
+      </c>
     </row>
     <row r="148">
       <c r="B148" t="str">
@@ -2852,6 +3716,12 @@
       <c r="F148">
         <v>19.3</v>
       </c>
+      <c r="G148">
+        <v>22.448979591836736</v>
+      </c>
+      <c r="H148">
+        <v>219.3181818181818</v>
+      </c>
     </row>
     <row r="149">
       <c r="B149" t="str">
@@ -2869,6 +3739,12 @@
       <c r="F149">
         <v>9.2</v>
       </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+      <c r="H149">
+        <v>100</v>
+      </c>
     </row>
     <row r="150">
       <c r="B150" t="str">
@@ -2886,6 +3762,12 @@
       <c r="F150">
         <v>9</v>
       </c>
+      <c r="G150">
+        <v>72.85714285714286</v>
+      </c>
+      <c r="H150">
+        <v>97.82608695652175</v>
+      </c>
     </row>
     <row r="151">
       <c r="B151" t="str">
@@ -2903,6 +3785,12 @@
       <c r="F151">
         <v>9.2</v>
       </c>
+      <c r="G151">
+        <v>24.285714285714285</v>
+      </c>
+      <c r="H151">
+        <v>100</v>
+      </c>
     </row>
     <row r="152">
       <c r="B152" t="str">
@@ -2920,6 +3808,12 @@
       <c r="F152">
         <v>23.3</v>
       </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152">
+        <v>100</v>
+      </c>
     </row>
     <row r="153">
       <c r="B153" t="str">
@@ -2937,6 +3831,12 @@
       <c r="F153">
         <v>72.8</v>
       </c>
+      <c r="G153">
+        <v>42.391304347826086</v>
+      </c>
+      <c r="H153">
+        <v>312.44635193133047</v>
+      </c>
     </row>
     <row r="154">
       <c r="B154" t="str">
@@ -2954,6 +3854,12 @@
       <c r="F154">
         <v>12.8</v>
       </c>
+      <c r="G154">
+        <v>14.565217391304348</v>
+      </c>
+      <c r="H154">
+        <v>54.93562231759657</v>
+      </c>
     </row>
     <row r="155">
       <c r="B155" t="str">
@@ -2971,6 +3877,12 @@
       <c r="F155">
         <v>5.4</v>
       </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>100</v>
+      </c>
     </row>
     <row r="156">
       <c r="B156" t="str">
@@ -2988,6 +3900,12 @@
       <c r="F156">
         <v>5</v>
       </c>
+      <c r="G156">
+        <v>84.12698412698413</v>
+      </c>
+      <c r="H156">
+        <v>92.59259259259258</v>
+      </c>
     </row>
     <row r="157">
       <c r="B157" t="str">
@@ -3005,6 +3923,12 @@
       <c r="F157">
         <v>5.5</v>
       </c>
+      <c r="G157">
+        <v>7.936507936507937</v>
+      </c>
+      <c r="H157">
+        <v>101.85185185185185</v>
+      </c>
     </row>
     <row r="158">
       <c r="B158" t="str">
@@ -3022,6 +3946,12 @@
       <c r="F158">
         <v>13.8</v>
       </c>
+      <c r="G158">
+        <v>100</v>
+      </c>
+      <c r="H158">
+        <v>100</v>
+      </c>
     </row>
     <row r="159">
       <c r="B159" t="str">
@@ -3039,6 +3969,12 @@
       <c r="F159">
         <v>16.5</v>
       </c>
+      <c r="G159">
+        <v>8.474576271186441</v>
+      </c>
+      <c r="H159">
+        <v>119.56521739130434</v>
+      </c>
     </row>
     <row r="160">
       <c r="B160" t="str">
@@ -3056,6 +3992,12 @@
       <c r="F160">
         <v>13.1</v>
       </c>
+      <c r="G160">
+        <v>4.745762711864407</v>
+      </c>
+      <c r="H160">
+        <v>94.92753623188405</v>
+      </c>
     </row>
     <row r="161">
       <c r="B161" t="str">
@@ -3073,6 +4015,12 @@
       <c r="F161">
         <v>10.1</v>
       </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+      <c r="H161">
+        <v>100</v>
+      </c>
     </row>
     <row r="162">
       <c r="B162" t="str">
@@ -3090,6 +4038,12 @@
       <c r="F162">
         <v>10.5</v>
       </c>
+      <c r="G162">
+        <v>48.86363636363637</v>
+      </c>
+      <c r="H162">
+        <v>103.96039603960396</v>
+      </c>
     </row>
     <row r="163">
       <c r="B163" t="str">
@@ -3107,6 +4061,12 @@
       <c r="F163">
         <v>14.1</v>
       </c>
+      <c r="G163">
+        <v>37.5</v>
+      </c>
+      <c r="H163">
+        <v>139.6039603960396</v>
+      </c>
     </row>
     <row r="164">
       <c r="B164" t="str">
@@ -3124,6 +4084,12 @@
       <c r="F164">
         <v>7.7</v>
       </c>
+      <c r="G164">
+        <v>100</v>
+      </c>
+      <c r="H164">
+        <v>100</v>
+      </c>
     </row>
     <row r="165">
       <c r="B165" t="str">
@@ -3141,6 +4107,12 @@
       <c r="F165">
         <v>7.9</v>
       </c>
+      <c r="G165">
+        <v>29.661016949152543</v>
+      </c>
+      <c r="H165">
+        <v>102.59740259740259</v>
+      </c>
     </row>
     <row r="166">
       <c r="B166" t="str">
@@ -3158,6 +4130,12 @@
       <c r="F166">
         <v>6.8</v>
       </c>
+      <c r="G166">
+        <v>17.51412429378531</v>
+      </c>
+      <c r="H166">
+        <v>88.31168831168831</v>
+      </c>
     </row>
     <row r="167">
       <c r="B167" t="str">
@@ -3175,6 +4153,12 @@
       <c r="F167">
         <v>6.8</v>
       </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+      <c r="H167">
+        <v>100</v>
+      </c>
     </row>
     <row r="168">
       <c r="B168" t="str">
@@ -3192,6 +4176,12 @@
       <c r="F168">
         <v>9.6</v>
       </c>
+      <c r="G168">
+        <v>57.38636363636363</v>
+      </c>
+      <c r="H168">
+        <v>141.1764705882353</v>
+      </c>
     </row>
     <row r="169">
       <c r="B169" t="str">
@@ -3209,6 +4199,12 @@
       <c r="F169">
         <v>9.4</v>
       </c>
+      <c r="G169">
+        <v>14.772727272727273</v>
+      </c>
+      <c r="H169">
+        <v>138.23529411764707</v>
+      </c>
     </row>
     <row r="170">
       <c r="B170" t="str">
@@ -3226,6 +4222,12 @@
       <c r="F170">
         <v>29</v>
       </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+      <c r="H170">
+        <v>100</v>
+      </c>
     </row>
     <row r="171">
       <c r="B171" t="str">
@@ -3243,6 +4245,12 @@
       <c r="F171">
         <v>24.4</v>
       </c>
+      <c r="G171">
+        <v>61.904761904761905</v>
+      </c>
+      <c r="H171">
+        <v>84.13793103448276</v>
+      </c>
     </row>
     <row r="172">
       <c r="B172" t="str">
@@ -3260,6 +4268,12 @@
       <c r="F172">
         <v>18.7</v>
       </c>
+      <c r="G172">
+        <v>19.841269841269842</v>
+      </c>
+      <c r="H172">
+        <v>64.48275862068965</v>
+      </c>
     </row>
     <row r="173">
       <c r="B173" t="str">
@@ -3277,6 +4291,12 @@
       <c r="F173">
         <v>5.3</v>
       </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+      <c r="H173">
+        <v>100</v>
+      </c>
     </row>
     <row r="174">
       <c r="B174" t="str">
@@ -3294,6 +4314,12 @@
       <c r="F174">
         <v>8.2</v>
       </c>
+      <c r="G174">
+        <v>31.16883116883117</v>
+      </c>
+      <c r="H174">
+        <v>154.71698113207546</v>
+      </c>
     </row>
     <row r="175">
       <c r="B175" t="str">
@@ -3311,6 +4337,12 @@
       <c r="F175">
         <v>5.5</v>
       </c>
+      <c r="G175">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="H175">
+        <v>103.77358490566039</v>
+      </c>
     </row>
     <row r="176">
       <c r="B176" t="str">
@@ -3328,6 +4360,12 @@
       <c r="F176">
         <v>15</v>
       </c>
+      <c r="G176">
+        <v>100</v>
+      </c>
+      <c r="H176">
+        <v>100</v>
+      </c>
     </row>
     <row r="177">
       <c r="B177" t="str">
@@ -3345,6 +4383,12 @@
       <c r="F177">
         <v>22.3</v>
       </c>
+      <c r="G177">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H177">
+        <v>148.66666666666666</v>
+      </c>
     </row>
     <row r="178">
       <c r="B178" t="str">
@@ -3362,6 +4406,12 @@
       <c r="F178">
         <v>14.1</v>
       </c>
+      <c r="G178">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H178">
+        <v>94</v>
+      </c>
     </row>
     <row r="179">
       <c r="B179" t="str">
@@ -3379,6 +4429,12 @@
       <c r="F179">
         <v>13.5</v>
       </c>
+      <c r="G179">
+        <v>100</v>
+      </c>
+      <c r="H179">
+        <v>100</v>
+      </c>
     </row>
     <row r="180">
       <c r="B180" t="str">
@@ -3396,6 +4452,12 @@
       <c r="F180">
         <v>29.4</v>
       </c>
+      <c r="G180">
+        <v>68.35443037974683</v>
+      </c>
+      <c r="H180">
+        <v>217.77777777777777</v>
+      </c>
     </row>
     <row r="181">
       <c r="B181" t="str">
@@ -3413,6 +4475,12 @@
       <c r="F181">
         <v>31.5</v>
       </c>
+      <c r="G181">
+        <v>48.10126582278481</v>
+      </c>
+      <c r="H181">
+        <v>233.33333333333334</v>
+      </c>
     </row>
     <row r="182">
       <c r="B182" t="str">
@@ -3430,6 +4498,12 @@
       <c r="F182">
         <v>10.4</v>
       </c>
+      <c r="G182">
+        <v>100</v>
+      </c>
+      <c r="H182">
+        <v>100</v>
+      </c>
     </row>
     <row r="183">
       <c r="B183" t="str">
@@ -3447,6 +4521,12 @@
       <c r="F183">
         <v>7.8</v>
       </c>
+      <c r="G183">
+        <v>31.914893617021278</v>
+      </c>
+      <c r="H183">
+        <v>75</v>
+      </c>
     </row>
     <row r="184">
       <c r="B184" t="str">
@@ -3464,6 +4544,12 @@
       <c r="F184">
         <v>9.5</v>
       </c>
+      <c r="G184">
+        <v>17.02127659574468</v>
+      </c>
+      <c r="H184">
+        <v>91.34615384615384</v>
+      </c>
     </row>
     <row r="185">
       <c r="B185" t="str">
@@ -3481,6 +4567,12 @@
       <c r="F185">
         <v>27.4</v>
       </c>
+      <c r="G185">
+        <v>100</v>
+      </c>
+      <c r="H185">
+        <v>100</v>
+      </c>
     </row>
     <row r="186">
       <c r="B186" t="str">
@@ -3498,6 +4590,12 @@
       <c r="F186">
         <v>18.2</v>
       </c>
+      <c r="G186">
+        <v>75.625</v>
+      </c>
+      <c r="H186">
+        <v>66.42335766423358</v>
+      </c>
     </row>
     <row r="187">
       <c r="B187" t="str">
@@ -3515,6 +4613,12 @@
       <c r="F187">
         <v>35.5</v>
       </c>
+      <c r="G187">
+        <v>18.75</v>
+      </c>
+      <c r="H187">
+        <v>129.56204379562044</v>
+      </c>
     </row>
     <row r="188">
       <c r="B188" t="str">
@@ -3532,6 +4636,12 @@
       <c r="F188">
         <v>21.1</v>
       </c>
+      <c r="G188">
+        <v>100</v>
+      </c>
+      <c r="H188">
+        <v>100</v>
+      </c>
     </row>
     <row r="189">
       <c r="B189" t="str">
@@ -3549,6 +4659,12 @@
       <c r="F189">
         <v>37.5</v>
       </c>
+      <c r="G189">
+        <v>38.9937106918239</v>
+      </c>
+      <c r="H189">
+        <v>177.7251184834123</v>
+      </c>
     </row>
     <row r="190">
       <c r="B190" t="str">
@@ -3566,6 +4682,12 @@
       <c r="F190">
         <v>18.3</v>
       </c>
+      <c r="G190">
+        <v>30.81761006289308</v>
+      </c>
+      <c r="H190">
+        <v>86.7298578199052</v>
+      </c>
     </row>
     <row r="191">
       <c r="B191" t="str">
@@ -3583,6 +4705,12 @@
       <c r="F191">
         <v>27.9</v>
       </c>
+      <c r="G191">
+        <v>100</v>
+      </c>
+      <c r="H191">
+        <v>100</v>
+      </c>
     </row>
     <row r="192">
       <c r="B192" t="str">
@@ -3600,6 +4728,12 @@
       <c r="F192">
         <v>60.8</v>
       </c>
+      <c r="G192">
+        <v>91.83673469387755</v>
+      </c>
+      <c r="H192">
+        <v>217.92114695340504</v>
+      </c>
     </row>
     <row r="193">
       <c r="B193" t="str">
@@ -3617,6 +4751,12 @@
       <c r="F193">
         <v>39.9</v>
       </c>
+      <c r="G193">
+        <v>55.10204081632653</v>
+      </c>
+      <c r="H193">
+        <v>143.01075268817206</v>
+      </c>
     </row>
     <row r="194">
       <c r="B194" t="str">
@@ -3634,6 +4774,12 @@
       <c r="F194">
         <v>14.9</v>
       </c>
+      <c r="G194">
+        <v>100</v>
+      </c>
+      <c r="H194">
+        <v>100</v>
+      </c>
     </row>
     <row r="195">
       <c r="B195" t="str">
@@ -3651,6 +4797,12 @@
       <c r="F195">
         <v>5</v>
       </c>
+      <c r="G195">
+        <v>80</v>
+      </c>
+      <c r="H195">
+        <v>33.557046979865774</v>
+      </c>
     </row>
     <row r="196">
       <c r="B196" t="str">
@@ -3668,6 +4820,12 @@
       <c r="F196">
         <v>4.6</v>
       </c>
+      <c r="G196">
+        <v>20</v>
+      </c>
+      <c r="H196">
+        <v>30.872483221476507</v>
+      </c>
     </row>
     <row r="197">
       <c r="B197" t="str">
@@ -3685,6 +4843,12 @@
       <c r="F197">
         <v>20.7</v>
       </c>
+      <c r="G197">
+        <v>100</v>
+      </c>
+      <c r="H197">
+        <v>100</v>
+      </c>
     </row>
     <row r="198">
       <c r="B198" t="str">
@@ -3702,6 +4866,12 @@
       <c r="F198">
         <v>13.5</v>
       </c>
+      <c r="G198">
+        <v>50.40650406504065</v>
+      </c>
+      <c r="H198">
+        <v>65.21739130434783</v>
+      </c>
     </row>
     <row r="199">
       <c r="B199" t="str">
@@ -3719,6 +4889,12 @@
       <c r="F199">
         <v>0</v>
       </c>
+      <c r="G199">
+        <v>13.821138211382113</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="B200" t="str">
@@ -3736,6 +4912,12 @@
       <c r="F200">
         <v>31.1</v>
       </c>
+      <c r="G200">
+        <v>100</v>
+      </c>
+      <c r="H200">
+        <v>100</v>
+      </c>
     </row>
     <row r="201">
       <c r="B201" t="str">
@@ -3753,6 +4935,12 @@
       <c r="F201">
         <v>25.8</v>
       </c>
+      <c r="G201">
+        <v>62.5</v>
+      </c>
+      <c r="H201">
+        <v>82.95819935691318</v>
+      </c>
     </row>
     <row r="202">
       <c r="B202" t="str">
@@ -3770,6 +4958,12 @@
       <c r="F202">
         <v>28.2</v>
       </c>
+      <c r="G202">
+        <v>57.5</v>
+      </c>
+      <c r="H202">
+        <v>90.67524115755627</v>
+      </c>
     </row>
     <row r="203">
       <c r="B203" t="str">
@@ -3787,6 +4981,12 @@
       <c r="F203">
         <v>15.8</v>
       </c>
+      <c r="G203">
+        <v>100</v>
+      </c>
+      <c r="H203">
+        <v>100</v>
+      </c>
     </row>
     <row r="204">
       <c r="B204" t="str">
@@ -3804,6 +5004,12 @@
       <c r="F204">
         <v>27.4</v>
       </c>
+      <c r="G204">
+        <v>85.4368932038835</v>
+      </c>
+      <c r="H204">
+        <v>173.41772151898732</v>
+      </c>
     </row>
     <row r="205">
       <c r="B205" t="str">
@@ -3821,6 +5027,12 @@
       <c r="F205">
         <v>8</v>
       </c>
+      <c r="G205">
+        <v>27.184466019417474</v>
+      </c>
+      <c r="H205">
+        <v>50.63291139240506</v>
+      </c>
     </row>
     <row r="206">
       <c r="B206" t="str">
@@ -3838,6 +5050,12 @@
       <c r="F206">
         <v>25.5</v>
       </c>
+      <c r="G206">
+        <v>100</v>
+      </c>
+      <c r="H206">
+        <v>100</v>
+      </c>
     </row>
     <row r="207">
       <c r="B207" t="str">
@@ -3855,6 +5073,12 @@
       <c r="F207">
         <v>23.8</v>
       </c>
+      <c r="G207">
+        <v>81.63265306122449</v>
+      </c>
+      <c r="H207">
+        <v>93.33333333333333</v>
+      </c>
     </row>
     <row r="208">
       <c r="B208" t="str">
@@ -3872,6 +5096,12 @@
       <c r="F208">
         <v>27.4</v>
       </c>
+      <c r="G208">
+        <v>32.6530612244898</v>
+      </c>
+      <c r="H208">
+        <v>107.45098039215686</v>
+      </c>
     </row>
     <row r="209">
       <c r="B209" t="str">
@@ -3889,6 +5119,12 @@
       <c r="F209">
         <v>20.9</v>
       </c>
+      <c r="G209">
+        <v>100</v>
+      </c>
+      <c r="H209">
+        <v>100</v>
+      </c>
     </row>
     <row r="210">
       <c r="B210" t="str">
@@ -3906,6 +5142,12 @@
       <c r="F210">
         <v>26</v>
       </c>
+      <c r="G210">
+        <v>96.875</v>
+      </c>
+      <c r="H210">
+        <v>124.4019138755981</v>
+      </c>
     </row>
     <row r="211">
       <c r="B211" t="str">
@@ -3923,6 +5165,12 @@
       <c r="F211">
         <v>22.5</v>
       </c>
+      <c r="G211">
+        <v>40.625</v>
+      </c>
+      <c r="H211">
+        <v>107.6555023923445</v>
+      </c>
     </row>
     <row r="212">
       <c r="B212" t="str">
@@ -3940,6 +5188,12 @@
       <c r="F212">
         <v>12.7</v>
       </c>
+      <c r="G212">
+        <v>100</v>
+      </c>
+      <c r="H212">
+        <v>100</v>
+      </c>
     </row>
     <row r="213">
       <c r="B213" t="str">
@@ -3957,6 +5211,12 @@
       <c r="F213">
         <v>9.7</v>
       </c>
+      <c r="G213">
+        <v>100</v>
+      </c>
+      <c r="H213">
+        <v>76.37795275590551</v>
+      </c>
     </row>
     <row r="214">
       <c r="B214" t="str">
@@ -3974,6 +5234,12 @@
       <c r="F214">
         <v>8.9</v>
       </c>
+      <c r="G214">
+        <v>34.04255319148936</v>
+      </c>
+      <c r="H214">
+        <v>70.07874015748033</v>
+      </c>
     </row>
     <row r="215">
       <c r="B215" t="str">
@@ -3991,6 +5257,12 @@
       <c r="F215">
         <v>13.2</v>
       </c>
+      <c r="G215">
+        <v>100</v>
+      </c>
+      <c r="H215">
+        <v>100</v>
+      </c>
     </row>
     <row r="216">
       <c r="B216" t="str">
@@ -4008,6 +5280,12 @@
       <c r="F216">
         <v>16.6</v>
       </c>
+      <c r="G216">
+        <v>18.27956989247312</v>
+      </c>
+      <c r="H216">
+        <v>125.75757575757578</v>
+      </c>
     </row>
     <row r="217">
       <c r="B217" t="str">
@@ -4025,6 +5303,12 @@
       <c r="F217">
         <v>0</v>
       </c>
+      <c r="G217">
+        <v>17.204301075268816</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="B218" t="str">
@@ -4042,6 +5326,12 @@
       <c r="F218">
         <v>45.7</v>
       </c>
+      <c r="G218">
+        <v>100</v>
+      </c>
+      <c r="H218">
+        <v>100</v>
+      </c>
     </row>
     <row r="219">
       <c r="B219" t="str">
@@ -4059,6 +5349,12 @@
       <c r="F219">
         <v>54.8</v>
       </c>
+      <c r="G219">
+        <v>43.13725490196079</v>
+      </c>
+      <c r="H219">
+        <v>119.9124726477024</v>
+      </c>
     </row>
     <row r="220">
       <c r="B220" t="str">
@@ -4076,6 +5372,12 @@
       <c r="F220">
         <v>82.3</v>
       </c>
+      <c r="G220">
+        <v>9.803921568627452</v>
+      </c>
+      <c r="H220">
+        <v>180.08752735229757</v>
+      </c>
     </row>
     <row r="221">
       <c r="B221" t="str">
@@ -4093,6 +5395,12 @@
       <c r="F221">
         <v>15.9</v>
       </c>
+      <c r="G221">
+        <v>100</v>
+      </c>
+      <c r="H221">
+        <v>100</v>
+      </c>
     </row>
     <row r="222">
       <c r="B222" t="str">
@@ -4110,6 +5418,12 @@
       <c r="F222">
         <v>12</v>
       </c>
+      <c r="G222">
+        <v>47.82608695652174</v>
+      </c>
+      <c r="H222">
+        <v>75.47169811320755</v>
+      </c>
     </row>
     <row r="223">
       <c r="B223" t="str">
@@ -4127,6 +5441,12 @@
       <c r="F223">
         <v>14.3</v>
       </c>
+      <c r="G223">
+        <v>15.942028985507246</v>
+      </c>
+      <c r="H223">
+        <v>89.937106918239</v>
+      </c>
     </row>
     <row r="224">
       <c r="B224" t="str">
@@ -4144,6 +5464,12 @@
       <c r="F224">
         <v>24.5</v>
       </c>
+      <c r="G224">
+        <v>100</v>
+      </c>
+      <c r="H224">
+        <v>100</v>
+      </c>
     </row>
     <row r="225">
       <c r="B225" t="str">
@@ -4161,6 +5487,12 @@
       <c r="F225">
         <v>37.4</v>
       </c>
+      <c r="G225">
+        <v>42.10526315789474</v>
+      </c>
+      <c r="H225">
+        <v>152.6530612244898</v>
+      </c>
     </row>
     <row r="226">
       <c r="B226" t="str">
@@ -4178,6 +5510,12 @@
       <c r="F226">
         <v>36.3</v>
       </c>
+      <c r="G226">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="H226">
+        <v>148.16326530612244</v>
+      </c>
     </row>
     <row r="227">
       <c r="B227" t="str">
@@ -4195,6 +5533,12 @@
       <c r="F227">
         <v>0</v>
       </c>
+      <c r="G227">
+        <v>100</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="B228" t="str">
@@ -4212,6 +5556,12 @@
       <c r="F228">
         <v>0</v>
       </c>
+      <c r="G228">
+        <v>46.42857142857143</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="B229" t="str">
@@ -4229,6 +5579,12 @@
       <c r="F229">
         <v>0</v>
       </c>
+      <c r="G229">
+        <v>12.5</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="B230" t="str">
@@ -4246,6 +5602,12 @@
       <c r="F230">
         <v>33.3</v>
       </c>
+      <c r="G230">
+        <v>100</v>
+      </c>
+      <c r="H230">
+        <v>100</v>
+      </c>
     </row>
     <row r="231">
       <c r="B231" t="str">
@@ -4263,6 +5625,12 @@
       <c r="F231">
         <v>61</v>
       </c>
+      <c r="G231">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="H231">
+        <v>183.1831831831832</v>
+      </c>
     </row>
     <row r="232">
       <c r="B232" t="str">
@@ -4280,6 +5648,12 @@
       <c r="F232">
         <v>48.8</v>
       </c>
+      <c r="G232">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H232">
+        <v>146.54654654654655</v>
+      </c>
     </row>
     <row r="233">
       <c r="B233" t="str">
@@ -4297,6 +5671,12 @@
       <c r="F233">
         <v>26.4</v>
       </c>
+      <c r="G233">
+        <v>100</v>
+      </c>
+      <c r="H233">
+        <v>100</v>
+      </c>
     </row>
     <row r="234">
       <c r="B234" t="str">
@@ -4314,6 +5694,12 @@
       <c r="F234">
         <v>17.4</v>
       </c>
+      <c r="G234">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="H234">
+        <v>65.9090909090909</v>
+      </c>
     </row>
     <row r="235">
       <c r="B235" t="str">
@@ -4331,6 +5717,12 @@
       <c r="F235">
         <v>20</v>
       </c>
+      <c r="G235">
+        <v>18.42105263157895</v>
+      </c>
+      <c r="H235">
+        <v>75.75757575757576</v>
+      </c>
     </row>
     <row r="236">
       <c r="B236" t="str">
@@ -4348,6 +5740,12 @@
       <c r="F236">
         <v>37</v>
       </c>
+      <c r="G236">
+        <v>100</v>
+      </c>
+      <c r="H236">
+        <v>100</v>
+      </c>
     </row>
     <row r="237">
       <c r="B237" t="str">
@@ -4365,6 +5763,12 @@
       <c r="F237">
         <v>32.4</v>
       </c>
+      <c r="G237">
+        <v>75</v>
+      </c>
+      <c r="H237">
+        <v>87.56756756756756</v>
+      </c>
     </row>
     <row r="238">
       <c r="B238" t="str">
@@ -4382,6 +5786,12 @@
       <c r="F238">
         <v>36.5</v>
       </c>
+      <c r="G238">
+        <v>62.5</v>
+      </c>
+      <c r="H238">
+        <v>98.64864864864865</v>
+      </c>
     </row>
     <row r="239">
       <c r="B239" t="str">
@@ -4399,6 +5809,12 @@
       <c r="F239">
         <v>12</v>
       </c>
+      <c r="G239">
+        <v>100</v>
+      </c>
+      <c r="H239">
+        <v>100</v>
+      </c>
     </row>
     <row r="240">
       <c r="B240" t="str">
@@ -4416,6 +5832,12 @@
       <c r="F240">
         <v>13</v>
       </c>
+      <c r="G240">
+        <v>45.90163934426229</v>
+      </c>
+      <c r="H240">
+        <v>108.33333333333333</v>
+      </c>
     </row>
     <row r="241">
       <c r="B241" t="str">
@@ -4433,6 +5855,12 @@
       <c r="F241">
         <v>14.7</v>
       </c>
+      <c r="G241">
+        <v>8.19672131147541</v>
+      </c>
+      <c r="H241">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="B242" t="str">
@@ -4450,6 +5878,12 @@
       <c r="F242">
         <v>48.1</v>
       </c>
+      <c r="G242">
+        <v>100</v>
+      </c>
+      <c r="H242">
+        <v>100</v>
+      </c>
     </row>
     <row r="243">
       <c r="B243" t="str">
@@ -4467,6 +5901,12 @@
       <c r="F243">
         <v>65.8</v>
       </c>
+      <c r="G243">
+        <v>34.61538461538461</v>
+      </c>
+      <c r="H243">
+        <v>136.7983367983368</v>
+      </c>
     </row>
     <row r="244">
       <c r="B244" t="str">
@@ -4484,11 +5924,17 @@
       <c r="F244">
         <v>38.3</v>
       </c>
+      <c r="G244">
+        <v>21.153846153846153</v>
+      </c>
+      <c r="H244">
+        <v>79.62577962577961</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F244"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H244"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -439,7 +439,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>139</v>
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>70</v>
@@ -485,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1013</v>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>385</v>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>243</v>
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>689</v>
@@ -646,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>170</v>
@@ -669,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>52</v>
@@ -692,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>927</v>
@@ -715,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>195</v>
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>69</v>
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1025</v>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>216</v>
@@ -807,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>191</v>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>527</v>
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>92</v>
@@ -876,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>68</v>
@@ -899,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>764</v>
@@ -922,7 +922,7 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>763</v>
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>338</v>
@@ -968,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>990</v>
@@ -991,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>529</v>
@@ -1014,7 +1014,7 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>99</v>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>566</v>
@@ -1060,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>134</v>
@@ -1083,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>122</v>
@@ -1106,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>520</v>
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>157</v>
@@ -1152,7 +1152,7 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>77</v>
@@ -1175,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>541</v>
@@ -1198,7 +1198,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>113</v>
@@ -1221,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>664</v>
@@ -1267,7 +1267,7 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>155</v>
@@ -1290,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>82</v>
@@ -1313,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>364</v>
@@ -1336,7 +1336,7 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>199</v>
@@ -1359,7 +1359,7 @@
         <v>22</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>123</v>
@@ -1382,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1306</v>
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>129</v>
@@ -1428,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>70</v>
@@ -1451,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>483</v>
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>120</v>
@@ -1497,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>74</v>
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>748</v>
@@ -1543,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>71</v>
@@ -1566,7 +1566,7 @@
         <v>25</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>60</v>
@@ -1589,7 +1589,7 @@
         <v>26</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>409</v>
@@ -1612,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>97</v>
@@ -1635,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>78</v>
@@ -1658,7 +1658,7 @@
         <v>27</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>336</v>
@@ -1681,7 +1681,7 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>174</v>
@@ -1704,7 +1704,7 @@
         <v>27</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>31</v>
@@ -1727,7 +1727,7 @@
         <v>28</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>383</v>
@@ -1750,7 +1750,7 @@
         <v>28</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>82</v>
@@ -1773,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D64">
         <v>54</v>
@@ -1796,7 +1796,7 @@
         <v>29</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>796</v>
@@ -1819,7 +1819,7 @@
         <v>29</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>127</v>
@@ -1842,7 +1842,7 @@
         <v>29</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>91</v>
@@ -1865,7 +1865,7 @@
         <v>30</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1665</v>
@@ -1888,7 +1888,7 @@
         <v>30</v>
       </c>
       <c r="C69">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>123</v>
@@ -1911,7 +1911,7 @@
         <v>30</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>120</v>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>316</v>
@@ -1957,7 +1957,7 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>100</v>
@@ -1980,7 +1980,7 @@
         <v>31</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>74</v>
@@ -2003,7 +2003,7 @@
         <v>32</v>
       </c>
       <c r="C74">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>564</v>
@@ -2026,7 +2026,7 @@
         <v>32</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>380</v>
@@ -2049,7 +2049,7 @@
         <v>32</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D76">
         <v>62</v>
@@ -2072,7 +2072,7 @@
         <v>33</v>
       </c>
       <c r="C77">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>470</v>
@@ -2095,7 +2095,7 @@
         <v>33</v>
       </c>
       <c r="C78">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>133</v>
@@ -2118,7 +2118,7 @@
         <v>33</v>
       </c>
       <c r="C79">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>88</v>
@@ -2141,7 +2141,7 @@
         <v>34</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>1325</v>
@@ -2164,7 +2164,7 @@
         <v>34</v>
       </c>
       <c r="C81">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>336</v>
@@ -2187,7 +2187,7 @@
         <v>34</v>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <v>187</v>
@@ -2210,7 +2210,7 @@
         <v>35</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>924</v>
@@ -2233,7 +2233,7 @@
         <v>35</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>92</v>
@@ -2256,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="C85">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>70</v>
@@ -2279,7 +2279,7 @@
         <v>36</v>
       </c>
       <c r="C86">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>673</v>
@@ -2302,7 +2302,7 @@
         <v>36</v>
       </c>
       <c r="C87">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>129</v>
@@ -2325,7 +2325,7 @@
         <v>36</v>
       </c>
       <c r="C88">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <v>73</v>
@@ -2348,7 +2348,7 @@
         <v>37</v>
       </c>
       <c r="C89">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>391</v>
@@ -2371,7 +2371,7 @@
         <v>37</v>
       </c>
       <c r="C90">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>275</v>
@@ -2394,7 +2394,7 @@
         <v>37</v>
       </c>
       <c r="C91">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>134</v>
@@ -2417,7 +2417,7 @@
         <v>38</v>
       </c>
       <c r="C92">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>539</v>
@@ -2440,7 +2440,7 @@
         <v>38</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>142</v>
@@ -2463,7 +2463,7 @@
         <v>38</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D94">
         <v>65</v>
@@ -2486,7 +2486,7 @@
         <v>39</v>
       </c>
       <c r="C95">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>1034</v>
@@ -2509,7 +2509,7 @@
         <v>39</v>
       </c>
       <c r="C96">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>223</v>
@@ -2532,7 +2532,7 @@
         <v>39</v>
       </c>
       <c r="C97">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D97">
         <v>116</v>
@@ -2555,7 +2555,7 @@
         <v>40</v>
       </c>
       <c r="C98">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>484</v>
@@ -2578,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="C99">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>257</v>
@@ -2601,7 +2601,7 @@
         <v>40</v>
       </c>
       <c r="C100">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D100">
         <v>55</v>
@@ -2624,7 +2624,7 @@
         <v>41</v>
       </c>
       <c r="C101">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>676</v>
@@ -2647,7 +2647,7 @@
         <v>41</v>
       </c>
       <c r="C102">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>427</v>
@@ -2670,7 +2670,7 @@
         <v>41</v>
       </c>
       <c r="C103">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D103">
         <v>160</v>
@@ -2693,7 +2693,7 @@
         <v>42</v>
       </c>
       <c r="C104">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>459</v>
@@ -2716,7 +2716,7 @@
         <v>42</v>
       </c>
       <c r="C105">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>373</v>
@@ -2739,7 +2739,7 @@
         <v>42</v>
       </c>
       <c r="C106">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D106">
         <v>165</v>
@@ -2762,7 +2762,7 @@
         <v>43</v>
       </c>
       <c r="C107">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>657</v>
@@ -2785,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="C108">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>147</v>
@@ -2808,7 +2808,7 @@
         <v>43</v>
       </c>
       <c r="C109">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D109">
         <v>143</v>
@@ -2831,7 +2831,7 @@
         <v>44</v>
       </c>
       <c r="C110">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>703</v>
@@ -2854,7 +2854,7 @@
         <v>44</v>
       </c>
       <c r="C111">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>241</v>
@@ -2877,7 +2877,7 @@
         <v>44</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D112">
         <v>76</v>
@@ -2900,7 +2900,7 @@
         <v>45</v>
       </c>
       <c r="C113">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>763</v>
@@ -2923,7 +2923,7 @@
         <v>45</v>
       </c>
       <c r="C114">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>215</v>
@@ -2946,7 +2946,7 @@
         <v>45</v>
       </c>
       <c r="C115">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D115">
         <v>130</v>
@@ -2969,7 +2969,7 @@
         <v>46</v>
       </c>
       <c r="C116">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>327</v>
@@ -2992,7 +2992,7 @@
         <v>46</v>
       </c>
       <c r="C117">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D117">
         <v>316</v>
@@ -3015,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="C118">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D118">
         <v>47</v>
@@ -3038,7 +3038,7 @@
         <v>47</v>
       </c>
       <c r="C119">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>700</v>
@@ -3061,7 +3061,7 @@
         <v>47</v>
       </c>
       <c r="C120">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>43</v>
@@ -3084,7 +3084,7 @@
         <v>47</v>
       </c>
       <c r="C121">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D121">
         <v>40</v>
@@ -3107,7 +3107,7 @@
         <v>48</v>
       </c>
       <c r="C122">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>592</v>
@@ -3130,7 +3130,7 @@
         <v>48</v>
       </c>
       <c r="C123">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D123">
         <v>154</v>
@@ -3153,7 +3153,7 @@
         <v>48</v>
       </c>
       <c r="C124">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D124">
         <v>31</v>
@@ -3176,7 +3176,7 @@
         <v>49</v>
       </c>
       <c r="C125">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>644</v>
@@ -3199,7 +3199,7 @@
         <v>49</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>196</v>
@@ -3222,7 +3222,7 @@
         <v>49</v>
       </c>
       <c r="C127">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D127">
         <v>91</v>
@@ -3245,7 +3245,7 @@
         <v>50</v>
       </c>
       <c r="C128">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>430</v>
@@ -3268,7 +3268,7 @@
         <v>50</v>
       </c>
       <c r="C129">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>92</v>
@@ -3291,7 +3291,7 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D130">
         <v>35</v>
@@ -3314,7 +3314,7 @@
         <v>51</v>
       </c>
       <c r="C131">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>274</v>
@@ -3337,7 +3337,7 @@
         <v>51</v>
       </c>
       <c r="C132">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D132">
         <v>129</v>
@@ -3360,7 +3360,7 @@
         <v>51</v>
       </c>
       <c r="C133">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D133">
         <v>43</v>
@@ -3383,7 +3383,7 @@
         <v>52</v>
       </c>
       <c r="C134">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>365</v>
@@ -3406,7 +3406,7 @@
         <v>52</v>
       </c>
       <c r="C135">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>204</v>
@@ -3429,7 +3429,7 @@
         <v>52</v>
       </c>
       <c r="C136">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D136">
         <v>102</v>
@@ -3452,7 +3452,7 @@
         <v>53</v>
       </c>
       <c r="C137">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>364</v>
@@ -3475,7 +3475,7 @@
         <v>53</v>
       </c>
       <c r="C138">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D138">
         <v>77</v>
@@ -3498,7 +3498,7 @@
         <v>53</v>
       </c>
       <c r="C139">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D139">
         <v>62</v>
@@ -3521,7 +3521,7 @@
         <v>54</v>
       </c>
       <c r="C140">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>249</v>
@@ -3544,7 +3544,7 @@
         <v>54</v>
       </c>
       <c r="C141">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>143</v>
@@ -3567,7 +3567,7 @@
         <v>54</v>
       </c>
       <c r="C142">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D142">
         <v>57</v>
@@ -3590,7 +3590,7 @@
         <v>55</v>
       </c>
       <c r="C143">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>508</v>
@@ -3613,7 +3613,7 @@
         <v>55</v>
       </c>
       <c r="C144">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D144">
         <v>77</v>
@@ -3636,7 +3636,7 @@
         <v>55</v>
       </c>
       <c r="C145">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D145">
         <v>30</v>
@@ -3659,7 +3659,7 @@
         <v>56</v>
       </c>
       <c r="C146">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>196</v>
@@ -3682,7 +3682,7 @@
         <v>56</v>
       </c>
       <c r="C147">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D147">
         <v>93</v>
@@ -3705,7 +3705,7 @@
         <v>56</v>
       </c>
       <c r="C148">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D148">
         <v>44</v>
@@ -3728,7 +3728,7 @@
         <v>57</v>
       </c>
       <c r="C149">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>140</v>
@@ -3751,7 +3751,7 @@
         <v>57</v>
       </c>
       <c r="C150">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D150">
         <v>102</v>
@@ -3774,7 +3774,7 @@
         <v>57</v>
       </c>
       <c r="C151">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D151">
         <v>34</v>
@@ -3797,7 +3797,7 @@
         <v>58</v>
       </c>
       <c r="C152">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>460</v>
@@ -3820,7 +3820,7 @@
         <v>58</v>
       </c>
       <c r="C153">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>195</v>
@@ -3843,7 +3843,7 @@
         <v>58</v>
       </c>
       <c r="C154">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D154">
         <v>67</v>
@@ -3866,7 +3866,7 @@
         <v>59</v>
       </c>
       <c r="C155">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>189</v>
@@ -3889,7 +3889,7 @@
         <v>59</v>
       </c>
       <c r="C156">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>159</v>
@@ -3912,7 +3912,7 @@
         <v>59</v>
       </c>
       <c r="C157">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D157">
         <v>15</v>
@@ -3935,7 +3935,7 @@
         <v>60</v>
       </c>
       <c r="C158">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <v>295</v>
@@ -3958,7 +3958,7 @@
         <v>60</v>
       </c>
       <c r="C159">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D159">
         <v>25</v>
@@ -3981,7 +3981,7 @@
         <v>60</v>
       </c>
       <c r="C160">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D160">
         <v>14</v>
@@ -4004,7 +4004,7 @@
         <v>61</v>
       </c>
       <c r="C161">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>176</v>
@@ -4027,7 +4027,7 @@
         <v>61</v>
       </c>
       <c r="C162">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>86</v>
@@ -4050,7 +4050,7 @@
         <v>61</v>
       </c>
       <c r="C163">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -4073,7 +4073,7 @@
         <v>62</v>
       </c>
       <c r="C164">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>354</v>
@@ -4096,7 +4096,7 @@
         <v>62</v>
       </c>
       <c r="C165">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D165">
         <v>105</v>
@@ -4119,7 +4119,7 @@
         <v>62</v>
       </c>
       <c r="C166">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D166">
         <v>62</v>
@@ -4142,7 +4142,7 @@
         <v>63</v>
       </c>
       <c r="C167">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>176</v>
@@ -4165,7 +4165,7 @@
         <v>63</v>
       </c>
       <c r="C168">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D168">
         <v>101</v>
@@ -4188,7 +4188,7 @@
         <v>63</v>
       </c>
       <c r="C169">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>26</v>
@@ -4211,7 +4211,7 @@
         <v>64</v>
       </c>
       <c r="C170">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>126</v>
@@ -4234,7 +4234,7 @@
         <v>64</v>
       </c>
       <c r="C171">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D171">
         <v>78</v>
@@ -4257,7 +4257,7 @@
         <v>64</v>
       </c>
       <c r="C172">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D172">
         <v>25</v>
@@ -4280,7 +4280,7 @@
         <v>65</v>
       </c>
       <c r="C173">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>77</v>
@@ -4303,7 +4303,7 @@
         <v>65</v>
       </c>
       <c r="C174">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <v>24</v>
@@ -4326,7 +4326,7 @@
         <v>65</v>
       </c>
       <c r="C175">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D175">
         <v>14</v>
@@ -4349,7 +4349,7 @@
         <v>66</v>
       </c>
       <c r="C176">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <v>63</v>
@@ -4372,7 +4372,7 @@
         <v>66</v>
       </c>
       <c r="C177">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>21</v>
@@ -4395,7 +4395,7 @@
         <v>66</v>
       </c>
       <c r="C178">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D178">
         <v>21</v>
@@ -4418,7 +4418,7 @@
         <v>67</v>
       </c>
       <c r="C179">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D179">
         <v>79</v>
@@ -4441,7 +4441,7 @@
         <v>67</v>
       </c>
       <c r="C180">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D180">
         <v>54</v>
@@ -4464,7 +4464,7 @@
         <v>67</v>
       </c>
       <c r="C181">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D181">
         <v>38</v>
@@ -4487,7 +4487,7 @@
         <v>68</v>
       </c>
       <c r="C182">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>47</v>
@@ -4510,7 +4510,7 @@
         <v>68</v>
       </c>
       <c r="C183">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D183">
         <v>15</v>
@@ -4533,7 +4533,7 @@
         <v>68</v>
       </c>
       <c r="C184">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -4556,7 +4556,7 @@
         <v>69</v>
       </c>
       <c r="C185">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <v>160</v>
@@ -4579,7 +4579,7 @@
         <v>69</v>
       </c>
       <c r="C186">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D186">
         <v>121</v>
@@ -4602,7 +4602,7 @@
         <v>69</v>
       </c>
       <c r="C187">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D187">
         <v>30</v>
@@ -4625,7 +4625,7 @@
         <v>70</v>
       </c>
       <c r="C188">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>159</v>
@@ -4648,7 +4648,7 @@
         <v>70</v>
       </c>
       <c r="C189">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D189">
         <v>62</v>
@@ -4671,7 +4671,7 @@
         <v>70</v>
       </c>
       <c r="C190">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D190">
         <v>49</v>
@@ -4694,7 +4694,7 @@
         <v>71</v>
       </c>
       <c r="C191">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>49</v>
@@ -4717,7 +4717,7 @@
         <v>71</v>
       </c>
       <c r="C192">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D192">
         <v>45</v>
@@ -4740,7 +4740,7 @@
         <v>71</v>
       </c>
       <c r="C193">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D193">
         <v>27</v>
@@ -4763,7 +4763,7 @@
         <v>72</v>
       </c>
       <c r="C194">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>110</v>
@@ -4786,7 +4786,7 @@
         <v>72</v>
       </c>
       <c r="C195">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>88</v>
@@ -4809,7 +4809,7 @@
         <v>72</v>
       </c>
       <c r="C196">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D196">
         <v>22</v>
@@ -4832,7 +4832,7 @@
         <v>73</v>
       </c>
       <c r="C197">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>123</v>
@@ -4855,7 +4855,7 @@
         <v>73</v>
       </c>
       <c r="C198">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D198">
         <v>62</v>
@@ -4878,7 +4878,7 @@
         <v>73</v>
       </c>
       <c r="C199">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D199">
         <v>17</v>
@@ -4901,7 +4901,7 @@
         <v>74</v>
       </c>
       <c r="C200">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>40</v>
@@ -4924,7 +4924,7 @@
         <v>74</v>
       </c>
       <c r="C201">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D201">
         <v>25</v>
@@ -4947,7 +4947,7 @@
         <v>74</v>
       </c>
       <c r="C202">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D202">
         <v>23</v>
@@ -4970,7 +4970,7 @@
         <v>75</v>
       </c>
       <c r="C203">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>103</v>
@@ -4993,7 +4993,7 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D204">
         <v>88</v>
@@ -5016,7 +5016,7 @@
         <v>75</v>
       </c>
       <c r="C205">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D205">
         <v>28</v>
@@ -5039,7 +5039,7 @@
         <v>76</v>
       </c>
       <c r="C206">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>49</v>
@@ -5062,7 +5062,7 @@
         <v>76</v>
       </c>
       <c r="C207">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <v>40</v>
@@ -5085,7 +5085,7 @@
         <v>76</v>
       </c>
       <c r="C208">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D208">
         <v>16</v>
@@ -5108,7 +5108,7 @@
         <v>77</v>
       </c>
       <c r="C209">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>32</v>
@@ -5131,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="C210">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D210">
         <v>31</v>
@@ -5154,7 +5154,7 @@
         <v>77</v>
       </c>
       <c r="C211">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D211">
         <v>13</v>
@@ -5177,7 +5177,7 @@
         <v>78</v>
       </c>
       <c r="C212">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>47</v>
@@ -5200,7 +5200,7 @@
         <v>78</v>
       </c>
       <c r="C213">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D213">
         <v>47</v>
@@ -5223,7 +5223,7 @@
         <v>78</v>
       </c>
       <c r="C214">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D214">
         <v>16</v>
@@ -5246,7 +5246,7 @@
         <v>79</v>
       </c>
       <c r="C215">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D215">
         <v>93</v>
@@ -5269,7 +5269,7 @@
         <v>79</v>
       </c>
       <c r="C216">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D216">
         <v>17</v>
@@ -5292,7 +5292,7 @@
         <v>79</v>
       </c>
       <c r="C217">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D217">
         <v>16</v>
@@ -5315,7 +5315,7 @@
         <v>80</v>
       </c>
       <c r="C218">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>51</v>
@@ -5338,7 +5338,7 @@
         <v>80</v>
       </c>
       <c r="C219">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D219">
         <v>22</v>
@@ -5361,7 +5361,7 @@
         <v>80</v>
       </c>
       <c r="C220">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D220">
         <v>5</v>
@@ -5384,7 +5384,7 @@
         <v>81</v>
       </c>
       <c r="C221">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D221">
         <v>69</v>
@@ -5407,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="C222">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D222">
         <v>33</v>
@@ -5430,7 +5430,7 @@
         <v>81</v>
       </c>
       <c r="C223">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D223">
         <v>11</v>
@@ -5453,7 +5453,7 @@
         <v>82</v>
       </c>
       <c r="C224">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D224">
         <v>19</v>
@@ -5476,7 +5476,7 @@
         <v>82</v>
       </c>
       <c r="C225">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D225">
         <v>8</v>
@@ -5499,7 +5499,7 @@
         <v>82</v>
       </c>
       <c r="C226">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D226">
         <v>5</v>
@@ -5522,7 +5522,7 @@
         <v>83</v>
       </c>
       <c r="C227">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D227">
         <v>56</v>
@@ -5545,7 +5545,7 @@
         <v>83</v>
       </c>
       <c r="C228">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D228">
         <v>26</v>
@@ -5568,7 +5568,7 @@
         <v>83</v>
       </c>
       <c r="C229">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D229">
         <v>7</v>
@@ -5591,7 +5591,7 @@
         <v>84</v>
       </c>
       <c r="C230">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>45</v>
@@ -5614,7 +5614,7 @@
         <v>84</v>
       </c>
       <c r="C231">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D231">
         <v>17</v>
@@ -5637,7 +5637,7 @@
         <v>84</v>
       </c>
       <c r="C232">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D232">
         <v>5</v>
@@ -5660,7 +5660,7 @@
         <v>85</v>
       </c>
       <c r="C233">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>38</v>
@@ -5683,7 +5683,7 @@
         <v>85</v>
       </c>
       <c r="C234">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D234">
         <v>10</v>
@@ -5706,7 +5706,7 @@
         <v>85</v>
       </c>
       <c r="C235">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D235">
         <v>7</v>
@@ -5729,7 +5729,7 @@
         <v>86</v>
       </c>
       <c r="C236">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>16</v>
@@ -5752,7 +5752,7 @@
         <v>86</v>
       </c>
       <c r="C237">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D237">
         <v>12</v>
@@ -5775,7 +5775,7 @@
         <v>86</v>
       </c>
       <c r="C238">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D238">
         <v>10</v>
@@ -5798,7 +5798,7 @@
         <v>87</v>
       </c>
       <c r="C239">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>61</v>
@@ -5821,7 +5821,7 @@
         <v>87</v>
       </c>
       <c r="C240">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D240">
         <v>28</v>
@@ -5844,7 +5844,7 @@
         <v>87</v>
       </c>
       <c r="C241">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="D241">
         <v>5</v>
@@ -5867,7 +5867,7 @@
         <v>88</v>
       </c>
       <c r="C242">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D242">
         <v>52</v>
@@ -5890,7 +5890,7 @@
         <v>88</v>
       </c>
       <c r="C243">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D243">
         <v>18</v>
@@ -5913,7 +5913,7 @@
         <v>88</v>
       </c>
       <c r="C244">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D244">
         <v>11</v>

--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -375,13 +375,6845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H404"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v/>
+      </c>
+      <c r="B1" t="str">
+        <v>Kata solutions</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>kata_id</v>
+      </c>
+      <c r="C4" t="str">
+        <v>solution</v>
+      </c>
+      <c r="D4" t="str">
+        <v>best_practices</v>
+      </c>
+      <c r="E4" t="str">
+        <v>clever</v>
+      </c>
+      <c r="F4" t="str">
+        <v>cpx</v>
+      </c>
+      <c r="G4" t="str">
+        <v>bp_percent</v>
+      </c>
+      <c r="H4" t="str">
+        <v>cpx_percent</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>1062</v>
+      </c>
+      <c r="F5">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
+      <c r="E6">
+        <v>272</v>
+      </c>
+      <c r="F6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1013</v>
+      </c>
+      <c r="E10">
+        <v>185</v>
+      </c>
+      <c r="F10">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>526</v>
+      </c>
+      <c r="F11">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>385</v>
+      </c>
+      <c r="E15">
+        <v>1589</v>
+      </c>
+      <c r="F15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>243</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>285</v>
+      </c>
+      <c r="F17">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>689</v>
+      </c>
+      <c r="E20">
+        <v>2286</v>
+      </c>
+      <c r="F20">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>170</v>
+      </c>
+      <c r="E21">
+        <v>104</v>
+      </c>
+      <c r="F21">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>54</v>
+      </c>
+      <c r="F23">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>927</v>
+      </c>
+      <c r="E25">
+        <v>438</v>
+      </c>
+      <c r="F25">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>195</v>
+      </c>
+      <c r="E26">
+        <v>952</v>
+      </c>
+      <c r="F26">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1025</v>
+      </c>
+      <c r="E30">
+        <v>237</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>216</v>
+      </c>
+      <c r="E31">
+        <v>775</v>
+      </c>
+      <c r="F31">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>191</v>
+      </c>
+      <c r="E32">
+        <v>1044</v>
+      </c>
+      <c r="F32">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>57</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>527</v>
+      </c>
+      <c r="E35">
+        <v>250</v>
+      </c>
+      <c r="F35">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>92</v>
+      </c>
+      <c r="E36">
+        <v>693</v>
+      </c>
+      <c r="F36">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="str">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="str">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="str">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>764</v>
+      </c>
+      <c r="E40">
+        <v>343</v>
+      </c>
+      <c r="F40">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="str">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>763</v>
+      </c>
+      <c r="E41">
+        <v>2267</v>
+      </c>
+      <c r="F41">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>338</v>
+      </c>
+      <c r="E42">
+        <v>912</v>
+      </c>
+      <c r="F42">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="str">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>204</v>
+      </c>
+      <c r="E43">
+        <v>274</v>
+      </c>
+      <c r="F43">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="str">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>158</v>
+      </c>
+      <c r="E44">
+        <v>420</v>
+      </c>
+      <c r="F44">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="str">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>990</v>
+      </c>
+      <c r="E45">
+        <v>513</v>
+      </c>
+      <c r="F45">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="str">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>529</v>
+      </c>
+      <c r="E46">
+        <v>382</v>
+      </c>
+      <c r="F46">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="str">
+        <v>17</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>73</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="str">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="str">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>28</v>
+      </c>
+      <c r="F49">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="str">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>566</v>
+      </c>
+      <c r="E50">
+        <v>1409</v>
+      </c>
+      <c r="F50">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="str">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>134</v>
+      </c>
+      <c r="E51">
+        <v>583</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="str">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>122</v>
+      </c>
+      <c r="E52">
+        <v>160</v>
+      </c>
+      <c r="F52">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="str">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>38</v>
+      </c>
+      <c r="E53">
+        <v>114</v>
+      </c>
+      <c r="F53">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="str">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="str">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>520</v>
+      </c>
+      <c r="E55">
+        <v>742</v>
+      </c>
+      <c r="F55">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="str">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>157</v>
+      </c>
+      <c r="E56">
+        <v>132</v>
+      </c>
+      <c r="F56">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="str">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="str">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>26</v>
+      </c>
+      <c r="E58">
+        <v>25</v>
+      </c>
+      <c r="F58">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="str">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>21</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="str">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>541</v>
+      </c>
+      <c r="E60">
+        <v>1048</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="str">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>113</v>
+      </c>
+      <c r="E61">
+        <v>47</v>
+      </c>
+      <c r="F61">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="str">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>66</v>
+      </c>
+      <c r="E62">
+        <v>238</v>
+      </c>
+      <c r="F62">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="str">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>48</v>
+      </c>
+      <c r="F63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="str">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="str">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>664</v>
+      </c>
+      <c r="E65">
+        <v>279</v>
+      </c>
+      <c r="F65">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="str">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>155</v>
+      </c>
+      <c r="E66">
+        <v>710</v>
+      </c>
+      <c r="F66">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="str">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>82</v>
+      </c>
+      <c r="E67">
+        <v>115</v>
+      </c>
+      <c r="F67">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="str">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>39</v>
+      </c>
+      <c r="E68">
+        <v>324</v>
+      </c>
+      <c r="F68">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="str">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>39</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="str">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>364</v>
+      </c>
+      <c r="E70">
+        <v>191</v>
+      </c>
+      <c r="F70">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="str">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>199</v>
+      </c>
+      <c r="E71">
+        <v>419</v>
+      </c>
+      <c r="F71">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="str">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>123</v>
+      </c>
+      <c r="E72">
+        <v>723</v>
+      </c>
+      <c r="F72">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="str">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="str">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="str">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1306</v>
+      </c>
+      <c r="E75">
+        <v>589</v>
+      </c>
+      <c r="F75">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="str">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>129</v>
+      </c>
+      <c r="E76">
+        <v>680</v>
+      </c>
+      <c r="F76">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="str">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>70</v>
+      </c>
+      <c r="E77">
+        <v>47</v>
+      </c>
+      <c r="F77">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="str">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>46</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="str">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>49</v>
+      </c>
+      <c r="F79">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="str">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>483</v>
+      </c>
+      <c r="E80">
+        <v>549</v>
+      </c>
+      <c r="F80">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="str">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>120</v>
+      </c>
+      <c r="E81">
+        <v>137</v>
+      </c>
+      <c r="F81">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="str">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>74</v>
+      </c>
+      <c r="E82">
+        <v>92</v>
+      </c>
+      <c r="F82">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="str">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>63</v>
+      </c>
+      <c r="F83">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="str">
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+      <c r="F84">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="str">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>748</v>
+      </c>
+      <c r="E85">
+        <v>989</v>
+      </c>
+      <c r="F85">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="str">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>71</v>
+      </c>
+      <c r="E86">
+        <v>62</v>
+      </c>
+      <c r="F86">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="str">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>60</v>
+      </c>
+      <c r="E87">
+        <v>51</v>
+      </c>
+      <c r="F87">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="str">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>36</v>
+      </c>
+      <c r="E88">
+        <v>33</v>
+      </c>
+      <c r="F88">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="str">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="str">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>409</v>
+      </c>
+      <c r="E90">
+        <v>309</v>
+      </c>
+      <c r="F90">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="str">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>97</v>
+      </c>
+      <c r="E91">
+        <v>113</v>
+      </c>
+      <c r="F91">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="str">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>78</v>
+      </c>
+      <c r="E92">
+        <v>385</v>
+      </c>
+      <c r="F92">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="str">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="str">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="str">
+        <v>27</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>336</v>
+      </c>
+      <c r="E95">
+        <v>512</v>
+      </c>
+      <c r="F95">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="str">
+        <v>27</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>174</v>
+      </c>
+      <c r="E96">
+        <v>402</v>
+      </c>
+      <c r="F96">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="str">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>31</v>
+      </c>
+      <c r="E97">
+        <v>36</v>
+      </c>
+      <c r="F97">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="str">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>24</v>
+      </c>
+      <c r="E98">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="str">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>35</v>
+      </c>
+      <c r="F99">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="str">
+        <v>28</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>383</v>
+      </c>
+      <c r="E100">
+        <v>540</v>
+      </c>
+      <c r="F100">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="str">
+        <v>28</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>82</v>
+      </c>
+      <c r="E101">
+        <v>265</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="str">
+        <v>28</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>54</v>
+      </c>
+      <c r="E102">
+        <v>146</v>
+      </c>
+      <c r="F102">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="str">
+        <v>28</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>23</v>
+      </c>
+      <c r="E103">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="str">
+        <v>28</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="str">
+        <v>29</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>796</v>
+      </c>
+      <c r="E105">
+        <v>1057</v>
+      </c>
+      <c r="F105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="str">
+        <v>29</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>127</v>
+      </c>
+      <c r="E106">
+        <v>62</v>
+      </c>
+      <c r="F106">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="str">
+        <v>29</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>91</v>
+      </c>
+      <c r="E107">
+        <v>322</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="str">
+        <v>29</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>38</v>
+      </c>
+      <c r="E108">
+        <v>54</v>
+      </c>
+      <c r="F108">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="str">
+        <v>29</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>35</v>
+      </c>
+      <c r="E109">
+        <v>23</v>
+      </c>
+      <c r="F109">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="str">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1665</v>
+      </c>
+      <c r="E110">
+        <v>748</v>
+      </c>
+      <c r="F110">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="str">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>123</v>
+      </c>
+      <c r="E111">
+        <v>56</v>
+      </c>
+      <c r="F111">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="str">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>120</v>
+      </c>
+      <c r="E112">
+        <v>105</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="str">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>43</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="str">
+        <v>30</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>39</v>
+      </c>
+      <c r="E114">
+        <v>139</v>
+      </c>
+      <c r="F114">
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="str">
+        <v>31</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>316</v>
+      </c>
+      <c r="E115">
+        <v>592</v>
+      </c>
+      <c r="F115">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="str">
+        <v>31</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>34</v>
+      </c>
+      <c r="F116">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="str">
+        <v>31</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>74</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="str">
+        <v>31</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>65</v>
+      </c>
+      <c r="E118">
+        <v>86</v>
+      </c>
+      <c r="F118">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="str">
+        <v>31</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>48</v>
+      </c>
+      <c r="E119">
+        <v>26</v>
+      </c>
+      <c r="F119">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="str">
+        <v>32</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>564</v>
+      </c>
+      <c r="E120">
+        <v>453</v>
+      </c>
+      <c r="F120">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="str">
+        <v>32</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>380</v>
+      </c>
+      <c r="E121">
+        <v>480</v>
+      </c>
+      <c r="F121">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="str">
+        <v>32</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>62</v>
+      </c>
+      <c r="E122">
+        <v>36</v>
+      </c>
+      <c r="F122">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="str">
+        <v>32</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>51</v>
+      </c>
+      <c r="E123">
+        <v>31</v>
+      </c>
+      <c r="F123">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="str">
+        <v>32</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>41</v>
+      </c>
+      <c r="E124">
+        <v>70</v>
+      </c>
+      <c r="F124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="str">
+        <v>33</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>470</v>
+      </c>
+      <c r="E125">
+        <v>725</v>
+      </c>
+      <c r="F125">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="str">
+        <v>33</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>133</v>
+      </c>
+      <c r="E126">
+        <v>68</v>
+      </c>
+      <c r="F126">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="str">
+        <v>33</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>88</v>
+      </c>
+      <c r="E127">
+        <v>145</v>
+      </c>
+      <c r="F127">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="str">
+        <v>33</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>53</v>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="str">
+        <v>33</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>22</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="str">
+        <v>34</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1325</v>
+      </c>
+      <c r="E130">
+        <v>994</v>
+      </c>
+      <c r="F130">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="str">
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>336</v>
+      </c>
+      <c r="E131">
+        <v>237</v>
+      </c>
+      <c r="F131">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="str">
+        <v>34</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>187</v>
+      </c>
+      <c r="E132">
+        <v>67</v>
+      </c>
+      <c r="F132">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="str">
+        <v>34</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>46</v>
+      </c>
+      <c r="E133">
+        <v>25</v>
+      </c>
+      <c r="F133">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="str">
+        <v>34</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>23</v>
+      </c>
+      <c r="E134">
+        <v>12</v>
+      </c>
+      <c r="F134">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="str">
+        <v>35</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>924</v>
+      </c>
+      <c r="E135">
+        <v>638</v>
+      </c>
+      <c r="F135">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="str">
+        <v>35</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>92</v>
+      </c>
+      <c r="E136">
+        <v>150</v>
+      </c>
+      <c r="F136">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="str">
+        <v>35</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>70</v>
+      </c>
+      <c r="E137">
+        <v>26</v>
+      </c>
+      <c r="F137">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="str">
+        <v>35</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>28</v>
+      </c>
+      <c r="E138">
+        <v>22</v>
+      </c>
+      <c r="F138">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="str">
+        <v>35</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>34</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="str">
+        <v>36</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>673</v>
+      </c>
+      <c r="E140">
+        <v>516</v>
+      </c>
+      <c r="F140">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="str">
+        <v>36</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>129</v>
+      </c>
+      <c r="E141">
+        <v>378</v>
+      </c>
+      <c r="F141">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="str">
+        <v>36</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>73</v>
+      </c>
+      <c r="E142">
+        <v>29</v>
+      </c>
+      <c r="F142">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="str">
+        <v>36</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>49</v>
+      </c>
+      <c r="E143">
+        <v>48</v>
+      </c>
+      <c r="F143">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="str">
+        <v>36</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>29</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+      <c r="F144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="str">
+        <v>37</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>391</v>
+      </c>
+      <c r="E145">
+        <v>757</v>
+      </c>
+      <c r="F145">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="str">
+        <v>37</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>275</v>
+      </c>
+      <c r="E146">
+        <v>292</v>
+      </c>
+      <c r="F146">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="str">
+        <v>37</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>134</v>
+      </c>
+      <c r="E147">
+        <v>34</v>
+      </c>
+      <c r="F147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="str">
+        <v>37</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>71</v>
+      </c>
+      <c r="E148">
+        <v>234</v>
+      </c>
+      <c r="F148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="str">
+        <v>37</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>35</v>
+      </c>
+      <c r="E149">
+        <v>47</v>
+      </c>
+      <c r="F149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="str">
+        <v>38</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>539</v>
+      </c>
+      <c r="E150">
+        <v>677</v>
+      </c>
+      <c r="F150">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="str">
+        <v>38</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>142</v>
+      </c>
+      <c r="E151">
+        <v>200</v>
+      </c>
+      <c r="F151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="str">
+        <v>38</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>65</v>
+      </c>
+      <c r="E152">
+        <v>245</v>
+      </c>
+      <c r="F152">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="str">
+        <v>38</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>57</v>
+      </c>
+      <c r="E153">
+        <v>256</v>
+      </c>
+      <c r="F153">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="str">
+        <v>38</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>24</v>
+      </c>
+      <c r="E154">
+        <v>91</v>
+      </c>
+      <c r="F154">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="str">
+        <v>39</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1034</v>
+      </c>
+      <c r="E155">
+        <v>360</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="str">
+        <v>39</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>223</v>
+      </c>
+      <c r="E156">
+        <v>842</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="str">
+        <v>39</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>116</v>
+      </c>
+      <c r="E157">
+        <v>45</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="str">
+        <v>39</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>95</v>
+      </c>
+      <c r="E158">
+        <v>48</v>
+      </c>
+      <c r="F158">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="str">
+        <v>39</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>25</v>
+      </c>
+      <c r="E159">
+        <v>9</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="str">
+        <v>40</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>484</v>
+      </c>
+      <c r="E160">
+        <v>698</v>
+      </c>
+      <c r="F160">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="str">
+        <v>40</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>257</v>
+      </c>
+      <c r="E161">
+        <v>201</v>
+      </c>
+      <c r="F161">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="str">
+        <v>40</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>55</v>
+      </c>
+      <c r="E162">
+        <v>124</v>
+      </c>
+      <c r="F162">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="str">
+        <v>40</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>45</v>
+      </c>
+      <c r="E163">
+        <v>23</v>
+      </c>
+      <c r="F163">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="str">
+        <v>40</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>29</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="str">
+        <v>41</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>676</v>
+      </c>
+      <c r="E165">
+        <v>333</v>
+      </c>
+      <c r="F165">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="str">
+        <v>41</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>427</v>
+      </c>
+      <c r="E166">
+        <v>155</v>
+      </c>
+      <c r="F166">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="str">
+        <v>41</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>160</v>
+      </c>
+      <c r="E167">
+        <v>104</v>
+      </c>
+      <c r="F167">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="str">
+        <v>41</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>144</v>
+      </c>
+      <c r="E168">
+        <v>236</v>
+      </c>
+      <c r="F168">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="str">
+        <v>41</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <v>98</v>
+      </c>
+      <c r="E169">
+        <v>68</v>
+      </c>
+      <c r="F169">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="str">
+        <v>42</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>459</v>
+      </c>
+      <c r="E170">
+        <v>1338</v>
+      </c>
+      <c r="F170">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="str">
+        <v>42</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>373</v>
+      </c>
+      <c r="E171">
+        <v>593</v>
+      </c>
+      <c r="F171">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="str">
+        <v>42</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>165</v>
+      </c>
+      <c r="E172">
+        <v>41</v>
+      </c>
+      <c r="F172">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="str">
+        <v>42</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>43</v>
+      </c>
+      <c r="E173">
+        <v>126</v>
+      </c>
+      <c r="F173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="str">
+        <v>42</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>38</v>
+      </c>
+      <c r="E174">
+        <v>18</v>
+      </c>
+      <c r="F174">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="str">
+        <v>43</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>657</v>
+      </c>
+      <c r="E175">
+        <v>1184</v>
+      </c>
+      <c r="F175">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="str">
+        <v>43</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>147</v>
+      </c>
+      <c r="E176">
+        <v>366</v>
+      </c>
+      <c r="F176">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="str">
+        <v>43</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>143</v>
+      </c>
+      <c r="E177">
+        <v>270</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="str">
+        <v>43</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>59</v>
+      </c>
+      <c r="E178">
+        <v>43</v>
+      </c>
+      <c r="F178">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="str">
+        <v>43</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <v>54</v>
+      </c>
+      <c r="E179">
+        <v>19</v>
+      </c>
+      <c r="F179">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="str">
+        <v>44</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>703</v>
+      </c>
+      <c r="E180">
+        <v>322</v>
+      </c>
+      <c r="F180">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="str">
+        <v>44</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>241</v>
+      </c>
+      <c r="E181">
+        <v>619</v>
+      </c>
+      <c r="F181">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="str">
+        <v>44</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>76</v>
+      </c>
+      <c r="E182">
+        <v>48</v>
+      </c>
+      <c r="F182">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="str">
+        <v>44</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>70</v>
+      </c>
+      <c r="E183">
+        <v>26</v>
+      </c>
+      <c r="F183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="str">
+        <v>44</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>60</v>
+      </c>
+      <c r="E184">
+        <v>225</v>
+      </c>
+      <c r="F184">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="str">
+        <v>45</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>763</v>
+      </c>
+      <c r="E185">
+        <v>894</v>
+      </c>
+      <c r="F185">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="str">
+        <v>45</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>215</v>
+      </c>
+      <c r="E186">
+        <v>513</v>
+      </c>
+      <c r="F186">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="str">
+        <v>45</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>130</v>
+      </c>
+      <c r="E187">
+        <v>186</v>
+      </c>
+      <c r="F187">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="str">
+        <v>45</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>68</v>
+      </c>
+      <c r="E188">
+        <v>53</v>
+      </c>
+      <c r="F188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="str">
+        <v>45</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189">
+        <v>60</v>
+      </c>
+      <c r="E189">
+        <v>110</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="str">
+        <v>46</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>327</v>
+      </c>
+      <c r="E190">
+        <v>348</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="str">
+        <v>46</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>316</v>
+      </c>
+      <c r="E191">
+        <v>49</v>
+      </c>
+      <c r="F191">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="str">
+        <v>46</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>47</v>
+      </c>
+      <c r="E192">
+        <v>191</v>
+      </c>
+      <c r="F192">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="str">
+        <v>46</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>29</v>
+      </c>
+      <c r="E193">
+        <v>164</v>
+      </c>
+      <c r="F193">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="str">
+        <v>46</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="D194">
+        <v>28</v>
+      </c>
+      <c r="E194">
+        <v>10</v>
+      </c>
+      <c r="F194">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="str">
+        <v>47</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>700</v>
+      </c>
+      <c r="E195">
+        <v>342</v>
+      </c>
+      <c r="F195">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="str">
+        <v>47</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>43</v>
+      </c>
+      <c r="E196">
+        <v>367</v>
+      </c>
+      <c r="F196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="str">
+        <v>47</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>40</v>
+      </c>
+      <c r="E197">
+        <v>255</v>
+      </c>
+      <c r="F197">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="str">
+        <v>47</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>26</v>
+      </c>
+      <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="str">
+        <v>47</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>13</v>
+      </c>
+      <c r="E199">
+        <v>21</v>
+      </c>
+      <c r="F199">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="str">
+        <v>48</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>592</v>
+      </c>
+      <c r="E200">
+        <v>896</v>
+      </c>
+      <c r="F200">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="str">
+        <v>48</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>154</v>
+      </c>
+      <c r="E201">
+        <v>172</v>
+      </c>
+      <c r="F201">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="str">
+        <v>48</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>31</v>
+      </c>
+      <c r="E202">
+        <v>59</v>
+      </c>
+      <c r="F202">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="str">
+        <v>48</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>40</v>
+      </c>
+      <c r="F203">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="str">
+        <v>48</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>14</v>
+      </c>
+      <c r="E204">
+        <v>63</v>
+      </c>
+      <c r="F204">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="str">
+        <v>49</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>644</v>
+      </c>
+      <c r="E205">
+        <v>1058</v>
+      </c>
+      <c r="F205">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="str">
+        <v>49</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>196</v>
+      </c>
+      <c r="E206">
+        <v>102</v>
+      </c>
+      <c r="F206">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="str">
+        <v>49</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>91</v>
+      </c>
+      <c r="E207">
+        <v>58</v>
+      </c>
+      <c r="F207">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="str">
+        <v>49</v>
+      </c>
+      <c r="C208">
+        <v>4</v>
+      </c>
+      <c r="D208">
+        <v>77</v>
+      </c>
+      <c r="E208">
+        <v>85</v>
+      </c>
+      <c r="F208">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="str">
+        <v>49</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+      <c r="D209">
+        <v>60</v>
+      </c>
+      <c r="E209">
+        <v>181</v>
+      </c>
+      <c r="F209">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="str">
+        <v>50</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>430</v>
+      </c>
+      <c r="E210">
+        <v>1422</v>
+      </c>
+      <c r="F210">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="str">
+        <v>50</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>92</v>
+      </c>
+      <c r="E211">
+        <v>66</v>
+      </c>
+      <c r="F211">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="str">
+        <v>50</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>35</v>
+      </c>
+      <c r="E212">
+        <v>11</v>
+      </c>
+      <c r="F212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="str">
+        <v>50</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>21</v>
+      </c>
+      <c r="E213">
+        <v>22</v>
+      </c>
+      <c r="F213">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="str">
+        <v>50</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+      <c r="D214">
+        <v>20</v>
+      </c>
+      <c r="E214">
+        <v>42</v>
+      </c>
+      <c r="F214">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="str">
+        <v>51</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>274</v>
+      </c>
+      <c r="E215">
+        <v>430</v>
+      </c>
+      <c r="F215">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="str">
+        <v>51</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>129</v>
+      </c>
+      <c r="E216">
+        <v>38</v>
+      </c>
+      <c r="F216">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="str">
+        <v>51</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217">
+        <v>43</v>
+      </c>
+      <c r="E217">
+        <v>169</v>
+      </c>
+      <c r="F217">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="str">
+        <v>51</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+      <c r="D218">
+        <v>15</v>
+      </c>
+      <c r="E218">
+        <v>36</v>
+      </c>
+      <c r="F218">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="str">
+        <v>51</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+      <c r="D219">
+        <v>13</v>
+      </c>
+      <c r="E219">
+        <v>16</v>
+      </c>
+      <c r="F219">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="str">
+        <v>52</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>365</v>
+      </c>
+      <c r="E220">
+        <v>282</v>
+      </c>
+      <c r="F220">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="str">
+        <v>52</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>204</v>
+      </c>
+      <c r="E221">
+        <v>56</v>
+      </c>
+      <c r="F221">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="str">
+        <v>52</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>102</v>
+      </c>
+      <c r="E222">
+        <v>313</v>
+      </c>
+      <c r="F222">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="str">
+        <v>52</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>66</v>
+      </c>
+      <c r="E223">
+        <v>390</v>
+      </c>
+      <c r="F223">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="str">
+        <v>52</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="D224">
+        <v>21</v>
+      </c>
+      <c r="E224">
+        <v>17</v>
+      </c>
+      <c r="F224">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="str">
+        <v>53</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>364</v>
+      </c>
+      <c r="E225">
+        <v>330</v>
+      </c>
+      <c r="F225">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="str">
+        <v>53</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>77</v>
+      </c>
+      <c r="E226">
+        <v>252</v>
+      </c>
+      <c r="F226">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="str">
+        <v>53</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>62</v>
+      </c>
+      <c r="E227">
+        <v>30</v>
+      </c>
+      <c r="F227">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="str">
+        <v>53</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>44</v>
+      </c>
+      <c r="E228">
+        <v>18</v>
+      </c>
+      <c r="F228">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="str">
+        <v>53</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>27</v>
+      </c>
+      <c r="E229">
+        <v>70</v>
+      </c>
+      <c r="F229">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="str">
+        <v>54</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>249</v>
+      </c>
+      <c r="E230">
+        <v>515</v>
+      </c>
+      <c r="F230">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="str">
+        <v>54</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>143</v>
+      </c>
+      <c r="E231">
+        <v>80</v>
+      </c>
+      <c r="F231">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="str">
+        <v>54</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>57</v>
+      </c>
+      <c r="E232">
+        <v>70</v>
+      </c>
+      <c r="F232">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="str">
+        <v>54</v>
+      </c>
+      <c r="C233">
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <v>27</v>
+      </c>
+      <c r="E233">
+        <v>33</v>
+      </c>
+      <c r="F233">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="str">
+        <v>54</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>17</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="str">
+        <v>55</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>508</v>
+      </c>
+      <c r="E235">
+        <v>321</v>
+      </c>
+      <c r="F235">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="str">
+        <v>55</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>77</v>
+      </c>
+      <c r="E236">
+        <v>863</v>
+      </c>
+      <c r="F236">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="str">
+        <v>55</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>30</v>
+      </c>
+      <c r="E237">
+        <v>36</v>
+      </c>
+      <c r="F237">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="str">
+        <v>55</v>
+      </c>
+      <c r="C238">
+        <v>4</v>
+      </c>
+      <c r="D238">
+        <v>25</v>
+      </c>
+      <c r="E238">
+        <v>28</v>
+      </c>
+      <c r="F238">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="str">
+        <v>55</v>
+      </c>
+      <c r="C239">
+        <v>5</v>
+      </c>
+      <c r="D239">
+        <v>18</v>
+      </c>
+      <c r="E239">
+        <v>53</v>
+      </c>
+      <c r="F239">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="str">
+        <v>56</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>196</v>
+      </c>
+      <c r="E240">
+        <v>775</v>
+      </c>
+      <c r="F240">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="str">
+        <v>56</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>93</v>
+      </c>
+      <c r="E241">
+        <v>254</v>
+      </c>
+      <c r="F241">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="str">
+        <v>56</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242">
+        <v>44</v>
+      </c>
+      <c r="E242">
+        <v>24</v>
+      </c>
+      <c r="F242">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="str">
+        <v>56</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243">
+        <v>27</v>
+      </c>
+      <c r="E243">
+        <v>57</v>
+      </c>
+      <c r="F243">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="str">
+        <v>56</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+      <c r="D244">
+        <v>22</v>
+      </c>
+      <c r="E244">
+        <v>112</v>
+      </c>
+      <c r="F244">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="str">
+        <v>57</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>140</v>
+      </c>
+      <c r="E245">
+        <v>410</v>
+      </c>
+      <c r="F245">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="str">
+        <v>57</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>102</v>
+      </c>
+      <c r="E246">
+        <v>120</v>
+      </c>
+      <c r="F246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="str">
+        <v>57</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247">
+        <v>34</v>
+      </c>
+      <c r="E247">
+        <v>32</v>
+      </c>
+      <c r="F247">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="str">
+        <v>57</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
+        <v>26</v>
+      </c>
+      <c r="E248">
+        <v>6</v>
+      </c>
+      <c r="F248">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="str">
+        <v>57</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+      <c r="D249">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>9</v>
+      </c>
+      <c r="F249">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="str">
+        <v>58</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>460</v>
+      </c>
+      <c r="E250">
+        <v>367</v>
+      </c>
+      <c r="F250">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="str">
+        <v>58</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>195</v>
+      </c>
+      <c r="E251">
+        <v>114</v>
+      </c>
+      <c r="F251">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="str">
+        <v>58</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>67</v>
+      </c>
+      <c r="E252">
+        <v>471</v>
+      </c>
+      <c r="F252">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="str">
+        <v>58</v>
+      </c>
+      <c r="C253">
+        <v>4</v>
+      </c>
+      <c r="D253">
+        <v>34</v>
+      </c>
+      <c r="E253">
+        <v>168</v>
+      </c>
+      <c r="F253">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="str">
+        <v>58</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254">
+        <v>24</v>
+      </c>
+      <c r="E254">
+        <v>98</v>
+      </c>
+      <c r="F254">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="str">
+        <v>59</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>189</v>
+      </c>
+      <c r="E255">
+        <v>258</v>
+      </c>
+      <c r="F255">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="str">
+        <v>59</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>159</v>
+      </c>
+      <c r="E256">
+        <v>295</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="str">
+        <v>59</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>15</v>
+      </c>
+      <c r="E257">
+        <v>9</v>
+      </c>
+      <c r="F257">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="str">
+        <v>59</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>6</v>
+      </c>
+      <c r="F258">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="str">
+        <v>59</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+      <c r="D259">
+        <v>7</v>
+      </c>
+      <c r="E259">
+        <v>7</v>
+      </c>
+      <c r="F259">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="str">
+        <v>60</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>295</v>
+      </c>
+      <c r="E260">
+        <v>157</v>
+      </c>
+      <c r="F260">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="str">
+        <v>60</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>25</v>
+      </c>
+      <c r="E261">
+        <v>20</v>
+      </c>
+      <c r="F261">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="str">
+        <v>60</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+      <c r="D262">
+        <v>14</v>
+      </c>
+      <c r="E262">
+        <v>17</v>
+      </c>
+      <c r="F262">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="str">
+        <v>60</v>
+      </c>
+      <c r="C263">
+        <v>4</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263">
+        <v>10</v>
+      </c>
+      <c r="F263">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="str">
+        <v>60</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>4</v>
+      </c>
+      <c r="E264">
+        <v>12</v>
+      </c>
+      <c r="F264">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="str">
+        <v>61</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>176</v>
+      </c>
+      <c r="E265">
+        <v>498</v>
+      </c>
+      <c r="F265">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="str">
+        <v>61</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>86</v>
+      </c>
+      <c r="E266">
+        <v>230</v>
+      </c>
+      <c r="F266">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="str">
+        <v>61</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267">
+        <v>66</v>
+      </c>
+      <c r="E267">
+        <v>28</v>
+      </c>
+      <c r="F267">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="str">
+        <v>61</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+      <c r="D268">
+        <v>13</v>
+      </c>
+      <c r="E268">
+        <v>15</v>
+      </c>
+      <c r="F268">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="str">
+        <v>61</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>8</v>
+      </c>
+      <c r="E269">
+        <v>10</v>
+      </c>
+      <c r="F269">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="str">
+        <v>62</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>354</v>
+      </c>
+      <c r="E270">
+        <v>464</v>
+      </c>
+      <c r="F270">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="str">
+        <v>62</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>105</v>
+      </c>
+      <c r="E271">
+        <v>226</v>
+      </c>
+      <c r="F271">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="str">
+        <v>62</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272">
+        <v>62</v>
+      </c>
+      <c r="E272">
+        <v>25</v>
+      </c>
+      <c r="F272">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="str">
+        <v>62</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273">
+        <v>56</v>
+      </c>
+      <c r="E273">
+        <v>89</v>
+      </c>
+      <c r="F273">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="str">
+        <v>62</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274">
+        <v>39</v>
+      </c>
+      <c r="E274">
+        <v>112</v>
+      </c>
+      <c r="F274">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="str">
+        <v>63</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>176</v>
+      </c>
+      <c r="E275">
+        <v>351</v>
+      </c>
+      <c r="F275">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="str">
+        <v>63</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>101</v>
+      </c>
+      <c r="E276">
+        <v>166</v>
+      </c>
+      <c r="F276">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="str">
+        <v>63</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>26</v>
+      </c>
+      <c r="E277">
+        <v>38</v>
+      </c>
+      <c r="F277">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="str">
+        <v>63</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278">
+        <v>22</v>
+      </c>
+      <c r="E278">
+        <v>7</v>
+      </c>
+      <c r="F278">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="str">
+        <v>63</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+      <c r="D279">
+        <v>10</v>
+      </c>
+      <c r="E279">
+        <v>5</v>
+      </c>
+      <c r="F279">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="str">
+        <v>64</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>126</v>
+      </c>
+      <c r="E280">
+        <v>116</v>
+      </c>
+      <c r="F280">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="str">
+        <v>64</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>78</v>
+      </c>
+      <c r="E281">
+        <v>57</v>
+      </c>
+      <c r="F281">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="str">
+        <v>64</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>25</v>
+      </c>
+      <c r="E282">
+        <v>7</v>
+      </c>
+      <c r="F282">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="str">
+        <v>64</v>
+      </c>
+      <c r="C283">
+        <v>4</v>
+      </c>
+      <c r="D283">
+        <v>17</v>
+      </c>
+      <c r="E283">
+        <v>27</v>
+      </c>
+      <c r="F283">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="str">
+        <v>64</v>
+      </c>
+      <c r="C284">
+        <v>5</v>
+      </c>
+      <c r="D284">
+        <v>8</v>
+      </c>
+      <c r="E284">
+        <v>49</v>
+      </c>
+      <c r="F284">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="str">
+        <v>65</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>77</v>
+      </c>
+      <c r="E285">
+        <v>167</v>
+      </c>
+      <c r="F285">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="str">
+        <v>65</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>24</v>
+      </c>
+      <c r="E286">
+        <v>82</v>
+      </c>
+      <c r="F286">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="str">
+        <v>65</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>14</v>
+      </c>
+      <c r="E287">
+        <v>15</v>
+      </c>
+      <c r="F287">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="str">
+        <v>65</v>
+      </c>
+      <c r="C288">
+        <v>4</v>
+      </c>
+      <c r="D288">
+        <v>8</v>
+      </c>
+      <c r="E288">
+        <v>16</v>
+      </c>
+      <c r="F288">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="str">
+        <v>65</v>
+      </c>
+      <c r="C289">
+        <v>5</v>
+      </c>
+      <c r="D289">
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="str">
+        <v>66</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>63</v>
+      </c>
+      <c r="E290">
+        <v>178</v>
+      </c>
+      <c r="F290">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="str">
+        <v>66</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>21</v>
+      </c>
+      <c r="E291">
+        <v>57</v>
+      </c>
+      <c r="F291">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="str">
+        <v>66</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>21</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+      <c r="F292">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="str">
+        <v>66</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293">
+        <v>12</v>
+      </c>
+      <c r="E293">
+        <v>39</v>
+      </c>
+      <c r="F293">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="str">
+        <v>66</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <v>8</v>
+      </c>
+      <c r="E294">
+        <v>6</v>
+      </c>
+      <c r="F294">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="str">
+        <v>67</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>79</v>
+      </c>
+      <c r="E295">
+        <v>344</v>
+      </c>
+      <c r="F295">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="str">
+        <v>67</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>54</v>
+      </c>
+      <c r="E296">
+        <v>18</v>
+      </c>
+      <c r="F296">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="str">
+        <v>67</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297">
+        <v>38</v>
+      </c>
+      <c r="E297">
+        <v>108</v>
+      </c>
+      <c r="F297">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="str">
+        <v>67</v>
+      </c>
+      <c r="C298">
+        <v>4</v>
+      </c>
+      <c r="D298">
+        <v>11</v>
+      </c>
+      <c r="E298">
+        <v>23</v>
+      </c>
+      <c r="F298">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="str">
+        <v>67</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+      <c r="E299">
+        <v>9</v>
+      </c>
+      <c r="F299">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="str">
+        <v>68</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>47</v>
+      </c>
+      <c r="E300">
+        <v>44</v>
+      </c>
+      <c r="F300">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="str">
+        <v>68</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>15</v>
+      </c>
+      <c r="E301">
+        <v>12</v>
+      </c>
+      <c r="F301">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="str">
+        <v>68</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+      <c r="D302">
+        <v>8</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="str">
+        <v>68</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303">
+        <v>6</v>
+      </c>
+      <c r="E303">
+        <v>16</v>
+      </c>
+      <c r="F303">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="str">
+        <v>68</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+      <c r="D304">
+        <v>4</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+      <c r="F304">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="str">
+        <v>69</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>160</v>
+      </c>
+      <c r="E305">
+        <v>304</v>
+      </c>
+      <c r="F305">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="str">
+        <v>69</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <v>121</v>
+      </c>
+      <c r="E306">
+        <v>399</v>
+      </c>
+      <c r="F306">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="str">
+        <v>69</v>
+      </c>
+      <c r="C307">
+        <v>3</v>
+      </c>
+      <c r="D307">
+        <v>30</v>
+      </c>
+      <c r="E307">
+        <v>23</v>
+      </c>
+      <c r="F307">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="str">
+        <v>69</v>
+      </c>
+      <c r="C308">
+        <v>4</v>
+      </c>
+      <c r="D308">
+        <v>13</v>
+      </c>
+      <c r="E308">
+        <v>21</v>
+      </c>
+      <c r="F308">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="str">
+        <v>69</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+      <c r="D309">
+        <v>10</v>
+      </c>
+      <c r="E309">
+        <v>33</v>
+      </c>
+      <c r="F309">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="str">
+        <v>70</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>159</v>
+      </c>
+      <c r="E310">
+        <v>366</v>
+      </c>
+      <c r="F310">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="str">
+        <v>70</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>62</v>
+      </c>
+      <c r="E311">
+        <v>37</v>
+      </c>
+      <c r="F311">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="str">
+        <v>70</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+      <c r="D312">
+        <v>49</v>
+      </c>
+      <c r="E312">
+        <v>19</v>
+      </c>
+      <c r="F312">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="str">
+        <v>70</v>
+      </c>
+      <c r="C313">
+        <v>4</v>
+      </c>
+      <c r="D313">
+        <v>16</v>
+      </c>
+      <c r="E313">
+        <v>5</v>
+      </c>
+      <c r="F313">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="str">
+        <v>70</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>14</v>
+      </c>
+      <c r="E314">
+        <v>6</v>
+      </c>
+      <c r="F314">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="str">
+        <v>71</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>49</v>
+      </c>
+      <c r="E315">
+        <v>172</v>
+      </c>
+      <c r="F315">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="str">
+        <v>71</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>45</v>
+      </c>
+      <c r="E316">
+        <v>79</v>
+      </c>
+      <c r="F316">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="str">
+        <v>71</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+      <c r="D317">
+        <v>27</v>
+      </c>
+      <c r="E317">
+        <v>15</v>
+      </c>
+      <c r="F317">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="str">
+        <v>71</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+      <c r="D318">
+        <v>25</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+      <c r="F318">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="str">
+        <v>71</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+      <c r="D319">
+        <v>6</v>
+      </c>
+      <c r="E319">
+        <v>16</v>
+      </c>
+      <c r="F319">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="str">
+        <v>72</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>110</v>
+      </c>
+      <c r="E320">
+        <v>176</v>
+      </c>
+      <c r="F320">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="str">
+        <v>72</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>88</v>
+      </c>
+      <c r="E321">
+        <v>319</v>
+      </c>
+      <c r="F321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="str">
+        <v>72</v>
+      </c>
+      <c r="C322">
+        <v>3</v>
+      </c>
+      <c r="D322">
+        <v>22</v>
+      </c>
+      <c r="E322">
+        <v>20</v>
+      </c>
+      <c r="F322">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="str">
+        <v>72</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+      <c r="D323">
+        <v>16</v>
+      </c>
+      <c r="E323">
+        <v>5</v>
+      </c>
+      <c r="F323">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="str">
+        <v>72</v>
+      </c>
+      <c r="C324">
+        <v>5</v>
+      </c>
+      <c r="D324">
+        <v>11</v>
+      </c>
+      <c r="E324">
+        <v>17</v>
+      </c>
+      <c r="F324">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="str">
+        <v>73</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>123</v>
+      </c>
+      <c r="E325">
+        <v>27</v>
+      </c>
+      <c r="F325">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="str">
+        <v>73</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>62</v>
+      </c>
+      <c r="E326">
+        <v>268</v>
+      </c>
+      <c r="F326">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="str">
+        <v>73</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+      <c r="D327">
+        <v>17</v>
+      </c>
+      <c r="E327">
+        <v>19</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="str">
+        <v>73</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+      <c r="D328">
+        <v>12</v>
+      </c>
+      <c r="E328">
+        <v>15</v>
+      </c>
+      <c r="F328">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="str">
+        <v>73</v>
+      </c>
+      <c r="C329">
+        <v>5</v>
+      </c>
+      <c r="D329">
+        <v>11</v>
+      </c>
+      <c r="E329">
+        <v>24</v>
+      </c>
+      <c r="F329">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="str">
+        <v>74</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>40</v>
+      </c>
+      <c r="E330">
+        <v>123</v>
+      </c>
+      <c r="F330">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="str">
+        <v>74</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>25</v>
+      </c>
+      <c r="E331">
+        <v>18</v>
+      </c>
+      <c r="F331">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="str">
+        <v>74</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>23</v>
+      </c>
+      <c r="E332">
+        <v>39</v>
+      </c>
+      <c r="F332">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="str">
+        <v>74</v>
+      </c>
+      <c r="C333">
+        <v>4</v>
+      </c>
+      <c r="D333">
+        <v>5</v>
+      </c>
+      <c r="E333">
+        <v>59</v>
+      </c>
+      <c r="F333">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="str">
+        <v>74</v>
+      </c>
+      <c r="C334">
+        <v>5</v>
+      </c>
+      <c r="D334">
+        <v>5</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="str">
+        <v>75</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>103</v>
+      </c>
+      <c r="E335">
+        <v>412</v>
+      </c>
+      <c r="F335">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="str">
+        <v>75</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336">
+        <v>88</v>
+      </c>
+      <c r="E336">
+        <v>67</v>
+      </c>
+      <c r="F336">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="str">
+        <v>75</v>
+      </c>
+      <c r="C337">
+        <v>3</v>
+      </c>
+      <c r="D337">
+        <v>28</v>
+      </c>
+      <c r="E337">
+        <v>44</v>
+      </c>
+      <c r="F337">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="str">
+        <v>75</v>
+      </c>
+      <c r="C338">
+        <v>4</v>
+      </c>
+      <c r="D338">
+        <v>21</v>
+      </c>
+      <c r="E338">
+        <v>83</v>
+      </c>
+      <c r="F338">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="str">
+        <v>75</v>
+      </c>
+      <c r="C339">
+        <v>5</v>
+      </c>
+      <c r="D339">
+        <v>20</v>
+      </c>
+      <c r="E339">
+        <v>5</v>
+      </c>
+      <c r="F339">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="str">
+        <v>76</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>49</v>
+      </c>
+      <c r="E340">
+        <v>11</v>
+      </c>
+      <c r="F340">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="str">
+        <v>76</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>40</v>
+      </c>
+      <c r="E341">
+        <v>160</v>
+      </c>
+      <c r="F341">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="str">
+        <v>76</v>
+      </c>
+      <c r="C342">
+        <v>3</v>
+      </c>
+      <c r="D342">
+        <v>16</v>
+      </c>
+      <c r="E342">
+        <v>3</v>
+      </c>
+      <c r="F342">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="str">
+        <v>76</v>
+      </c>
+      <c r="C343">
+        <v>4</v>
+      </c>
+      <c r="D343">
+        <v>8</v>
+      </c>
+      <c r="E343">
+        <v>2</v>
+      </c>
+      <c r="F343">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="str">
+        <v>76</v>
+      </c>
+      <c r="C344">
+        <v>5</v>
+      </c>
+      <c r="D344">
+        <v>7</v>
+      </c>
+      <c r="E344">
+        <v>16</v>
+      </c>
+      <c r="F344">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="str">
+        <v>77</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>32</v>
+      </c>
+      <c r="E345">
+        <v>148</v>
+      </c>
+      <c r="F345">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="str">
+        <v>77</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>31</v>
+      </c>
+      <c r="E346">
+        <v>110</v>
+      </c>
+      <c r="F346">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="str">
+        <v>77</v>
+      </c>
+      <c r="C347">
+        <v>3</v>
+      </c>
+      <c r="D347">
+        <v>13</v>
+      </c>
+      <c r="E347">
+        <v>7</v>
+      </c>
+      <c r="F347">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="str">
+        <v>77</v>
+      </c>
+      <c r="C348">
+        <v>4</v>
+      </c>
+      <c r="D348">
+        <v>11</v>
+      </c>
+      <c r="E348">
+        <v>18</v>
+      </c>
+      <c r="F348">
+        <v>147.7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="str">
+        <v>77</v>
+      </c>
+      <c r="C349">
+        <v>5</v>
+      </c>
+      <c r="D349">
+        <v>11</v>
+      </c>
+      <c r="E349">
+        <v>10</v>
+      </c>
+      <c r="F349">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="str">
+        <v>78</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>47</v>
+      </c>
+      <c r="E350">
+        <v>231</v>
+      </c>
+      <c r="F350">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="str">
+        <v>78</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>47</v>
+      </c>
+      <c r="E351">
+        <v>48</v>
+      </c>
+      <c r="F351">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="str">
+        <v>78</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+      <c r="D352">
+        <v>16</v>
+      </c>
+      <c r="E352">
+        <v>38</v>
+      </c>
+      <c r="F352">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="str">
+        <v>78</v>
+      </c>
+      <c r="C353">
+        <v>4</v>
+      </c>
+      <c r="D353">
+        <v>7</v>
+      </c>
+      <c r="E353">
+        <v>5</v>
+      </c>
+      <c r="F353">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="str">
+        <v>78</v>
+      </c>
+      <c r="C354">
+        <v>5</v>
+      </c>
+      <c r="D354">
+        <v>6</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="str">
+        <v>79</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>93</v>
+      </c>
+      <c r="E355">
+        <v>359</v>
+      </c>
+      <c r="F355">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="str">
+        <v>79</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356">
+        <v>17</v>
+      </c>
+      <c r="E356">
+        <v>42</v>
+      </c>
+      <c r="F356">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="str">
+        <v>79</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+      <c r="D357">
+        <v>16</v>
+      </c>
+      <c r="E357">
+        <v>54</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="str">
+        <v>79</v>
+      </c>
+      <c r="C358">
+        <v>4</v>
+      </c>
+      <c r="D358">
+        <v>11</v>
+      </c>
+      <c r="E358">
+        <v>8</v>
+      </c>
+      <c r="F358">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="str">
+        <v>79</v>
+      </c>
+      <c r="C359">
+        <v>5</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+      <c r="E359">
+        <v>3</v>
+      </c>
+      <c r="F359">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="str">
+        <v>80</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>51</v>
+      </c>
+      <c r="E360">
+        <v>77</v>
+      </c>
+      <c r="F360">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="str">
+        <v>80</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+      <c r="D361">
+        <v>22</v>
+      </c>
+      <c r="E361">
+        <v>64</v>
+      </c>
+      <c r="F361">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="str">
+        <v>80</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+      <c r="D362">
+        <v>5</v>
+      </c>
+      <c r="E362">
+        <v>3</v>
+      </c>
+      <c r="F362">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="str">
+        <v>80</v>
+      </c>
+      <c r="C363">
+        <v>4</v>
+      </c>
+      <c r="D363">
+        <v>4</v>
+      </c>
+      <c r="E363">
+        <v>5</v>
+      </c>
+      <c r="F363">
+        <v>67.9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="str">
+        <v>80</v>
+      </c>
+      <c r="C364">
+        <v>5</v>
+      </c>
+      <c r="D364">
+        <v>4</v>
+      </c>
+      <c r="E364">
+        <v>3</v>
+      </c>
+      <c r="F364">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="str">
+        <v>81</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>69</v>
+      </c>
+      <c r="E365">
+        <v>58</v>
+      </c>
+      <c r="F365">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="str">
+        <v>81</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366">
+        <v>33</v>
+      </c>
+      <c r="E366">
+        <v>53</v>
+      </c>
+      <c r="F366">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="str">
+        <v>81</v>
+      </c>
+      <c r="C367">
+        <v>3</v>
+      </c>
+      <c r="D367">
+        <v>11</v>
+      </c>
+      <c r="E367">
+        <v>26</v>
+      </c>
+      <c r="F367">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="str">
+        <v>81</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+      <c r="D368">
+        <v>7</v>
+      </c>
+      <c r="E368">
+        <v>5</v>
+      </c>
+      <c r="F368">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="str">
+        <v>81</v>
+      </c>
+      <c r="C369">
+        <v>5</v>
+      </c>
+      <c r="D369">
+        <v>3</v>
+      </c>
+      <c r="E369">
+        <v>6</v>
+      </c>
+      <c r="F369">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="str">
+        <v>82</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>19</v>
+      </c>
+      <c r="E370">
+        <v>27</v>
+      </c>
+      <c r="F370">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="str">
+        <v>82</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <v>8</v>
+      </c>
+      <c r="E371">
+        <v>6</v>
+      </c>
+      <c r="F371">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="str">
+        <v>82</v>
+      </c>
+      <c r="C372">
+        <v>3</v>
+      </c>
+      <c r="D372">
+        <v>5</v>
+      </c>
+      <c r="E372">
+        <v>3</v>
+      </c>
+      <c r="F372">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="str">
+        <v>82</v>
+      </c>
+      <c r="C373">
+        <v>4</v>
+      </c>
+      <c r="D373">
+        <v>5</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="F373">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="str">
+        <v>82</v>
+      </c>
+      <c r="C374">
+        <v>5</v>
+      </c>
+      <c r="D374">
+        <v>3</v>
+      </c>
+      <c r="E374">
+        <v>12</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="str">
+        <v>83</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>56</v>
+      </c>
+      <c r="E375">
+        <v>222</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="str">
+        <v>83</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376">
+        <v>26</v>
+      </c>
+      <c r="E376">
+        <v>2</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="str">
+        <v>83</v>
+      </c>
+      <c r="C377">
+        <v>3</v>
+      </c>
+      <c r="D377">
+        <v>7</v>
+      </c>
+      <c r="E377">
+        <v>5</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="str">
+        <v>83</v>
+      </c>
+      <c r="C378">
+        <v>4</v>
+      </c>
+      <c r="D378">
+        <v>5</v>
+      </c>
+      <c r="E378">
+        <v>9</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="str">
+        <v>83</v>
+      </c>
+      <c r="C379">
+        <v>5</v>
+      </c>
+      <c r="D379">
+        <v>3</v>
+      </c>
+      <c r="E379">
+        <v>16</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="str">
+        <v>84</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>45</v>
+      </c>
+      <c r="E380">
+        <v>153</v>
+      </c>
+      <c r="F380">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="str">
+        <v>84</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381">
+        <v>17</v>
+      </c>
+      <c r="E381">
+        <v>7</v>
+      </c>
+      <c r="F381">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="str">
+        <v>84</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+      <c r="D382">
+        <v>5</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="str">
+        <v>84</v>
+      </c>
+      <c r="C383">
+        <v>4</v>
+      </c>
+      <c r="D383">
+        <v>3</v>
+      </c>
+      <c r="E383">
+        <v>2</v>
+      </c>
+      <c r="F383">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="str">
+        <v>84</v>
+      </c>
+      <c r="C384">
+        <v>5</v>
+      </c>
+      <c r="D384">
+        <v>3</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="str">
+        <v>85</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>38</v>
+      </c>
+      <c r="E385">
+        <v>60</v>
+      </c>
+      <c r="F385">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="str">
+        <v>85</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386">
+        <v>10</v>
+      </c>
+      <c r="E386">
+        <v>15</v>
+      </c>
+      <c r="F386">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="str">
+        <v>85</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+      <c r="D387">
+        <v>7</v>
+      </c>
+      <c r="E387">
+        <v>16</v>
+      </c>
+      <c r="F387">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" t="str">
+        <v>85</v>
+      </c>
+      <c r="C388">
+        <v>4</v>
+      </c>
+      <c r="D388">
+        <v>5</v>
+      </c>
+      <c r="E388">
+        <v>3</v>
+      </c>
+      <c r="F388">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" t="str">
+        <v>85</v>
+      </c>
+      <c r="C389">
+        <v>5</v>
+      </c>
+      <c r="D389">
+        <v>4</v>
+      </c>
+      <c r="E389">
+        <v>2</v>
+      </c>
+      <c r="F389">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" t="str">
+        <v>86</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>16</v>
+      </c>
+      <c r="E390">
+        <v>28</v>
+      </c>
+      <c r="F390">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="str">
+        <v>86</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391">
+        <v>12</v>
+      </c>
+      <c r="E391">
+        <v>13</v>
+      </c>
+      <c r="F391">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" t="str">
+        <v>86</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+      <c r="D392">
+        <v>10</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" t="str">
+        <v>86</v>
+      </c>
+      <c r="C393">
+        <v>4</v>
+      </c>
+      <c r="D393">
+        <v>9</v>
+      </c>
+      <c r="E393">
+        <v>4</v>
+      </c>
+      <c r="F393">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="B394" t="str">
+        <v>86</v>
+      </c>
+      <c r="C394">
+        <v>5</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+      <c r="E394">
+        <v>10</v>
+      </c>
+      <c r="F394">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" t="str">
+        <v>87</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>61</v>
+      </c>
+      <c r="E395">
+        <v>180</v>
+      </c>
+      <c r="F395">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="B396" t="str">
+        <v>87</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>28</v>
+      </c>
+      <c r="E396">
+        <v>15</v>
+      </c>
+      <c r="F396">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="B397" t="str">
+        <v>87</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+      <c r="D397">
+        <v>5</v>
+      </c>
+      <c r="E397">
+        <v>2</v>
+      </c>
+      <c r="F397">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" t="str">
+        <v>87</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398">
+        <v>4</v>
+      </c>
+      <c r="E398">
+        <v>14</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" t="str">
+        <v>87</v>
+      </c>
+      <c r="C399">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>4</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="B400" t="str">
+        <v>88</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>52</v>
+      </c>
+      <c r="E400">
+        <v>182</v>
+      </c>
+      <c r="F400">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" t="str">
+        <v>88</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>18</v>
+      </c>
+      <c r="E401">
+        <v>9</v>
+      </c>
+      <c r="F401">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="B402" t="str">
+        <v>88</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>11</v>
+      </c>
+      <c r="E402">
+        <v>13</v>
+      </c>
+      <c r="F402">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" t="str">
+        <v>88</v>
+      </c>
+      <c r="C403">
+        <v>4</v>
+      </c>
+      <c r="D403">
+        <v>5</v>
+      </c>
+      <c r="E403">
+        <v>4</v>
+      </c>
+      <c r="F403">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" t="str">
+        <v>88</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+      <c r="D404">
+        <v>5</v>
+      </c>
+      <c r="E404">
+        <v>2</v>
+      </c>
+      <c r="F404">
+        <v>43.7</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H404"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -427,6 +427,12 @@
       <c r="F5">
         <v>10.6</v>
       </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
@@ -444,6 +450,12 @@
       <c r="F6">
         <v>11.1</v>
       </c>
+      <c r="G6">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="H6">
+        <v>104.71698113207547</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
@@ -461,6 +473,12 @@
       <c r="F7">
         <v>15</v>
       </c>
+      <c r="G7">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H7">
+        <v>141.50943396226415</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
@@ -478,6 +496,12 @@
       <c r="F8">
         <v>17.9</v>
       </c>
+      <c r="G8">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="H8">
+        <v>168.86792452830187</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
@@ -495,6 +519,12 @@
       <c r="F9">
         <v>12.8</v>
       </c>
+      <c r="G9">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="H9">
+        <v>120.75471698113208</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
@@ -512,6 +542,12 @@
       <c r="F10">
         <v>7.7</v>
       </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
@@ -529,6 +565,12 @@
       <c r="F11">
         <v>8.9</v>
       </c>
+      <c r="G11">
+        <v>6.219151036525172</v>
+      </c>
+      <c r="H11">
+        <v>115.58441558441558</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
@@ -546,6 +588,12 @@
       <c r="F12">
         <v>7.7</v>
       </c>
+      <c r="G12">
+        <v>5.923000987166831</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
@@ -563,6 +611,12 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>3.4550839091806513</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
@@ -580,6 +634,12 @@
       <c r="F14">
         <v>17.9</v>
       </c>
+      <c r="G14">
+        <v>2.566633761105627</v>
+      </c>
+      <c r="H14">
+        <v>232.46753246753244</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
@@ -597,6 +657,12 @@
       <c r="F15">
         <v>7.5</v>
       </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
@@ -614,6 +680,12 @@
       <c r="F16">
         <v>11.8</v>
       </c>
+      <c r="G16">
+        <v>63.116883116883116</v>
+      </c>
+      <c r="H16">
+        <v>157.33333333333334</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
@@ -631,6 +703,12 @@
       <c r="F17">
         <v>6.8</v>
       </c>
+      <c r="G17">
+        <v>12.987012987012987</v>
+      </c>
+      <c r="H17">
+        <v>90.66666666666667</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
@@ -648,6 +726,12 @@
       <c r="F18">
         <v>11.8</v>
       </c>
+      <c r="G18">
+        <v>10.12987012987013</v>
+      </c>
+      <c r="H18">
+        <v>157.33333333333334</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
@@ -665,6 +749,12 @@
       <c r="F19">
         <v>10.3</v>
       </c>
+      <c r="G19">
+        <v>9.61038961038961</v>
+      </c>
+      <c r="H19">
+        <v>137.33333333333334</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
@@ -682,6 +772,12 @@
       <c r="F20">
         <v>2.2</v>
       </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
@@ -699,6 +795,12 @@
       <c r="F21">
         <v>11.7</v>
       </c>
+      <c r="G21">
+        <v>24.673439767779392</v>
+      </c>
+      <c r="H21">
+        <v>531.8181818181818</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
@@ -716,6 +818,12 @@
       <c r="F22">
         <v>11.1</v>
       </c>
+      <c r="G22">
+        <v>7.547169811320755</v>
+      </c>
+      <c r="H22">
+        <v>504.5454545454545</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
@@ -733,6 +841,12 @@
       <c r="F23">
         <v>11.2</v>
       </c>
+      <c r="G23">
+        <v>3.918722786647315</v>
+      </c>
+      <c r="H23">
+        <v>509.09090909090907</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
@@ -750,6 +864,12 @@
       <c r="F24">
         <v>9.2</v>
       </c>
+      <c r="G24">
+        <v>2.0319303338171264</v>
+      </c>
+      <c r="H24">
+        <v>418.1818181818181</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
@@ -767,6 +887,12 @@
       <c r="F25">
         <v>12.7</v>
       </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="str">
@@ -784,6 +910,12 @@
       <c r="F26">
         <v>9.5</v>
       </c>
+      <c r="G26">
+        <v>21.035598705501616</v>
+      </c>
+      <c r="H26">
+        <v>74.80314960629921</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="str">
@@ -801,6 +933,12 @@
       <c r="F27">
         <v>13.6</v>
       </c>
+      <c r="G27">
+        <v>7.44336569579288</v>
+      </c>
+      <c r="H27">
+        <v>107.08661417322836</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
@@ -818,6 +956,12 @@
       <c r="F28">
         <v>11.9</v>
       </c>
+      <c r="G28">
+        <v>5.28586839266451</v>
+      </c>
+      <c r="H28">
+        <v>93.70078740157481</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="str">
@@ -835,6 +979,12 @@
       <c r="F29">
         <v>12.2</v>
       </c>
+      <c r="G29">
+        <v>3.559870550161812</v>
+      </c>
+      <c r="H29">
+        <v>96.06299212598425</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="str">
@@ -852,6 +1002,12 @@
       <c r="F30">
         <v>12</v>
       </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
@@ -869,6 +1025,12 @@
       <c r="F31">
         <v>5.6</v>
       </c>
+      <c r="G31">
+        <v>21.073170731707318</v>
+      </c>
+      <c r="H31">
+        <v>46.666666666666664</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
@@ -886,6 +1048,12 @@
       <c r="F32">
         <v>12.6</v>
       </c>
+      <c r="G32">
+        <v>18.634146341463413</v>
+      </c>
+      <c r="H32">
+        <v>105</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="str">
@@ -903,6 +1071,12 @@
       <c r="F33">
         <v>12.3</v>
       </c>
+      <c r="G33">
+        <v>6.829268292682927</v>
+      </c>
+      <c r="H33">
+        <v>102.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
@@ -920,6 +1094,12 @@
       <c r="F34">
         <v>8.5</v>
       </c>
+      <c r="G34">
+        <v>5.560975609756097</v>
+      </c>
+      <c r="H34">
+        <v>70.83333333333333</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
@@ -937,6 +1117,12 @@
       <c r="F35">
         <v>13.1</v>
       </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="str">
@@ -954,6 +1140,12 @@
       <c r="F36">
         <v>11.6</v>
       </c>
+      <c r="G36">
+        <v>17.4573055028463</v>
+      </c>
+      <c r="H36">
+        <v>88.54961832061069</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="str">
@@ -971,6 +1163,12 @@
       <c r="F37">
         <v>10.3</v>
       </c>
+      <c r="G37">
+        <v>12.903225806451612</v>
+      </c>
+      <c r="H37">
+        <v>78.62595419847328</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="str">
@@ -988,6 +1186,12 @@
       <c r="F38">
         <v>21.3</v>
       </c>
+      <c r="G38">
+        <v>4.933586337760911</v>
+      </c>
+      <c r="H38">
+        <v>162.59541984732826</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="str">
@@ -1005,6 +1209,12 @@
       <c r="F39">
         <v>10.8</v>
       </c>
+      <c r="G39">
+        <v>2.6565464895635675</v>
+      </c>
+      <c r="H39">
+        <v>82.44274809160305</v>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="str">
@@ -1022,6 +1232,12 @@
       <c r="F40">
         <v>7.9</v>
       </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="str">
@@ -1039,6 +1255,12 @@
       <c r="F41">
         <v>5.4</v>
       </c>
+      <c r="G41">
+        <v>99.86910994764398</v>
+      </c>
+      <c r="H41">
+        <v>68.35443037974683</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" t="str">
@@ -1056,6 +1278,12 @@
       <c r="F42">
         <v>6.5</v>
       </c>
+      <c r="G42">
+        <v>44.24083769633508</v>
+      </c>
+      <c r="H42">
+        <v>82.27848101265822</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="str">
@@ -1073,6 +1301,12 @@
       <c r="F43">
         <v>126.5</v>
       </c>
+      <c r="G43">
+        <v>26.701570680628272</v>
+      </c>
+      <c r="H43">
+        <v>1601.26582278481</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" t="str">
@@ -1090,6 +1324,12 @@
       <c r="F44">
         <v>6.7</v>
       </c>
+      <c r="G44">
+        <v>20.680628272251308</v>
+      </c>
+      <c r="H44">
+        <v>84.81012658227847</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="str">
@@ -1107,6 +1347,12 @@
       <c r="F45">
         <v>6.5</v>
       </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="str">
@@ -1124,6 +1370,12 @@
       <c r="F46">
         <v>5.8</v>
       </c>
+      <c r="G46">
+        <v>53.43434343434343</v>
+      </c>
+      <c r="H46">
+        <v>89.23076923076923</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" t="str">
@@ -1141,6 +1393,12 @@
       <c r="F47">
         <v>7</v>
       </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>107.6923076923077</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" t="str">
@@ -1158,6 +1416,12 @@
       <c r="F48">
         <v>5.8</v>
       </c>
+      <c r="G48">
+        <v>5.757575757575758</v>
+      </c>
+      <c r="H48">
+        <v>89.23076923076923</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="str">
@@ -1175,6 +1439,12 @@
       <c r="F49">
         <v>8.6</v>
       </c>
+      <c r="G49">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="H49">
+        <v>132.30769230769232</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="str">
@@ -1192,6 +1462,12 @@
       <c r="F50">
         <v>5.2</v>
       </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="str">
@@ -1209,6 +1485,12 @@
       <c r="F51">
         <v>6</v>
       </c>
+      <c r="G51">
+        <v>23.674911660777386</v>
+      </c>
+      <c r="H51">
+        <v>115.38461538461539</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" t="str">
@@ -1226,6 +1508,12 @@
       <c r="F52">
         <v>5.5</v>
       </c>
+      <c r="G52">
+        <v>21.554770318021202</v>
+      </c>
+      <c r="H52">
+        <v>105.76923076923076</v>
+      </c>
     </row>
     <row r="53">
       <c r="B53" t="str">
@@ -1243,6 +1531,12 @@
       <c r="F53">
         <v>8.1</v>
       </c>
+      <c r="G53">
+        <v>6.713780918727915</v>
+      </c>
+      <c r="H53">
+        <v>155.76923076923077</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" t="str">
@@ -1260,6 +1554,12 @@
       <c r="F54">
         <v>7.7</v>
       </c>
+      <c r="G54">
+        <v>6.18374558303887</v>
+      </c>
+      <c r="H54">
+        <v>148.07692307692307</v>
+      </c>
     </row>
     <row r="55">
       <c r="B55" t="str">
@@ -1277,6 +1577,12 @@
       <c r="F55">
         <v>11.8</v>
       </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" t="str">
@@ -1294,6 +1600,12 @@
       <c r="F56">
         <v>12.8</v>
       </c>
+      <c r="G56">
+        <v>30.192307692307693</v>
+      </c>
+      <c r="H56">
+        <v>108.47457627118644</v>
+      </c>
     </row>
     <row r="57">
       <c r="B57" t="str">
@@ -1311,6 +1623,12 @@
       <c r="F57">
         <v>11.8</v>
       </c>
+      <c r="G57">
+        <v>14.807692307692308</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
     </row>
     <row r="58">
       <c r="B58" t="str">
@@ -1328,6 +1646,12 @@
       <c r="F58">
         <v>10.7</v>
       </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>90.6779661016949</v>
+      </c>
     </row>
     <row r="59">
       <c r="B59" t="str">
@@ -1345,6 +1669,12 @@
       <c r="F59">
         <v>14.5</v>
       </c>
+      <c r="G59">
+        <v>4.038461538461538</v>
+      </c>
+      <c r="H59">
+        <v>122.88135593220338</v>
+      </c>
     </row>
     <row r="60">
       <c r="B60" t="str">
@@ -1362,6 +1692,12 @@
       <c r="F60">
         <v>13</v>
       </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
     </row>
     <row r="61">
       <c r="B61" t="str">
@@ -1379,6 +1715,12 @@
       <c r="F61">
         <v>11.3</v>
       </c>
+      <c r="G61">
+        <v>20.88724584103512</v>
+      </c>
+      <c r="H61">
+        <v>86.92307692307692</v>
+      </c>
     </row>
     <row r="62">
       <c r="B62" t="str">
@@ -1396,6 +1738,12 @@
       <c r="F62">
         <v>12.7</v>
       </c>
+      <c r="G62">
+        <v>12.199630314232902</v>
+      </c>
+      <c r="H62">
+        <v>97.6923076923077</v>
+      </c>
     </row>
     <row r="63">
       <c r="B63" t="str">
@@ -1413,6 +1761,12 @@
       <c r="F63">
         <v>18</v>
       </c>
+      <c r="G63">
+        <v>4.621072088724584</v>
+      </c>
+      <c r="H63">
+        <v>138.46153846153845</v>
+      </c>
     </row>
     <row r="64">
       <c r="B64" t="str">
@@ -1430,6 +1784,12 @@
       <c r="F64">
         <v>23.9</v>
       </c>
+      <c r="G64">
+        <v>3.512014787430684</v>
+      </c>
+      <c r="H64">
+        <v>183.84615384615384</v>
+      </c>
     </row>
     <row r="65">
       <c r="B65" t="str">
@@ -1447,6 +1807,12 @@
       <c r="F65">
         <v>10.6</v>
       </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
     </row>
     <row r="66">
       <c r="B66" t="str">
@@ -1464,6 +1830,12 @@
       <c r="F66">
         <v>18.3</v>
       </c>
+      <c r="G66">
+        <v>23.343373493975903</v>
+      </c>
+      <c r="H66">
+        <v>172.64150943396228</v>
+      </c>
     </row>
     <row r="67">
       <c r="B67" t="str">
@@ -1481,6 +1853,12 @@
       <c r="F67">
         <v>21.7</v>
       </c>
+      <c r="G67">
+        <v>12.349397590361447</v>
+      </c>
+      <c r="H67">
+        <v>204.7169811320755</v>
+      </c>
     </row>
     <row r="68">
       <c r="B68" t="str">
@@ -1498,6 +1876,12 @@
       <c r="F68">
         <v>7.1</v>
       </c>
+      <c r="G68">
+        <v>5.873493975903615</v>
+      </c>
+      <c r="H68">
+        <v>66.9811320754717</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" t="str">
@@ -1515,6 +1899,12 @@
       <c r="F69">
         <v>10</v>
       </c>
+      <c r="G69">
+        <v>4.367469879518072</v>
+      </c>
+      <c r="H69">
+        <v>94.33962264150944</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
@@ -1532,6 +1922,12 @@
       <c r="F70">
         <v>7.4</v>
       </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" t="str">
@@ -1549,6 +1945,12 @@
       <c r="F71">
         <v>6.9</v>
       </c>
+      <c r="G71">
+        <v>54.67032967032967</v>
+      </c>
+      <c r="H71">
+        <v>93.24324324324324</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" t="str">
@@ -1566,6 +1968,12 @@
       <c r="F72">
         <v>6.1</v>
       </c>
+      <c r="G72">
+        <v>33.79120879120879</v>
+      </c>
+      <c r="H72">
+        <v>82.43243243243244</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" t="str">
@@ -1583,6 +1991,12 @@
       <c r="F73">
         <v>9.4</v>
       </c>
+      <c r="G73">
+        <v>6.868131868131868</v>
+      </c>
+      <c r="H73">
+        <v>127.02702702702702</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" t="str">
@@ -1600,6 +2014,12 @@
       <c r="F74">
         <v>11.2</v>
       </c>
+      <c r="G74">
+        <v>4.395604395604396</v>
+      </c>
+      <c r="H74">
+        <v>151.35135135135135</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" t="str">
@@ -1617,6 +2037,12 @@
       <c r="F75">
         <v>5.7</v>
       </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
     </row>
     <row r="76">
       <c r="B76" t="str">
@@ -1634,6 +2060,12 @@
       <c r="F76">
         <v>5.2</v>
       </c>
+      <c r="G76">
+        <v>9.877488514548238</v>
+      </c>
+      <c r="H76">
+        <v>91.22807017543859</v>
+      </c>
     </row>
     <row r="77">
       <c r="B77" t="str">
@@ -1651,6 +2083,12 @@
       <c r="F77">
         <v>7.6</v>
       </c>
+      <c r="G77">
+        <v>5.359877488514548</v>
+      </c>
+      <c r="H77">
+        <v>133.33333333333334</v>
+      </c>
     </row>
     <row r="78">
       <c r="B78" t="str">
@@ -1668,6 +2106,12 @@
       <c r="F78">
         <v>5.6</v>
       </c>
+      <c r="G78">
+        <v>3.5222052067381315</v>
+      </c>
+      <c r="H78">
+        <v>98.24561403508771</v>
+      </c>
     </row>
     <row r="79">
       <c r="B79" t="str">
@@ -1685,6 +2129,12 @@
       <c r="F79">
         <v>24.4</v>
       </c>
+      <c r="G79">
+        <v>0.7656967840735069</v>
+      </c>
+      <c r="H79">
+        <v>428.0701754385965</v>
+      </c>
     </row>
     <row r="80">
       <c r="B80" t="str">
@@ -1702,6 +2152,12 @@
       <c r="F80">
         <v>7.4</v>
       </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" t="str">
@@ -1719,6 +2175,12 @@
       <c r="F81">
         <v>11.1</v>
       </c>
+      <c r="G81">
+        <v>24.84472049689441</v>
+      </c>
+      <c r="H81">
+        <v>150</v>
+      </c>
     </row>
     <row r="82">
       <c r="B82" t="str">
@@ -1736,6 +2198,12 @@
       <c r="F82">
         <v>8.4</v>
       </c>
+      <c r="G82">
+        <v>15.320910973084887</v>
+      </c>
+      <c r="H82">
+        <v>113.5135135135135</v>
+      </c>
     </row>
     <row r="83">
       <c r="B83" t="str">
@@ -1753,6 +2221,12 @@
       <c r="F83">
         <v>10.3</v>
       </c>
+      <c r="G83">
+        <v>6.625258799171843</v>
+      </c>
+      <c r="H83">
+        <v>139.1891891891892</v>
+      </c>
     </row>
     <row r="84">
       <c r="B84" t="str">
@@ -1770,6 +2244,12 @@
       <c r="F84">
         <v>6.5</v>
       </c>
+      <c r="G84">
+        <v>5.590062111801243</v>
+      </c>
+      <c r="H84">
+        <v>87.83783783783784</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" t="str">
@@ -1787,6 +2267,12 @@
       <c r="F85">
         <v>11.8</v>
       </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
     </row>
     <row r="86">
       <c r="B86" t="str">
@@ -1804,6 +2290,12 @@
       <c r="F86">
         <v>9.6</v>
       </c>
+      <c r="G86">
+        <v>9.491978609625669</v>
+      </c>
+      <c r="H86">
+        <v>81.35593220338983</v>
+      </c>
     </row>
     <row r="87">
       <c r="B87" t="str">
@@ -1821,6 +2313,12 @@
       <c r="F87">
         <v>13.9</v>
       </c>
+      <c r="G87">
+        <v>8.02139037433155</v>
+      </c>
+      <c r="H87">
+        <v>117.79661016949152</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" t="str">
@@ -1838,6 +2336,12 @@
       <c r="F88">
         <v>12.9</v>
       </c>
+      <c r="G88">
+        <v>4.81283422459893</v>
+      </c>
+      <c r="H88">
+        <v>109.32203389830508</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" t="str">
@@ -1855,6 +2359,12 @@
       <c r="F89">
         <v>17.2</v>
       </c>
+      <c r="G89">
+        <v>1.2032085561497325</v>
+      </c>
+      <c r="H89">
+        <v>145.76271186440678</v>
+      </c>
     </row>
     <row r="90">
       <c r="B90" t="str">
@@ -1872,6 +2382,12 @@
       <c r="F90">
         <v>18.1</v>
       </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
     </row>
     <row r="91">
       <c r="B91" t="str">
@@ -1889,6 +2405,12 @@
       <c r="F91">
         <v>15.3</v>
       </c>
+      <c r="G91">
+        <v>23.716381418092908</v>
+      </c>
+      <c r="H91">
+        <v>84.53038674033148</v>
+      </c>
     </row>
     <row r="92">
       <c r="B92" t="str">
@@ -1906,6 +2428,12 @@
       <c r="F92">
         <v>14.2</v>
       </c>
+      <c r="G92">
+        <v>19.070904645476773</v>
+      </c>
+      <c r="H92">
+        <v>78.45303867403314</v>
+      </c>
     </row>
     <row r="93">
       <c r="B93" t="str">
@@ -1923,6 +2451,12 @@
       <c r="F93">
         <v>14.6</v>
       </c>
+      <c r="G93">
+        <v>4.88997555012225</v>
+      </c>
+      <c r="H93">
+        <v>80.66298342541435</v>
+      </c>
     </row>
     <row r="94">
       <c r="B94" t="str">
@@ -1940,6 +2474,12 @@
       <c r="F94">
         <v>13.5</v>
       </c>
+      <c r="G94">
+        <v>3.9119804400977993</v>
+      </c>
+      <c r="H94">
+        <v>74.58563535911601</v>
+      </c>
     </row>
     <row r="95">
       <c r="B95" t="str">
@@ -1957,6 +2497,12 @@
       <c r="F95">
         <v>8.7</v>
       </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
     </row>
     <row r="96">
       <c r="B96" t="str">
@@ -1974,6 +2520,12 @@
       <c r="F96">
         <v>8.3</v>
       </c>
+      <c r="G96">
+        <v>51.785714285714285</v>
+      </c>
+      <c r="H96">
+        <v>95.40229885057474</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" t="str">
@@ -1991,6 +2543,12 @@
       <c r="F97">
         <v>16.5</v>
       </c>
+      <c r="G97">
+        <v>9.226190476190476</v>
+      </c>
+      <c r="H97">
+        <v>189.6551724137931</v>
+      </c>
     </row>
     <row r="98">
       <c r="B98" t="str">
@@ -2008,6 +2566,12 @@
       <c r="F98">
         <v>11.8</v>
       </c>
+      <c r="G98">
+        <v>7.142857142857143</v>
+      </c>
+      <c r="H98">
+        <v>135.632183908046</v>
+      </c>
     </row>
     <row r="99">
       <c r="B99" t="str">
@@ -2025,6 +2589,12 @@
       <c r="F99">
         <v>8.2</v>
       </c>
+      <c r="G99">
+        <v>4.464285714285714</v>
+      </c>
+      <c r="H99">
+        <v>94.25287356321839</v>
+      </c>
     </row>
     <row r="100">
       <c r="B100" t="str">
@@ -2042,6 +2612,12 @@
       <c r="F100">
         <v>11.8</v>
       </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
     </row>
     <row r="101">
       <c r="B101" t="str">
@@ -2059,6 +2635,12 @@
       <c r="F101">
         <v>5</v>
       </c>
+      <c r="G101">
+        <v>21.409921671018278</v>
+      </c>
+      <c r="H101">
+        <v>42.3728813559322</v>
+      </c>
     </row>
     <row r="102">
       <c r="B102" t="str">
@@ -2076,6 +2658,12 @@
       <c r="F102">
         <v>12.5</v>
       </c>
+      <c r="G102">
+        <v>14.099216710182768</v>
+      </c>
+      <c r="H102">
+        <v>105.9322033898305</v>
+      </c>
     </row>
     <row r="103">
       <c r="B103" t="str">
@@ -2093,6 +2681,12 @@
       <c r="F103">
         <v>16.5</v>
       </c>
+      <c r="G103">
+        <v>6.005221932114883</v>
+      </c>
+      <c r="H103">
+        <v>139.83050847457628</v>
+      </c>
     </row>
     <row r="104">
       <c r="B104" t="str">
@@ -2110,6 +2704,12 @@
       <c r="F104">
         <v>13.4</v>
       </c>
+      <c r="G104">
+        <v>3.91644908616188</v>
+      </c>
+      <c r="H104">
+        <v>113.5593220338983</v>
+      </c>
     </row>
     <row r="105">
       <c r="B105" t="str">
@@ -2127,6 +2727,12 @@
       <c r="F105">
         <v>6</v>
       </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
     </row>
     <row r="106">
       <c r="B106" t="str">
@@ -2144,6 +2750,12 @@
       <c r="F106">
         <v>9.4</v>
       </c>
+      <c r="G106">
+        <v>15.954773869346734</v>
+      </c>
+      <c r="H106">
+        <v>156.66666666666666</v>
+      </c>
     </row>
     <row r="107">
       <c r="B107" t="str">
@@ -2161,6 +2773,12 @@
       <c r="F107">
         <v>5</v>
       </c>
+      <c r="G107">
+        <v>11.4321608040201</v>
+      </c>
+      <c r="H107">
+        <v>83.33333333333333</v>
+      </c>
     </row>
     <row r="108">
       <c r="B108" t="str">
@@ -2178,6 +2796,12 @@
       <c r="F108">
         <v>7.6</v>
       </c>
+      <c r="G108">
+        <v>4.773869346733668</v>
+      </c>
+      <c r="H108">
+        <v>126.66666666666667</v>
+      </c>
     </row>
     <row r="109">
       <c r="B109" t="str">
@@ -2195,6 +2819,12 @@
       <c r="F109">
         <v>6.7</v>
       </c>
+      <c r="G109">
+        <v>4.396984924623116</v>
+      </c>
+      <c r="H109">
+        <v>111.66666666666667</v>
+      </c>
     </row>
     <row r="110">
       <c r="B110" t="str">
@@ -2212,6 +2842,12 @@
       <c r="F110">
         <v>4.8</v>
       </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
     </row>
     <row r="111">
       <c r="B111" t="str">
@@ -2229,6 +2865,12 @@
       <c r="F111">
         <v>6.1</v>
       </c>
+      <c r="G111">
+        <v>7.387387387387387</v>
+      </c>
+      <c r="H111">
+        <v>127.08333333333334</v>
+      </c>
     </row>
     <row r="112">
       <c r="B112" t="str">
@@ -2246,6 +2888,12 @@
       <c r="F112">
         <v>0</v>
       </c>
+      <c r="G112">
+        <v>7.207207207207207</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="B113" t="str">
@@ -2263,6 +2911,12 @@
       <c r="F113">
         <v>4.8</v>
       </c>
+      <c r="G113">
+        <v>2.5825825825825826</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
     </row>
     <row r="114">
       <c r="B114" t="str">
@@ -2280,6 +2934,12 @@
       <c r="F114">
         <v>9.8</v>
       </c>
+      <c r="G114">
+        <v>2.3423423423423424</v>
+      </c>
+      <c r="H114">
+        <v>204.16666666666669</v>
+      </c>
     </row>
     <row r="115">
       <c r="B115" t="str">
@@ -2297,6 +2957,12 @@
       <c r="F115">
         <v>8.1</v>
       </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
     </row>
     <row r="116">
       <c r="B116" t="str">
@@ -2314,6 +2980,12 @@
       <c r="F116">
         <v>10.7</v>
       </c>
+      <c r="G116">
+        <v>31.645569620253166</v>
+      </c>
+      <c r="H116">
+        <v>132.09876543209876</v>
+      </c>
     </row>
     <row r="117">
       <c r="B117" t="str">
@@ -2331,6 +3003,12 @@
       <c r="F117">
         <v>8.1</v>
       </c>
+      <c r="G117">
+        <v>23.417721518987342</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
     </row>
     <row r="118">
       <c r="B118" t="str">
@@ -2348,6 +3026,12 @@
       <c r="F118">
         <v>8.8</v>
       </c>
+      <c r="G118">
+        <v>20.569620253164558</v>
+      </c>
+      <c r="H118">
+        <v>108.64197530864199</v>
+      </c>
     </row>
     <row r="119">
       <c r="B119" t="str">
@@ -2365,6 +3049,12 @@
       <c r="F119">
         <v>14.8</v>
       </c>
+      <c r="G119">
+        <v>15.189873417721518</v>
+      </c>
+      <c r="H119">
+        <v>182.71604938271605</v>
+      </c>
     </row>
     <row r="120">
       <c r="B120" t="str">
@@ -2382,6 +3072,12 @@
       <c r="F120">
         <v>7.5</v>
       </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120">
+        <v>100</v>
+      </c>
     </row>
     <row r="121">
       <c r="B121" t="str">
@@ -2399,6 +3095,12 @@
       <c r="F121">
         <v>5.6</v>
       </c>
+      <c r="G121">
+        <v>67.37588652482269</v>
+      </c>
+      <c r="H121">
+        <v>74.66666666666667</v>
+      </c>
     </row>
     <row r="122">
       <c r="B122" t="str">
@@ -2416,6 +3118,12 @@
       <c r="F122">
         <v>6.1</v>
       </c>
+      <c r="G122">
+        <v>10.99290780141844</v>
+      </c>
+      <c r="H122">
+        <v>81.33333333333333</v>
+      </c>
     </row>
     <row r="123">
       <c r="B123" t="str">
@@ -2433,6 +3141,12 @@
       <c r="F123">
         <v>7.1</v>
       </c>
+      <c r="G123">
+        <v>9.042553191489361</v>
+      </c>
+      <c r="H123">
+        <v>94.66666666666667</v>
+      </c>
     </row>
     <row r="124">
       <c r="B124" t="str">
@@ -2450,6 +3164,12 @@
       <c r="F124">
         <v>7</v>
       </c>
+      <c r="G124">
+        <v>7.2695035460992905</v>
+      </c>
+      <c r="H124">
+        <v>93.33333333333333</v>
+      </c>
     </row>
     <row r="125">
       <c r="B125" t="str">
@@ -2467,6 +3187,12 @@
       <c r="F125">
         <v>6.4</v>
       </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+      <c r="H125">
+        <v>100</v>
+      </c>
     </row>
     <row r="126">
       <c r="B126" t="str">
@@ -2484,6 +3210,12 @@
       <c r="F126">
         <v>7.9</v>
       </c>
+      <c r="G126">
+        <v>28.29787234042553</v>
+      </c>
+      <c r="H126">
+        <v>123.4375</v>
+      </c>
     </row>
     <row r="127">
       <c r="B127" t="str">
@@ -2501,6 +3233,12 @@
       <c r="F127">
         <v>3.9</v>
       </c>
+      <c r="G127">
+        <v>18.72340425531915</v>
+      </c>
+      <c r="H127">
+        <v>60.9375</v>
+      </c>
     </row>
     <row r="128">
       <c r="B128" t="str">
@@ -2518,6 +3256,12 @@
       <c r="F128">
         <v>8.4</v>
       </c>
+      <c r="G128">
+        <v>11.27659574468085</v>
+      </c>
+      <c r="H128">
+        <v>131.25</v>
+      </c>
     </row>
     <row r="129">
       <c r="B129" t="str">
@@ -2535,6 +3279,12 @@
       <c r="F129">
         <v>8.1</v>
       </c>
+      <c r="G129">
+        <v>4.680851063829787</v>
+      </c>
+      <c r="H129">
+        <v>126.5625</v>
+      </c>
     </row>
     <row r="130">
       <c r="B130" t="str">
@@ -2552,6 +3302,12 @@
       <c r="F130">
         <v>3.2</v>
       </c>
+      <c r="G130">
+        <v>100</v>
+      </c>
+      <c r="H130">
+        <v>100</v>
+      </c>
     </row>
     <row r="131">
       <c r="B131" t="str">
@@ -2569,6 +3325,12 @@
       <c r="F131">
         <v>3.9</v>
       </c>
+      <c r="G131">
+        <v>25.358490566037737</v>
+      </c>
+      <c r="H131">
+        <v>121.875</v>
+      </c>
     </row>
     <row r="132">
       <c r="B132" t="str">
@@ -2586,6 +3348,12 @@
       <c r="F132">
         <v>4.1</v>
       </c>
+      <c r="G132">
+        <v>14.11320754716981</v>
+      </c>
+      <c r="H132">
+        <v>128.12499999999997</v>
+      </c>
     </row>
     <row r="133">
       <c r="B133" t="str">
@@ -2603,6 +3371,12 @@
       <c r="F133">
         <v>3.1</v>
       </c>
+      <c r="G133">
+        <v>3.4716981132075473</v>
+      </c>
+      <c r="H133">
+        <v>96.875</v>
+      </c>
     </row>
     <row r="134">
       <c r="B134" t="str">
@@ -2620,6 +3394,12 @@
       <c r="F134">
         <v>5.7</v>
       </c>
+      <c r="G134">
+        <v>1.7358490566037736</v>
+      </c>
+      <c r="H134">
+        <v>178.125</v>
+      </c>
     </row>
     <row r="135">
       <c r="B135" t="str">
@@ -2637,6 +3417,12 @@
       <c r="F135">
         <v>8.4</v>
       </c>
+      <c r="G135">
+        <v>100</v>
+      </c>
+      <c r="H135">
+        <v>100</v>
+      </c>
     </row>
     <row r="136">
       <c r="B136" t="str">
@@ -2654,6 +3440,12 @@
       <c r="F136">
         <v>7.2</v>
       </c>
+      <c r="G136">
+        <v>9.956709956709958</v>
+      </c>
+      <c r="H136">
+        <v>85.71428571428571</v>
+      </c>
     </row>
     <row r="137">
       <c r="B137" t="str">
@@ -2671,6 +3463,12 @@
       <c r="F137">
         <v>8.5</v>
       </c>
+      <c r="G137">
+        <v>7.575757575757576</v>
+      </c>
+      <c r="H137">
+        <v>101.19047619047619</v>
+      </c>
     </row>
     <row r="138">
       <c r="B138" t="str">
@@ -2688,6 +3486,12 @@
       <c r="F138">
         <v>8.4</v>
       </c>
+      <c r="G138">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="H138">
+        <v>100</v>
+      </c>
     </row>
     <row r="139">
       <c r="B139" t="str">
@@ -2705,6 +3509,12 @@
       <c r="F139">
         <v>6</v>
       </c>
+      <c r="G139">
+        <v>1.948051948051948</v>
+      </c>
+      <c r="H139">
+        <v>71.42857142857143</v>
+      </c>
     </row>
     <row r="140">
       <c r="B140" t="str">
@@ -2722,6 +3532,12 @@
       <c r="F140">
         <v>11.3</v>
       </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140">
+        <v>100</v>
+      </c>
     </row>
     <row r="141">
       <c r="B141" t="str">
@@ -2739,6 +3555,12 @@
       <c r="F141">
         <v>12.6</v>
       </c>
+      <c r="G141">
+        <v>19.167904903417533</v>
+      </c>
+      <c r="H141">
+        <v>111.50442477876105</v>
+      </c>
     </row>
     <row r="142">
       <c r="B142" t="str">
@@ -2756,6 +3578,12 @@
       <c r="F142">
         <v>12.7</v>
       </c>
+      <c r="G142">
+        <v>10.846953937592868</v>
+      </c>
+      <c r="H142">
+        <v>112.38938053097344</v>
+      </c>
     </row>
     <row r="143">
       <c r="B143" t="str">
@@ -2773,6 +3601,12 @@
       <c r="F143">
         <v>10.2</v>
       </c>
+      <c r="G143">
+        <v>7.280832095096582</v>
+      </c>
+      <c r="H143">
+        <v>90.2654867256637</v>
+      </c>
     </row>
     <row r="144">
       <c r="B144" t="str">
@@ -2790,6 +3624,12 @@
       <c r="F144">
         <v>14</v>
       </c>
+      <c r="G144">
+        <v>4.3090638930163445</v>
+      </c>
+      <c r="H144">
+        <v>123.8938053097345</v>
+      </c>
     </row>
     <row r="145">
       <c r="B145" t="str">
@@ -2807,6 +3647,12 @@
       <c r="F145">
         <v>7.7</v>
       </c>
+      <c r="G145">
+        <v>100</v>
+      </c>
+      <c r="H145">
+        <v>100</v>
+      </c>
     </row>
     <row r="146">
       <c r="B146" t="str">
@@ -2824,6 +3670,12 @@
       <c r="F146">
         <v>7.6</v>
       </c>
+      <c r="G146">
+        <v>70.33248081841433</v>
+      </c>
+      <c r="H146">
+        <v>98.7012987012987</v>
+      </c>
     </row>
     <row r="147">
       <c r="B147" t="str">
@@ -2841,6 +3693,12 @@
       <c r="F147">
         <v>8</v>
       </c>
+      <c r="G147">
+        <v>34.271099744245525</v>
+      </c>
+      <c r="H147">
+        <v>103.8961038961039</v>
+      </c>
     </row>
     <row r="148">
       <c r="B148" t="str">
@@ -2858,6 +3716,12 @@
       <c r="F148">
         <v>8</v>
       </c>
+      <c r="G148">
+        <v>18.15856777493606</v>
+      </c>
+      <c r="H148">
+        <v>103.8961038961039</v>
+      </c>
     </row>
     <row r="149">
       <c r="B149" t="str">
@@ -2875,6 +3739,12 @@
       <c r="F149">
         <v>8</v>
       </c>
+      <c r="G149">
+        <v>8.951406649616368</v>
+      </c>
+      <c r="H149">
+        <v>103.8961038961039</v>
+      </c>
     </row>
     <row r="150">
       <c r="B150" t="str">
@@ -2892,6 +3762,12 @@
       <c r="F150">
         <v>10.2</v>
       </c>
+      <c r="G150">
+        <v>100</v>
+      </c>
+      <c r="H150">
+        <v>100</v>
+      </c>
     </row>
     <row r="151">
       <c r="B151" t="str">
@@ -2909,6 +3785,12 @@
       <c r="F151">
         <v>12</v>
       </c>
+      <c r="G151">
+        <v>26.34508348794063</v>
+      </c>
+      <c r="H151">
+        <v>117.64705882352942</v>
+      </c>
     </row>
     <row r="152">
       <c r="B152" t="str">
@@ -2926,6 +3808,12 @@
       <c r="F152">
         <v>7.7</v>
       </c>
+      <c r="G152">
+        <v>12.059369202226344</v>
+      </c>
+      <c r="H152">
+        <v>75.49019607843138</v>
+      </c>
     </row>
     <row r="153">
       <c r="B153" t="str">
@@ -2943,6 +3831,12 @@
       <c r="F153">
         <v>6.6</v>
       </c>
+      <c r="G153">
+        <v>10.575139146567718</v>
+      </c>
+      <c r="H153">
+        <v>64.70588235294117</v>
+      </c>
     </row>
     <row r="154">
       <c r="B154" t="str">
@@ -2960,6 +3854,12 @@
       <c r="F154">
         <v>7.2</v>
       </c>
+      <c r="G154">
+        <v>4.452690166975882</v>
+      </c>
+      <c r="H154">
+        <v>70.58823529411765</v>
+      </c>
     </row>
     <row r="155">
       <c r="B155" t="str">
@@ -2977,6 +3877,12 @@
       <c r="F155">
         <v>0</v>
       </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="B156" t="str">
@@ -2994,6 +3900,12 @@
       <c r="F156">
         <v>0</v>
       </c>
+      <c r="G156">
+        <v>21.566731141199227</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="B157" t="str">
@@ -3011,6 +3923,12 @@
       <c r="F157">
         <v>0</v>
       </c>
+      <c r="G157">
+        <v>11.218568665377177</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="B158" t="str">
@@ -3028,6 +3946,12 @@
       <c r="F158">
         <v>5.3</v>
       </c>
+      <c r="G158">
+        <v>9.18762088974855</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="B159" t="str">
@@ -3045,6 +3969,12 @@
       <c r="F159">
         <v>0</v>
       </c>
+      <c r="G159">
+        <v>2.4177949709864603</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="B160" t="str">
@@ -3062,6 +3992,12 @@
       <c r="F160">
         <v>5.7</v>
       </c>
+      <c r="G160">
+        <v>100</v>
+      </c>
+      <c r="H160">
+        <v>100</v>
+      </c>
     </row>
     <row r="161">
       <c r="B161" t="str">
@@ -3079,6 +4015,12 @@
       <c r="F161">
         <v>6.7</v>
       </c>
+      <c r="G161">
+        <v>53.099173553719005</v>
+      </c>
+      <c r="H161">
+        <v>117.54385964912281</v>
+      </c>
     </row>
     <row r="162">
       <c r="B162" t="str">
@@ -3096,6 +4038,12 @@
       <c r="F162">
         <v>6.4</v>
       </c>
+      <c r="G162">
+        <v>11.363636363636363</v>
+      </c>
+      <c r="H162">
+        <v>112.28070175438596</v>
+      </c>
     </row>
     <row r="163">
       <c r="B163" t="str">
@@ -3113,6 +4061,12 @@
       <c r="F163">
         <v>12.9</v>
       </c>
+      <c r="G163">
+        <v>9.297520661157025</v>
+      </c>
+      <c r="H163">
+        <v>226.3157894736842</v>
+      </c>
     </row>
     <row r="164">
       <c r="B164" t="str">
@@ -3130,6 +4084,12 @@
       <c r="F164">
         <v>7.5</v>
       </c>
+      <c r="G164">
+        <v>5.991735537190083</v>
+      </c>
+      <c r="H164">
+        <v>131.57894736842104</v>
+      </c>
     </row>
     <row r="165">
       <c r="B165" t="str">
@@ -3147,6 +4107,12 @@
       <c r="F165">
         <v>4.4</v>
       </c>
+      <c r="G165">
+        <v>100</v>
+      </c>
+      <c r="H165">
+        <v>100</v>
+      </c>
     </row>
     <row r="166">
       <c r="B166" t="str">
@@ -3164,6 +4130,12 @@
       <c r="F166">
         <v>5.3</v>
       </c>
+      <c r="G166">
+        <v>63.16568047337278</v>
+      </c>
+      <c r="H166">
+        <v>120.45454545454544</v>
+      </c>
     </row>
     <row r="167">
       <c r="B167" t="str">
@@ -3181,6 +4153,12 @@
       <c r="F167">
         <v>6.3</v>
       </c>
+      <c r="G167">
+        <v>23.668639053254438</v>
+      </c>
+      <c r="H167">
+        <v>143.18181818181816</v>
+      </c>
     </row>
     <row r="168">
       <c r="B168" t="str">
@@ -3198,6 +4176,12 @@
       <c r="F168">
         <v>2.9</v>
       </c>
+      <c r="G168">
+        <v>21.301775147928993</v>
+      </c>
+      <c r="H168">
+        <v>65.9090909090909</v>
+      </c>
     </row>
     <row r="169">
       <c r="B169" t="str">
@@ -3215,6 +4199,12 @@
       <c r="F169">
         <v>5.2</v>
       </c>
+      <c r="G169">
+        <v>14.497041420118343</v>
+      </c>
+      <c r="H169">
+        <v>118.18181818181817</v>
+      </c>
     </row>
     <row r="170">
       <c r="B170" t="str">
@@ -3232,6 +4222,12 @@
       <c r="F170">
         <v>4.7</v>
       </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+      <c r="H170">
+        <v>100</v>
+      </c>
     </row>
     <row r="171">
       <c r="B171" t="str">
@@ -3249,6 +4245,12 @@
       <c r="F171">
         <v>3.3</v>
       </c>
+      <c r="G171">
+        <v>81.26361655773421</v>
+      </c>
+      <c r="H171">
+        <v>70.2127659574468</v>
+      </c>
     </row>
     <row r="172">
       <c r="B172" t="str">
@@ -3266,6 +4268,12 @@
       <c r="F172">
         <v>10.6</v>
       </c>
+      <c r="G172">
+        <v>35.947712418300654</v>
+      </c>
+      <c r="H172">
+        <v>225.531914893617</v>
+      </c>
     </row>
     <row r="173">
       <c r="B173" t="str">
@@ -3283,6 +4291,12 @@
       <c r="F173">
         <v>5</v>
       </c>
+      <c r="G173">
+        <v>9.368191721132897</v>
+      </c>
+      <c r="H173">
+        <v>106.38297872340425</v>
+      </c>
     </row>
     <row r="174">
       <c r="B174" t="str">
@@ -3300,6 +4314,12 @@
       <c r="F174">
         <v>9.6</v>
       </c>
+      <c r="G174">
+        <v>8.278867102396514</v>
+      </c>
+      <c r="H174">
+        <v>204.25531914893617</v>
+      </c>
     </row>
     <row r="175">
       <c r="B175" t="str">
@@ -3317,6 +4337,12 @@
       <c r="F175">
         <v>5.9</v>
       </c>
+      <c r="G175">
+        <v>100</v>
+      </c>
+      <c r="H175">
+        <v>100</v>
+      </c>
     </row>
     <row r="176">
       <c r="B176" t="str">
@@ -3334,6 +4360,12 @@
       <c r="F176">
         <v>10.2</v>
       </c>
+      <c r="G176">
+        <v>22.374429223744293</v>
+      </c>
+      <c r="H176">
+        <v>172.88135593220335</v>
+      </c>
     </row>
     <row r="177">
       <c r="B177" t="str">
@@ -3351,6 +4383,12 @@
       <c r="F177">
         <v>4</v>
       </c>
+      <c r="G177">
+        <v>21.765601217656013</v>
+      </c>
+      <c r="H177">
+        <v>67.79661016949152</v>
+      </c>
     </row>
     <row r="178">
       <c r="B178" t="str">
@@ -3368,6 +4406,12 @@
       <c r="F178">
         <v>7.9</v>
       </c>
+      <c r="G178">
+        <v>8.980213089802131</v>
+      </c>
+      <c r="H178">
+        <v>133.89830508474574</v>
+      </c>
     </row>
     <row r="179">
       <c r="B179" t="str">
@@ -3385,6 +4429,12 @@
       <c r="F179">
         <v>7.7</v>
       </c>
+      <c r="G179">
+        <v>8.219178082191782</v>
+      </c>
+      <c r="H179">
+        <v>130.50847457627117</v>
+      </c>
     </row>
     <row r="180">
       <c r="B180" t="str">
@@ -3402,6 +4452,12 @@
       <c r="F180">
         <v>5.3</v>
       </c>
+      <c r="G180">
+        <v>100</v>
+      </c>
+      <c r="H180">
+        <v>100</v>
+      </c>
     </row>
     <row r="181">
       <c r="B181" t="str">
@@ -3419,6 +4475,12 @@
       <c r="F181">
         <v>6.1</v>
       </c>
+      <c r="G181">
+        <v>34.28165007112376</v>
+      </c>
+      <c r="H181">
+        <v>115.09433962264151</v>
+      </c>
     </row>
     <row r="182">
       <c r="B182" t="str">
@@ -3436,6 +4498,12 @@
       <c r="F182">
         <v>9.3</v>
       </c>
+      <c r="G182">
+        <v>10.81081081081081</v>
+      </c>
+      <c r="H182">
+        <v>175.47169811320757</v>
+      </c>
     </row>
     <row r="183">
       <c r="B183" t="str">
@@ -3453,6 +4521,12 @@
       <c r="F183">
         <v>6</v>
       </c>
+      <c r="G183">
+        <v>9.95732574679943</v>
+      </c>
+      <c r="H183">
+        <v>113.20754716981132</v>
+      </c>
     </row>
     <row r="184">
       <c r="B184" t="str">
@@ -3470,6 +4544,12 @@
       <c r="F184">
         <v>10.6</v>
       </c>
+      <c r="G184">
+        <v>8.534850640113797</v>
+      </c>
+      <c r="H184">
+        <v>200</v>
+      </c>
     </row>
     <row r="185">
       <c r="B185" t="str">
@@ -3487,6 +4567,12 @@
       <c r="F185">
         <v>6.8</v>
       </c>
+      <c r="G185">
+        <v>100</v>
+      </c>
+      <c r="H185">
+        <v>100</v>
+      </c>
     </row>
     <row r="186">
       <c r="B186" t="str">
@@ -3504,6 +4590,12 @@
       <c r="F186">
         <v>4.9</v>
       </c>
+      <c r="G186">
+        <v>28.17824377457405</v>
+      </c>
+      <c r="H186">
+        <v>72.05882352941177</v>
+      </c>
     </row>
     <row r="187">
       <c r="B187" t="str">
@@ -3521,6 +4613,12 @@
       <c r="F187">
         <v>4.9</v>
       </c>
+      <c r="G187">
+        <v>17.03800786369594</v>
+      </c>
+      <c r="H187">
+        <v>72.05882352941177</v>
+      </c>
     </row>
     <row r="188">
       <c r="B188" t="str">
@@ -3538,6 +4636,12 @@
       <c r="F188">
         <v>7</v>
       </c>
+      <c r="G188">
+        <v>8.91218872870249</v>
+      </c>
+      <c r="H188">
+        <v>102.94117647058823</v>
+      </c>
     </row>
     <row r="189">
       <c r="B189" t="str">
@@ -3555,6 +4659,12 @@
       <c r="F189">
         <v>0</v>
       </c>
+      <c r="G189">
+        <v>7.863695937090433</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="B190" t="str">
@@ -3572,6 +4682,12 @@
       <c r="F190">
         <v>5</v>
       </c>
+      <c r="G190">
+        <v>100</v>
+      </c>
+      <c r="H190">
+        <v>100</v>
+      </c>
     </row>
     <row r="191">
       <c r="B191" t="str">
@@ -3589,6 +4705,12 @@
       <c r="F191">
         <v>4.9</v>
       </c>
+      <c r="G191">
+        <v>96.63608562691131</v>
+      </c>
+      <c r="H191">
+        <v>98.00000000000001</v>
+      </c>
     </row>
     <row r="192">
       <c r="B192" t="str">
@@ -3606,6 +4728,12 @@
       <c r="F192">
         <v>9.3</v>
       </c>
+      <c r="G192">
+        <v>14.37308868501529</v>
+      </c>
+      <c r="H192">
+        <v>186.00000000000003</v>
+      </c>
     </row>
     <row r="193">
       <c r="B193" t="str">
@@ -3623,6 +4751,12 @@
       <c r="F193">
         <v>8.5</v>
       </c>
+      <c r="G193">
+        <v>8.868501529051988</v>
+      </c>
+      <c r="H193">
+        <v>170</v>
+      </c>
     </row>
     <row r="194">
       <c r="B194" t="str">
@@ -3640,6 +4774,12 @@
       <c r="F194">
         <v>4.9</v>
       </c>
+      <c r="G194">
+        <v>8.562691131498472</v>
+      </c>
+      <c r="H194">
+        <v>98.00000000000001</v>
+      </c>
     </row>
     <row r="195">
       <c r="B195" t="str">
@@ -3657,6 +4797,12 @@
       <c r="F195">
         <v>5.8</v>
       </c>
+      <c r="G195">
+        <v>100</v>
+      </c>
+      <c r="H195">
+        <v>100</v>
+      </c>
     </row>
     <row r="196">
       <c r="B196" t="str">
@@ -3674,6 +4820,12 @@
       <c r="F196">
         <v>7</v>
       </c>
+      <c r="G196">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="H196">
+        <v>120.6896551724138</v>
+      </c>
     </row>
     <row r="197">
       <c r="B197" t="str">
@@ -3691,6 +4843,12 @@
       <c r="F197">
         <v>4.1</v>
       </c>
+      <c r="G197">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="H197">
+        <v>70.68965517241378</v>
+      </c>
     </row>
     <row r="198">
       <c r="B198" t="str">
@@ -3708,6 +4866,12 @@
       <c r="F198">
         <v>14.5</v>
       </c>
+      <c r="G198">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="H198">
+        <v>250</v>
+      </c>
     </row>
     <row r="199">
       <c r="B199" t="str">
@@ -3725,6 +4889,12 @@
       <c r="F199">
         <v>4.3</v>
       </c>
+      <c r="G199">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="H199">
+        <v>74.13793103448276</v>
+      </c>
     </row>
     <row r="200">
       <c r="B200" t="str">
@@ -3742,6 +4912,12 @@
       <c r="F200">
         <v>4.4</v>
       </c>
+      <c r="G200">
+        <v>100</v>
+      </c>
+      <c r="H200">
+        <v>100</v>
+      </c>
     </row>
     <row r="201">
       <c r="B201" t="str">
@@ -3759,6 +4935,12 @@
       <c r="F201">
         <v>5.7</v>
       </c>
+      <c r="G201">
+        <v>26.013513513513512</v>
+      </c>
+      <c r="H201">
+        <v>129.54545454545453</v>
+      </c>
     </row>
     <row r="202">
       <c r="B202" t="str">
@@ -3776,6 +4958,12 @@
       <c r="F202">
         <v>9.9</v>
       </c>
+      <c r="G202">
+        <v>5.236486486486487</v>
+      </c>
+      <c r="H202">
+        <v>224.99999999999997</v>
+      </c>
     </row>
     <row r="203">
       <c r="B203" t="str">
@@ -3793,6 +4981,12 @@
       <c r="F203">
         <v>4.7</v>
       </c>
+      <c r="G203">
+        <v>3.3783783783783785</v>
+      </c>
+      <c r="H203">
+        <v>106.81818181818181</v>
+      </c>
     </row>
     <row r="204">
       <c r="B204" t="str">
@@ -3810,6 +5004,12 @@
       <c r="F204">
         <v>8.5</v>
       </c>
+      <c r="G204">
+        <v>2.364864864864865</v>
+      </c>
+      <c r="H204">
+        <v>193.18181818181816</v>
+      </c>
     </row>
     <row r="205">
       <c r="B205" t="str">
@@ -3827,6 +5027,12 @@
       <c r="F205">
         <v>10.5</v>
       </c>
+      <c r="G205">
+        <v>100</v>
+      </c>
+      <c r="H205">
+        <v>100</v>
+      </c>
     </row>
     <row r="206">
       <c r="B206" t="str">
@@ -3844,6 +5050,12 @@
       <c r="F206">
         <v>11.1</v>
       </c>
+      <c r="G206">
+        <v>30.434782608695652</v>
+      </c>
+      <c r="H206">
+        <v>105.71428571428571</v>
+      </c>
     </row>
     <row r="207">
       <c r="B207" t="str">
@@ -3861,6 +5073,12 @@
       <c r="F207">
         <v>12.3</v>
       </c>
+      <c r="G207">
+        <v>14.130434782608695</v>
+      </c>
+      <c r="H207">
+        <v>117.14285714285714</v>
+      </c>
     </row>
     <row r="208">
       <c r="B208" t="str">
@@ -3878,6 +5096,12 @@
       <c r="F208">
         <v>10.9</v>
       </c>
+      <c r="G208">
+        <v>11.956521739130435</v>
+      </c>
+      <c r="H208">
+        <v>103.80952380952381</v>
+      </c>
     </row>
     <row r="209">
       <c r="B209" t="str">
@@ -3895,6 +5119,12 @@
       <c r="F209">
         <v>11.2</v>
       </c>
+      <c r="G209">
+        <v>9.316770186335404</v>
+      </c>
+      <c r="H209">
+        <v>106.66666666666667</v>
+      </c>
     </row>
     <row r="210">
       <c r="B210" t="str">
@@ -3912,6 +5142,12 @@
       <c r="F210">
         <v>5.5</v>
       </c>
+      <c r="G210">
+        <v>100</v>
+      </c>
+      <c r="H210">
+        <v>100</v>
+      </c>
     </row>
     <row r="211">
       <c r="B211" t="str">
@@ -3929,6 +5165,12 @@
       <c r="F211">
         <v>8.4</v>
       </c>
+      <c r="G211">
+        <v>21.3953488372093</v>
+      </c>
+      <c r="H211">
+        <v>152.72727272727272</v>
+      </c>
     </row>
     <row r="212">
       <c r="B212" t="str">
@@ -3946,6 +5188,12 @@
       <c r="F212">
         <v>10</v>
       </c>
+      <c r="G212">
+        <v>8.13953488372093</v>
+      </c>
+      <c r="H212">
+        <v>181.8181818181818</v>
+      </c>
     </row>
     <row r="213">
       <c r="B213" t="str">
@@ -3963,6 +5211,12 @@
       <c r="F213">
         <v>31.8</v>
       </c>
+      <c r="G213">
+        <v>4.883720930232558</v>
+      </c>
+      <c r="H213">
+        <v>578.1818181818181</v>
+      </c>
     </row>
     <row r="214">
       <c r="B214" t="str">
@@ -3980,6 +5234,12 @@
       <c r="F214">
         <v>5.3</v>
       </c>
+      <c r="G214">
+        <v>4.651162790697675</v>
+      </c>
+      <c r="H214">
+        <v>96.36363636363636</v>
+      </c>
     </row>
     <row r="215">
       <c r="B215" t="str">
@@ -3997,6 +5257,12 @@
       <c r="F215">
         <v>13.3</v>
       </c>
+      <c r="G215">
+        <v>100</v>
+      </c>
+      <c r="H215">
+        <v>100</v>
+      </c>
     </row>
     <row r="216">
       <c r="B216" t="str">
@@ -4014,6 +5280,12 @@
       <c r="F216">
         <v>14</v>
       </c>
+      <c r="G216">
+        <v>47.08029197080292</v>
+      </c>
+      <c r="H216">
+        <v>105.26315789473684</v>
+      </c>
     </row>
     <row r="217">
       <c r="B217" t="str">
@@ -4031,6 +5303,12 @@
       <c r="F217">
         <v>11.8</v>
       </c>
+      <c r="G217">
+        <v>15.693430656934307</v>
+      </c>
+      <c r="H217">
+        <v>88.7218045112782</v>
+      </c>
     </row>
     <row r="218">
       <c r="B218" t="str">
@@ -4048,6 +5326,12 @@
       <c r="F218">
         <v>13.7</v>
       </c>
+      <c r="G218">
+        <v>5.474452554744525</v>
+      </c>
+      <c r="H218">
+        <v>103.00751879699247</v>
+      </c>
     </row>
     <row r="219">
       <c r="B219" t="str">
@@ -4065,6 +5349,12 @@
       <c r="F219">
         <v>11.7</v>
       </c>
+      <c r="G219">
+        <v>4.744525547445256</v>
+      </c>
+      <c r="H219">
+        <v>87.96992481203007</v>
+      </c>
     </row>
     <row r="220">
       <c r="B220" t="str">
@@ -4082,6 +5372,12 @@
       <c r="F220">
         <v>10.2</v>
       </c>
+      <c r="G220">
+        <v>100</v>
+      </c>
+      <c r="H220">
+        <v>100</v>
+      </c>
     </row>
     <row r="221">
       <c r="B221" t="str">
@@ -4099,6 +5395,12 @@
       <c r="F221">
         <v>13</v>
       </c>
+      <c r="G221">
+        <v>55.89041095890411</v>
+      </c>
+      <c r="H221">
+        <v>127.45098039215686</v>
+      </c>
     </row>
     <row r="222">
       <c r="B222" t="str">
@@ -4116,6 +5418,12 @@
       <c r="F222">
         <v>7.8</v>
       </c>
+      <c r="G222">
+        <v>27.945205479452056</v>
+      </c>
+      <c r="H222">
+        <v>76.47058823529412</v>
+      </c>
     </row>
     <row r="223">
       <c r="B223" t="str">
@@ -4133,6 +5441,12 @@
       <c r="F223">
         <v>7.4</v>
       </c>
+      <c r="G223">
+        <v>18.08219178082192</v>
+      </c>
+      <c r="H223">
+        <v>72.54901960784314</v>
+      </c>
     </row>
     <row r="224">
       <c r="B224" t="str">
@@ -4150,6 +5464,12 @@
       <c r="F224">
         <v>10.2</v>
       </c>
+      <c r="G224">
+        <v>5.7534246575342465</v>
+      </c>
+      <c r="H224">
+        <v>100</v>
+      </c>
     </row>
     <row r="225">
       <c r="B225" t="str">
@@ -4167,6 +5487,12 @@
       <c r="F225">
         <v>15.3</v>
       </c>
+      <c r="G225">
+        <v>100</v>
+      </c>
+      <c r="H225">
+        <v>100</v>
+      </c>
     </row>
     <row r="226">
       <c r="B226" t="str">
@@ -4184,6 +5510,12 @@
       <c r="F226">
         <v>12.3</v>
       </c>
+      <c r="G226">
+        <v>21.153846153846153</v>
+      </c>
+      <c r="H226">
+        <v>80.3921568627451</v>
+      </c>
     </row>
     <row r="227">
       <c r="B227" t="str">
@@ -4201,6 +5533,12 @@
       <c r="F227">
         <v>19.9</v>
       </c>
+      <c r="G227">
+        <v>17.032967032967033</v>
+      </c>
+      <c r="H227">
+        <v>130.06535947712416</v>
+      </c>
     </row>
     <row r="228">
       <c r="B228" t="str">
@@ -4218,6 +5556,12 @@
       <c r="F228">
         <v>12.7</v>
       </c>
+      <c r="G228">
+        <v>12.087912087912088</v>
+      </c>
+      <c r="H228">
+        <v>83.00653594771241</v>
+      </c>
     </row>
     <row r="229">
       <c r="B229" t="str">
@@ -4235,6 +5579,12 @@
       <c r="F229">
         <v>16.1</v>
       </c>
+      <c r="G229">
+        <v>7.417582417582418</v>
+      </c>
+      <c r="H229">
+        <v>105.22875816993465</v>
+      </c>
     </row>
     <row r="230">
       <c r="B230" t="str">
@@ -4252,6 +5602,12 @@
       <c r="F230">
         <v>6.8</v>
       </c>
+      <c r="G230">
+        <v>100</v>
+      </c>
+      <c r="H230">
+        <v>100</v>
+      </c>
     </row>
     <row r="231">
       <c r="B231" t="str">
@@ -4269,6 +5625,12 @@
       <c r="F231">
         <v>11.9</v>
       </c>
+      <c r="G231">
+        <v>57.429718875502004</v>
+      </c>
+      <c r="H231">
+        <v>175</v>
+      </c>
     </row>
     <row r="232">
       <c r="B232" t="str">
@@ -4286,6 +5648,12 @@
       <c r="F232">
         <v>12.4</v>
       </c>
+      <c r="G232">
+        <v>22.89156626506024</v>
+      </c>
+      <c r="H232">
+        <v>182.35294117647058</v>
+      </c>
     </row>
     <row r="233">
       <c r="B233" t="str">
@@ -4303,6 +5671,12 @@
       <c r="F233">
         <v>11.6</v>
       </c>
+      <c r="G233">
+        <v>10.843373493975903</v>
+      </c>
+      <c r="H233">
+        <v>170.58823529411765</v>
+      </c>
     </row>
     <row r="234">
       <c r="B234" t="str">
@@ -4320,6 +5694,12 @@
       <c r="F234">
         <v>14.5</v>
       </c>
+      <c r="G234">
+        <v>6.827309236947791</v>
+      </c>
+      <c r="H234">
+        <v>213.23529411764707</v>
+      </c>
     </row>
     <row r="235">
       <c r="B235" t="str">
@@ -4337,6 +5717,12 @@
       <c r="F235">
         <v>10.8</v>
       </c>
+      <c r="G235">
+        <v>100</v>
+      </c>
+      <c r="H235">
+        <v>100</v>
+      </c>
     </row>
     <row r="236">
       <c r="B236" t="str">
@@ -4354,6 +5740,12 @@
       <c r="F236">
         <v>18.1</v>
       </c>
+      <c r="G236">
+        <v>15.15748031496063</v>
+      </c>
+      <c r="H236">
+        <v>167.5925925925926</v>
+      </c>
     </row>
     <row r="237">
       <c r="B237" t="str">
@@ -4371,6 +5763,12 @@
       <c r="F237">
         <v>11.8</v>
       </c>
+      <c r="G237">
+        <v>5.905511811023622</v>
+      </c>
+      <c r="H237">
+        <v>109.25925925925925</v>
+      </c>
     </row>
     <row r="238">
       <c r="B238" t="str">
@@ -4388,6 +5786,12 @@
       <c r="F238">
         <v>31.9</v>
       </c>
+      <c r="G238">
+        <v>4.921259842519685</v>
+      </c>
+      <c r="H238">
+        <v>295.3703703703703</v>
+      </c>
     </row>
     <row r="239">
       <c r="B239" t="str">
@@ -4405,6 +5809,12 @@
       <c r="F239">
         <v>20.9</v>
       </c>
+      <c r="G239">
+        <v>3.543307086614173</v>
+      </c>
+      <c r="H239">
+        <v>193.5185185185185</v>
+      </c>
     </row>
     <row r="240">
       <c r="B240" t="str">
@@ -4422,6 +5832,12 @@
       <c r="F240">
         <v>8.8</v>
       </c>
+      <c r="G240">
+        <v>100</v>
+      </c>
+      <c r="H240">
+        <v>100</v>
+      </c>
     </row>
     <row r="241">
       <c r="B241" t="str">
@@ -4439,6 +5855,12 @@
       <c r="F241">
         <v>13</v>
       </c>
+      <c r="G241">
+        <v>47.44897959183673</v>
+      </c>
+      <c r="H241">
+        <v>147.72727272727272</v>
+      </c>
     </row>
     <row r="242">
       <c r="B242" t="str">
@@ -4456,6 +5878,12 @@
       <c r="F242">
         <v>19.3</v>
       </c>
+      <c r="G242">
+        <v>22.448979591836736</v>
+      </c>
+      <c r="H242">
+        <v>219.3181818181818</v>
+      </c>
     </row>
     <row r="243">
       <c r="B243" t="str">
@@ -4473,6 +5901,12 @@
       <c r="F243">
         <v>10.8</v>
       </c>
+      <c r="G243">
+        <v>13.775510204081632</v>
+      </c>
+      <c r="H243">
+        <v>122.72727272727272</v>
+      </c>
     </row>
     <row r="244">
       <c r="B244" t="str">
@@ -4490,6 +5924,12 @@
       <c r="F244">
         <v>8.7</v>
       </c>
+      <c r="G244">
+        <v>11.224489795918368</v>
+      </c>
+      <c r="H244">
+        <v>98.86363636363635</v>
+      </c>
     </row>
     <row r="245">
       <c r="B245" t="str">
@@ -4507,6 +5947,12 @@
       <c r="F245">
         <v>9.2</v>
       </c>
+      <c r="G245">
+        <v>100</v>
+      </c>
+      <c r="H245">
+        <v>100</v>
+      </c>
     </row>
     <row r="246">
       <c r="B246" t="str">
@@ -4524,6 +5970,12 @@
       <c r="F246">
         <v>9</v>
       </c>
+      <c r="G246">
+        <v>72.85714285714286</v>
+      </c>
+      <c r="H246">
+        <v>97.82608695652175</v>
+      </c>
     </row>
     <row r="247">
       <c r="B247" t="str">
@@ -4541,6 +5993,12 @@
       <c r="F247">
         <v>9.2</v>
       </c>
+      <c r="G247">
+        <v>24.285714285714285</v>
+      </c>
+      <c r="H247">
+        <v>100</v>
+      </c>
     </row>
     <row r="248">
       <c r="B248" t="str">
@@ -4558,6 +6016,12 @@
       <c r="F248">
         <v>9.3</v>
       </c>
+      <c r="G248">
+        <v>18.571428571428573</v>
+      </c>
+      <c r="H248">
+        <v>101.08695652173915</v>
+      </c>
     </row>
     <row r="249">
       <c r="B249" t="str">
@@ -4575,6 +6039,12 @@
       <c r="F249">
         <v>18.4</v>
       </c>
+      <c r="G249">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="H249">
+        <v>200</v>
+      </c>
     </row>
     <row r="250">
       <c r="B250" t="str">
@@ -4592,6 +6062,12 @@
       <c r="F250">
         <v>23.3</v>
       </c>
+      <c r="G250">
+        <v>100</v>
+      </c>
+      <c r="H250">
+        <v>100</v>
+      </c>
     </row>
     <row r="251">
       <c r="B251" t="str">
@@ -4609,6 +6085,12 @@
       <c r="F251">
         <v>72.8</v>
       </c>
+      <c r="G251">
+        <v>42.391304347826086</v>
+      </c>
+      <c r="H251">
+        <v>312.44635193133047</v>
+      </c>
     </row>
     <row r="252">
       <c r="B252" t="str">
@@ -4626,6 +6108,12 @@
       <c r="F252">
         <v>12.8</v>
       </c>
+      <c r="G252">
+        <v>14.565217391304348</v>
+      </c>
+      <c r="H252">
+        <v>54.93562231759657</v>
+      </c>
     </row>
     <row r="253">
       <c r="B253" t="str">
@@ -4643,6 +6131,12 @@
       <c r="F253">
         <v>16</v>
       </c>
+      <c r="G253">
+        <v>7.391304347826087</v>
+      </c>
+      <c r="H253">
+        <v>68.6695278969957</v>
+      </c>
     </row>
     <row r="254">
       <c r="B254" t="str">
@@ -4660,6 +6154,12 @@
       <c r="F254">
         <v>27.2</v>
       </c>
+      <c r="G254">
+        <v>5.217391304347826</v>
+      </c>
+      <c r="H254">
+        <v>116.7381974248927</v>
+      </c>
     </row>
     <row r="255">
       <c r="B255" t="str">
@@ -4677,6 +6177,12 @@
       <c r="F255">
         <v>5.4</v>
       </c>
+      <c r="G255">
+        <v>100</v>
+      </c>
+      <c r="H255">
+        <v>100</v>
+      </c>
     </row>
     <row r="256">
       <c r="B256" t="str">
@@ -4694,6 +6200,12 @@
       <c r="F256">
         <v>5</v>
       </c>
+      <c r="G256">
+        <v>84.12698412698413</v>
+      </c>
+      <c r="H256">
+        <v>92.59259259259258</v>
+      </c>
     </row>
     <row r="257">
       <c r="B257" t="str">
@@ -4711,6 +6223,12 @@
       <c r="F257">
         <v>5.5</v>
       </c>
+      <c r="G257">
+        <v>7.936507936507937</v>
+      </c>
+      <c r="H257">
+        <v>101.85185185185185</v>
+      </c>
     </row>
     <row r="258">
       <c r="B258" t="str">
@@ -4728,6 +6246,12 @@
       <c r="F258">
         <v>9.4</v>
       </c>
+      <c r="G258">
+        <v>5.291005291005291</v>
+      </c>
+      <c r="H258">
+        <v>174.07407407407408</v>
+      </c>
     </row>
     <row r="259">
       <c r="B259" t="str">
@@ -4745,6 +6269,12 @@
       <c r="F259">
         <v>13</v>
       </c>
+      <c r="G259">
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="H259">
+        <v>240.74074074074073</v>
+      </c>
     </row>
     <row r="260">
       <c r="B260" t="str">
@@ -4762,6 +6292,12 @@
       <c r="F260">
         <v>13.8</v>
       </c>
+      <c r="G260">
+        <v>100</v>
+      </c>
+      <c r="H260">
+        <v>100</v>
+      </c>
     </row>
     <row r="261">
       <c r="B261" t="str">
@@ -4779,6 +6315,12 @@
       <c r="F261">
         <v>16.5</v>
       </c>
+      <c r="G261">
+        <v>8.474576271186441</v>
+      </c>
+      <c r="H261">
+        <v>119.56521739130434</v>
+      </c>
     </row>
     <row r="262">
       <c r="B262" t="str">
@@ -4796,6 +6338,12 @@
       <c r="F262">
         <v>13.1</v>
       </c>
+      <c r="G262">
+        <v>4.745762711864407</v>
+      </c>
+      <c r="H262">
+        <v>94.92753623188405</v>
+      </c>
     </row>
     <row r="263">
       <c r="B263" t="str">
@@ -4813,6 +6361,12 @@
       <c r="F263">
         <v>13.9</v>
       </c>
+      <c r="G263">
+        <v>3.389830508474576</v>
+      </c>
+      <c r="H263">
+        <v>100.72463768115942</v>
+      </c>
     </row>
     <row r="264">
       <c r="B264" t="str">
@@ -4830,6 +6384,12 @@
       <c r="F264">
         <v>23.5</v>
       </c>
+      <c r="G264">
+        <v>1.3559322033898304</v>
+      </c>
+      <c r="H264">
+        <v>170.28985507246375</v>
+      </c>
     </row>
     <row r="265">
       <c r="B265" t="str">
@@ -4847,6 +6407,12 @@
       <c r="F265">
         <v>10.1</v>
       </c>
+      <c r="G265">
+        <v>100</v>
+      </c>
+      <c r="H265">
+        <v>100</v>
+      </c>
     </row>
     <row r="266">
       <c r="B266" t="str">
@@ -4864,6 +6430,12 @@
       <c r="F266">
         <v>10.5</v>
       </c>
+      <c r="G266">
+        <v>48.86363636363637</v>
+      </c>
+      <c r="H266">
+        <v>103.96039603960396</v>
+      </c>
     </row>
     <row r="267">
       <c r="B267" t="str">
@@ -4881,6 +6453,12 @@
       <c r="F267">
         <v>14.1</v>
       </c>
+      <c r="G267">
+        <v>37.5</v>
+      </c>
+      <c r="H267">
+        <v>139.6039603960396</v>
+      </c>
     </row>
     <row r="268">
       <c r="B268" t="str">
@@ -4898,6 +6476,12 @@
       <c r="F268">
         <v>10.1</v>
       </c>
+      <c r="G268">
+        <v>7.386363636363637</v>
+      </c>
+      <c r="H268">
+        <v>100</v>
+      </c>
     </row>
     <row r="269">
       <c r="B269" t="str">
@@ -4915,6 +6499,12 @@
       <c r="F269">
         <v>10.4</v>
       </c>
+      <c r="G269">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="H269">
+        <v>102.97029702970298</v>
+      </c>
     </row>
     <row r="270">
       <c r="B270" t="str">
@@ -4932,6 +6522,12 @@
       <c r="F270">
         <v>7.7</v>
       </c>
+      <c r="G270">
+        <v>100</v>
+      </c>
+      <c r="H270">
+        <v>100</v>
+      </c>
     </row>
     <row r="271">
       <c r="B271" t="str">
@@ -4949,6 +6545,12 @@
       <c r="F271">
         <v>7.9</v>
       </c>
+      <c r="G271">
+        <v>29.661016949152543</v>
+      </c>
+      <c r="H271">
+        <v>102.59740259740259</v>
+      </c>
     </row>
     <row r="272">
       <c r="B272" t="str">
@@ -4966,6 +6568,12 @@
       <c r="F272">
         <v>6.8</v>
       </c>
+      <c r="G272">
+        <v>17.51412429378531</v>
+      </c>
+      <c r="H272">
+        <v>88.31168831168831</v>
+      </c>
     </row>
     <row r="273">
       <c r="B273" t="str">
@@ -4983,6 +6591,12 @@
       <c r="F273">
         <v>7.4</v>
       </c>
+      <c r="G273">
+        <v>15.819209039548022</v>
+      </c>
+      <c r="H273">
+        <v>96.1038961038961</v>
+      </c>
     </row>
     <row r="274">
       <c r="B274" t="str">
@@ -5000,6 +6614,12 @@
       <c r="F274">
         <v>5.6</v>
       </c>
+      <c r="G274">
+        <v>11.016949152542374</v>
+      </c>
+      <c r="H274">
+        <v>72.72727272727272</v>
+      </c>
     </row>
     <row r="275">
       <c r="B275" t="str">
@@ -5017,6 +6637,12 @@
       <c r="F275">
         <v>6.8</v>
       </c>
+      <c r="G275">
+        <v>100</v>
+      </c>
+      <c r="H275">
+        <v>100</v>
+      </c>
     </row>
     <row r="276">
       <c r="B276" t="str">
@@ -5034,6 +6660,12 @@
       <c r="F276">
         <v>9.6</v>
       </c>
+      <c r="G276">
+        <v>57.38636363636363</v>
+      </c>
+      <c r="H276">
+        <v>141.1764705882353</v>
+      </c>
     </row>
     <row r="277">
       <c r="B277" t="str">
@@ -5051,6 +6683,12 @@
       <c r="F277">
         <v>9.4</v>
       </c>
+      <c r="G277">
+        <v>14.772727272727273</v>
+      </c>
+      <c r="H277">
+        <v>138.23529411764707</v>
+      </c>
     </row>
     <row r="278">
       <c r="B278" t="str">
@@ -5068,6 +6706,12 @@
       <c r="F278">
         <v>9.6</v>
       </c>
+      <c r="G278">
+        <v>12.5</v>
+      </c>
+      <c r="H278">
+        <v>141.1764705882353</v>
+      </c>
     </row>
     <row r="279">
       <c r="B279" t="str">
@@ -5085,6 +6729,12 @@
       <c r="F279">
         <v>11.5</v>
       </c>
+      <c r="G279">
+        <v>5.681818181818182</v>
+      </c>
+      <c r="H279">
+        <v>169.11764705882354</v>
+      </c>
     </row>
     <row r="280">
       <c r="B280" t="str">
@@ -5102,6 +6752,12 @@
       <c r="F280">
         <v>29</v>
       </c>
+      <c r="G280">
+        <v>100</v>
+      </c>
+      <c r="H280">
+        <v>100</v>
+      </c>
     </row>
     <row r="281">
       <c r="B281" t="str">
@@ -5119,6 +6775,12 @@
       <c r="F281">
         <v>24.4</v>
       </c>
+      <c r="G281">
+        <v>61.904761904761905</v>
+      </c>
+      <c r="H281">
+        <v>84.13793103448276</v>
+      </c>
     </row>
     <row r="282">
       <c r="B282" t="str">
@@ -5136,6 +6798,12 @@
       <c r="F282">
         <v>18.7</v>
       </c>
+      <c r="G282">
+        <v>19.841269841269842</v>
+      </c>
+      <c r="H282">
+        <v>64.48275862068965</v>
+      </c>
     </row>
     <row r="283">
       <c r="B283" t="str">
@@ -5153,6 +6821,12 @@
       <c r="F283">
         <v>26.3</v>
       </c>
+      <c r="G283">
+        <v>13.492063492063492</v>
+      </c>
+      <c r="H283">
+        <v>90.6896551724138</v>
+      </c>
     </row>
     <row r="284">
       <c r="B284" t="str">
@@ -5170,6 +6844,12 @@
       <c r="F284">
         <v>19.4</v>
       </c>
+      <c r="G284">
+        <v>6.349206349206349</v>
+      </c>
+      <c r="H284">
+        <v>66.89655172413792</v>
+      </c>
     </row>
     <row r="285">
       <c r="B285" t="str">
@@ -5187,6 +6867,12 @@
       <c r="F285">
         <v>5.3</v>
       </c>
+      <c r="G285">
+        <v>100</v>
+      </c>
+      <c r="H285">
+        <v>100</v>
+      </c>
     </row>
     <row r="286">
       <c r="B286" t="str">
@@ -5204,6 +6890,12 @@
       <c r="F286">
         <v>8.2</v>
       </c>
+      <c r="G286">
+        <v>31.16883116883117</v>
+      </c>
+      <c r="H286">
+        <v>154.71698113207546</v>
+      </c>
     </row>
     <row r="287">
       <c r="B287" t="str">
@@ -5221,6 +6913,12 @@
       <c r="F287">
         <v>5.5</v>
       </c>
+      <c r="G287">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="H287">
+        <v>103.77358490566039</v>
+      </c>
     </row>
     <row r="288">
       <c r="B288" t="str">
@@ -5238,6 +6936,12 @@
       <c r="F288">
         <v>5.7</v>
       </c>
+      <c r="G288">
+        <v>10.38961038961039</v>
+      </c>
+      <c r="H288">
+        <v>107.54716981132076</v>
+      </c>
     </row>
     <row r="289">
       <c r="B289" t="str">
@@ -5255,6 +6959,12 @@
       <c r="F289">
         <v>9.5</v>
       </c>
+      <c r="G289">
+        <v>10.38961038961039</v>
+      </c>
+      <c r="H289">
+        <v>179.24528301886792</v>
+      </c>
     </row>
     <row r="290">
       <c r="B290" t="str">
@@ -5272,6 +6982,12 @@
       <c r="F290">
         <v>15</v>
       </c>
+      <c r="G290">
+        <v>100</v>
+      </c>
+      <c r="H290">
+        <v>100</v>
+      </c>
     </row>
     <row r="291">
       <c r="B291" t="str">
@@ -5289,6 +7005,12 @@
       <c r="F291">
         <v>22.3</v>
       </c>
+      <c r="G291">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H291">
+        <v>148.66666666666666</v>
+      </c>
     </row>
     <row r="292">
       <c r="B292" t="str">
@@ -5306,6 +7028,12 @@
       <c r="F292">
         <v>14.1</v>
       </c>
+      <c r="G292">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H292">
+        <v>94</v>
+      </c>
     </row>
     <row r="293">
       <c r="B293" t="str">
@@ -5323,6 +7051,12 @@
       <c r="F293">
         <v>8</v>
       </c>
+      <c r="G293">
+        <v>19.047619047619047</v>
+      </c>
+      <c r="H293">
+        <v>53.333333333333336</v>
+      </c>
     </row>
     <row r="294">
       <c r="B294" t="str">
@@ -5340,6 +7074,12 @@
       <c r="F294">
         <v>11</v>
       </c>
+      <c r="G294">
+        <v>12.698412698412698</v>
+      </c>
+      <c r="H294">
+        <v>73.33333333333333</v>
+      </c>
     </row>
     <row r="295">
       <c r="B295" t="str">
@@ -5357,6 +7097,12 @@
       <c r="F295">
         <v>13.5</v>
       </c>
+      <c r="G295">
+        <v>100</v>
+      </c>
+      <c r="H295">
+        <v>100</v>
+      </c>
     </row>
     <row r="296">
       <c r="B296" t="str">
@@ -5374,6 +7120,12 @@
       <c r="F296">
         <v>29.4</v>
       </c>
+      <c r="G296">
+        <v>68.35443037974683</v>
+      </c>
+      <c r="H296">
+        <v>217.77777777777777</v>
+      </c>
     </row>
     <row r="297">
       <c r="B297" t="str">
@@ -5391,6 +7143,12 @@
       <c r="F297">
         <v>31.5</v>
       </c>
+      <c r="G297">
+        <v>48.10126582278481</v>
+      </c>
+      <c r="H297">
+        <v>233.33333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="B298" t="str">
@@ -5408,6 +7166,12 @@
       <c r="F298">
         <v>20.7</v>
       </c>
+      <c r="G298">
+        <v>13.924050632911392</v>
+      </c>
+      <c r="H298">
+        <v>153.33333333333334</v>
+      </c>
     </row>
     <row r="299">
       <c r="B299" t="str">
@@ -5425,6 +7189,12 @@
       <c r="F299">
         <v>18.9</v>
       </c>
+      <c r="G299">
+        <v>5.063291139240507</v>
+      </c>
+      <c r="H299">
+        <v>139.99999999999997</v>
+      </c>
     </row>
     <row r="300">
       <c r="B300" t="str">
@@ -5442,6 +7212,12 @@
       <c r="F300">
         <v>10.4</v>
       </c>
+      <c r="G300">
+        <v>100</v>
+      </c>
+      <c r="H300">
+        <v>100</v>
+      </c>
     </row>
     <row r="301">
       <c r="B301" t="str">
@@ -5459,6 +7235,12 @@
       <c r="F301">
         <v>7.8</v>
       </c>
+      <c r="G301">
+        <v>31.914893617021278</v>
+      </c>
+      <c r="H301">
+        <v>75</v>
+      </c>
     </row>
     <row r="302">
       <c r="B302" t="str">
@@ -5476,6 +7258,12 @@
       <c r="F302">
         <v>9.5</v>
       </c>
+      <c r="G302">
+        <v>17.02127659574468</v>
+      </c>
+      <c r="H302">
+        <v>91.34615384615384</v>
+      </c>
     </row>
     <row r="303">
       <c r="B303" t="str">
@@ -5493,6 +7281,12 @@
       <c r="F303">
         <v>4.5</v>
       </c>
+      <c r="G303">
+        <v>12.76595744680851</v>
+      </c>
+      <c r="H303">
+        <v>43.26923076923077</v>
+      </c>
     </row>
     <row r="304">
       <c r="B304" t="str">
@@ -5510,6 +7304,12 @@
       <c r="F304">
         <v>10.1</v>
       </c>
+      <c r="G304">
+        <v>8.51063829787234</v>
+      </c>
+      <c r="H304">
+        <v>97.11538461538461</v>
+      </c>
     </row>
     <row r="305">
       <c r="B305" t="str">
@@ -5527,6 +7327,12 @@
       <c r="F305">
         <v>27.4</v>
       </c>
+      <c r="G305">
+        <v>100</v>
+      </c>
+      <c r="H305">
+        <v>100</v>
+      </c>
     </row>
     <row r="306">
       <c r="B306" t="str">
@@ -5544,6 +7350,12 @@
       <c r="F306">
         <v>18.2</v>
       </c>
+      <c r="G306">
+        <v>75.625</v>
+      </c>
+      <c r="H306">
+        <v>66.42335766423358</v>
+      </c>
     </row>
     <row r="307">
       <c r="B307" t="str">
@@ -5561,6 +7373,12 @@
       <c r="F307">
         <v>35.5</v>
       </c>
+      <c r="G307">
+        <v>18.75</v>
+      </c>
+      <c r="H307">
+        <v>129.56204379562044</v>
+      </c>
     </row>
     <row r="308">
       <c r="B308" t="str">
@@ -5578,6 +7396,12 @@
       <c r="F308">
         <v>28.3</v>
       </c>
+      <c r="G308">
+        <v>8.125</v>
+      </c>
+      <c r="H308">
+        <v>103.28467153284672</v>
+      </c>
     </row>
     <row r="309">
       <c r="B309" t="str">
@@ -5595,6 +7419,12 @@
       <c r="F309">
         <v>16.7</v>
       </c>
+      <c r="G309">
+        <v>6.25</v>
+      </c>
+      <c r="H309">
+        <v>60.948905109489054</v>
+      </c>
     </row>
     <row r="310">
       <c r="B310" t="str">
@@ -5612,6 +7442,12 @@
       <c r="F310">
         <v>21.1</v>
       </c>
+      <c r="G310">
+        <v>100</v>
+      </c>
+      <c r="H310">
+        <v>100</v>
+      </c>
     </row>
     <row r="311">
       <c r="B311" t="str">
@@ -5629,6 +7465,12 @@
       <c r="F311">
         <v>37.5</v>
       </c>
+      <c r="G311">
+        <v>38.9937106918239</v>
+      </c>
+      <c r="H311">
+        <v>177.7251184834123</v>
+      </c>
     </row>
     <row r="312">
       <c r="B312" t="str">
@@ -5646,6 +7488,12 @@
       <c r="F312">
         <v>18.3</v>
       </c>
+      <c r="G312">
+        <v>30.81761006289308</v>
+      </c>
+      <c r="H312">
+        <v>86.7298578199052</v>
+      </c>
     </row>
     <row r="313">
       <c r="B313" t="str">
@@ -5663,6 +7511,12 @@
       <c r="F313">
         <v>46.8</v>
       </c>
+      <c r="G313">
+        <v>10.062893081761006</v>
+      </c>
+      <c r="H313">
+        <v>221.80094786729856</v>
+      </c>
     </row>
     <row r="314">
       <c r="B314" t="str">
@@ -5680,6 +7534,12 @@
       <c r="F314">
         <v>22.7</v>
       </c>
+      <c r="G314">
+        <v>8.80503144654088</v>
+      </c>
+      <c r="H314">
+        <v>107.58293838862558</v>
+      </c>
     </row>
     <row r="315">
       <c r="B315" t="str">
@@ -5697,6 +7557,12 @@
       <c r="F315">
         <v>27.9</v>
       </c>
+      <c r="G315">
+        <v>100</v>
+      </c>
+      <c r="H315">
+        <v>100</v>
+      </c>
     </row>
     <row r="316">
       <c r="B316" t="str">
@@ -5714,6 +7580,12 @@
       <c r="F316">
         <v>60.8</v>
       </c>
+      <c r="G316">
+        <v>91.83673469387755</v>
+      </c>
+      <c r="H316">
+        <v>217.92114695340504</v>
+      </c>
     </row>
     <row r="317">
       <c r="B317" t="str">
@@ -5731,6 +7603,12 @@
       <c r="F317">
         <v>39.9</v>
       </c>
+      <c r="G317">
+        <v>55.10204081632653</v>
+      </c>
+      <c r="H317">
+        <v>143.01075268817206</v>
+      </c>
     </row>
     <row r="318">
       <c r="B318" t="str">
@@ -5748,6 +7626,12 @@
       <c r="F318">
         <v>116.4</v>
       </c>
+      <c r="G318">
+        <v>51.02040816326531</v>
+      </c>
+      <c r="H318">
+        <v>417.20430107526886</v>
+      </c>
     </row>
     <row r="319">
       <c r="B319" t="str">
@@ -5765,6 +7649,12 @@
       <c r="F319">
         <v>37</v>
       </c>
+      <c r="G319">
+        <v>12.244897959183673</v>
+      </c>
+      <c r="H319">
+        <v>132.61648745519713</v>
+      </c>
     </row>
     <row r="320">
       <c r="B320" t="str">
@@ -5782,6 +7672,12 @@
       <c r="F320">
         <v>14.9</v>
       </c>
+      <c r="G320">
+        <v>100</v>
+      </c>
+      <c r="H320">
+        <v>100</v>
+      </c>
     </row>
     <row r="321">
       <c r="B321" t="str">
@@ -5799,6 +7695,12 @@
       <c r="F321">
         <v>5</v>
       </c>
+      <c r="G321">
+        <v>80</v>
+      </c>
+      <c r="H321">
+        <v>33.557046979865774</v>
+      </c>
     </row>
     <row r="322">
       <c r="B322" t="str">
@@ -5816,6 +7718,12 @@
       <c r="F322">
         <v>4.6</v>
       </c>
+      <c r="G322">
+        <v>20</v>
+      </c>
+      <c r="H322">
+        <v>30.872483221476507</v>
+      </c>
     </row>
     <row r="323">
       <c r="B323" t="str">
@@ -5833,6 +7741,12 @@
       <c r="F323">
         <v>9.4</v>
       </c>
+      <c r="G323">
+        <v>14.545454545454545</v>
+      </c>
+      <c r="H323">
+        <v>63.08724832214765</v>
+      </c>
     </row>
     <row r="324">
       <c r="B324" t="str">
@@ -5850,6 +7764,12 @@
       <c r="F324">
         <v>11.6</v>
       </c>
+      <c r="G324">
+        <v>10</v>
+      </c>
+      <c r="H324">
+        <v>77.85234899328859</v>
+      </c>
     </row>
     <row r="325">
       <c r="B325" t="str">
@@ -5867,6 +7787,12 @@
       <c r="F325">
         <v>20.7</v>
       </c>
+      <c r="G325">
+        <v>100</v>
+      </c>
+      <c r="H325">
+        <v>100</v>
+      </c>
     </row>
     <row r="326">
       <c r="B326" t="str">
@@ -5884,6 +7810,12 @@
       <c r="F326">
         <v>13.5</v>
       </c>
+      <c r="G326">
+        <v>50.40650406504065</v>
+      </c>
+      <c r="H326">
+        <v>65.21739130434783</v>
+      </c>
     </row>
     <row r="327">
       <c r="B327" t="str">
@@ -5901,6 +7833,12 @@
       <c r="F327">
         <v>0</v>
       </c>
+      <c r="G327">
+        <v>13.821138211382113</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="B328" t="str">
@@ -5918,6 +7856,12 @@
       <c r="F328">
         <v>20.7</v>
       </c>
+      <c r="G328">
+        <v>9.75609756097561</v>
+      </c>
+      <c r="H328">
+        <v>100</v>
+      </c>
     </row>
     <row r="329">
       <c r="B329" t="str">
@@ -5935,6 +7879,12 @@
       <c r="F329">
         <v>20.2</v>
       </c>
+      <c r="G329">
+        <v>8.94308943089431</v>
+      </c>
+      <c r="H329">
+        <v>97.58454106280193</v>
+      </c>
     </row>
     <row r="330">
       <c r="B330" t="str">
@@ -5952,6 +7902,12 @@
       <c r="F330">
         <v>31.1</v>
       </c>
+      <c r="G330">
+        <v>100</v>
+      </c>
+      <c r="H330">
+        <v>100</v>
+      </c>
     </row>
     <row r="331">
       <c r="B331" t="str">
@@ -5969,6 +7925,12 @@
       <c r="F331">
         <v>25.8</v>
       </c>
+      <c r="G331">
+        <v>62.5</v>
+      </c>
+      <c r="H331">
+        <v>82.95819935691318</v>
+      </c>
     </row>
     <row r="332">
       <c r="B332" t="str">
@@ -5986,6 +7948,12 @@
       <c r="F332">
         <v>28.2</v>
       </c>
+      <c r="G332">
+        <v>57.5</v>
+      </c>
+      <c r="H332">
+        <v>90.67524115755627</v>
+      </c>
     </row>
     <row r="333">
       <c r="B333" t="str">
@@ -6003,6 +7971,12 @@
       <c r="F333">
         <v>38.7</v>
       </c>
+      <c r="G333">
+        <v>12.5</v>
+      </c>
+      <c r="H333">
+        <v>124.43729903536979</v>
+      </c>
     </row>
     <row r="334">
       <c r="B334" t="str">
@@ -6020,6 +7994,12 @@
       <c r="F334">
         <v>20.1</v>
       </c>
+      <c r="G334">
+        <v>12.5</v>
+      </c>
+      <c r="H334">
+        <v>64.63022508038586</v>
+      </c>
     </row>
     <row r="335">
       <c r="B335" t="str">
@@ -6037,6 +8017,12 @@
       <c r="F335">
         <v>15.8</v>
       </c>
+      <c r="G335">
+        <v>100</v>
+      </c>
+      <c r="H335">
+        <v>100</v>
+      </c>
     </row>
     <row r="336">
       <c r="B336" t="str">
@@ -6054,6 +8040,12 @@
       <c r="F336">
         <v>27.4</v>
       </c>
+      <c r="G336">
+        <v>85.4368932038835</v>
+      </c>
+      <c r="H336">
+        <v>173.41772151898732</v>
+      </c>
     </row>
     <row r="337">
       <c r="B337" t="str">
@@ -6071,6 +8063,12 @@
       <c r="F337">
         <v>8</v>
       </c>
+      <c r="G337">
+        <v>27.184466019417474</v>
+      </c>
+      <c r="H337">
+        <v>50.63291139240506</v>
+      </c>
     </row>
     <row r="338">
       <c r="B338" t="str">
@@ -6088,6 +8086,12 @@
       <c r="F338">
         <v>15.8</v>
       </c>
+      <c r="G338">
+        <v>20.388349514563107</v>
+      </c>
+      <c r="H338">
+        <v>100</v>
+      </c>
     </row>
     <row r="339">
       <c r="B339" t="str">
@@ -6105,6 +8109,12 @@
       <c r="F339">
         <v>5.3</v>
       </c>
+      <c r="G339">
+        <v>19.41747572815534</v>
+      </c>
+      <c r="H339">
+        <v>33.54430379746835</v>
+      </c>
     </row>
     <row r="340">
       <c r="B340" t="str">
@@ -6122,6 +8132,12 @@
       <c r="F340">
         <v>25.5</v>
       </c>
+      <c r="G340">
+        <v>100</v>
+      </c>
+      <c r="H340">
+        <v>100</v>
+      </c>
     </row>
     <row r="341">
       <c r="B341" t="str">
@@ -6139,6 +8155,12 @@
       <c r="F341">
         <v>23.8</v>
       </c>
+      <c r="G341">
+        <v>81.63265306122449</v>
+      </c>
+      <c r="H341">
+        <v>93.33333333333333</v>
+      </c>
     </row>
     <row r="342">
       <c r="B342" t="str">
@@ -6156,6 +8178,12 @@
       <c r="F342">
         <v>27.4</v>
       </c>
+      <c r="G342">
+        <v>32.6530612244898</v>
+      </c>
+      <c r="H342">
+        <v>107.45098039215686</v>
+      </c>
     </row>
     <row r="343">
       <c r="B343" t="str">
@@ -6173,6 +8201,12 @@
       <c r="F343">
         <v>35.8</v>
       </c>
+      <c r="G343">
+        <v>16.3265306122449</v>
+      </c>
+      <c r="H343">
+        <v>140.39215686274508</v>
+      </c>
     </row>
     <row r="344">
       <c r="B344" t="str">
@@ -6190,6 +8224,12 @@
       <c r="F344">
         <v>26</v>
       </c>
+      <c r="G344">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="H344">
+        <v>101.96078431372548</v>
+      </c>
     </row>
     <row r="345">
       <c r="B345" t="str">
@@ -6207,6 +8247,12 @@
       <c r="F345">
         <v>20.9</v>
       </c>
+      <c r="G345">
+        <v>100</v>
+      </c>
+      <c r="H345">
+        <v>100</v>
+      </c>
     </row>
     <row r="346">
       <c r="B346" t="str">
@@ -6224,6 +8270,12 @@
       <c r="F346">
         <v>26</v>
       </c>
+      <c r="G346">
+        <v>96.875</v>
+      </c>
+      <c r="H346">
+        <v>124.4019138755981</v>
+      </c>
     </row>
     <row r="347">
       <c r="B347" t="str">
@@ -6241,6 +8293,12 @@
       <c r="F347">
         <v>22.5</v>
       </c>
+      <c r="G347">
+        <v>40.625</v>
+      </c>
+      <c r="H347">
+        <v>107.6555023923445</v>
+      </c>
     </row>
     <row r="348">
       <c r="B348" t="str">
@@ -6258,6 +8316,12 @@
       <c r="F348">
         <v>147.7</v>
       </c>
+      <c r="G348">
+        <v>34.375</v>
+      </c>
+      <c r="H348">
+        <v>706.6985645933014</v>
+      </c>
     </row>
     <row r="349">
       <c r="B349" t="str">
@@ -6275,6 +8339,12 @@
       <c r="F349">
         <v>26.8</v>
       </c>
+      <c r="G349">
+        <v>34.375</v>
+      </c>
+      <c r="H349">
+        <v>128.22966507177034</v>
+      </c>
     </row>
     <row r="350">
       <c r="B350" t="str">
@@ -6292,6 +8362,12 @@
       <c r="F350">
         <v>12.7</v>
       </c>
+      <c r="G350">
+        <v>100</v>
+      </c>
+      <c r="H350">
+        <v>100</v>
+      </c>
     </row>
     <row r="351">
       <c r="B351" t="str">
@@ -6309,6 +8385,12 @@
       <c r="F351">
         <v>9.7</v>
       </c>
+      <c r="G351">
+        <v>100</v>
+      </c>
+      <c r="H351">
+        <v>76.37795275590551</v>
+      </c>
     </row>
     <row r="352">
       <c r="B352" t="str">
@@ -6326,6 +8408,12 @@
       <c r="F352">
         <v>8.9</v>
       </c>
+      <c r="G352">
+        <v>34.04255319148936</v>
+      </c>
+      <c r="H352">
+        <v>70.07874015748033</v>
+      </c>
     </row>
     <row r="353">
       <c r="B353" t="str">
@@ -6343,6 +8431,12 @@
       <c r="F353">
         <v>12.7</v>
       </c>
+      <c r="G353">
+        <v>14.893617021276595</v>
+      </c>
+      <c r="H353">
+        <v>100</v>
+      </c>
     </row>
     <row r="354">
       <c r="B354" t="str">
@@ -6360,6 +8454,12 @@
       <c r="F354">
         <v>26.9</v>
       </c>
+      <c r="G354">
+        <v>12.76595744680851</v>
+      </c>
+      <c r="H354">
+        <v>211.81102362204726</v>
+      </c>
     </row>
     <row r="355">
       <c r="B355" t="str">
@@ -6377,6 +8477,12 @@
       <c r="F355">
         <v>13.2</v>
       </c>
+      <c r="G355">
+        <v>100</v>
+      </c>
+      <c r="H355">
+        <v>100</v>
+      </c>
     </row>
     <row r="356">
       <c r="B356" t="str">
@@ -6394,6 +8500,12 @@
       <c r="F356">
         <v>16.6</v>
       </c>
+      <c r="G356">
+        <v>18.27956989247312</v>
+      </c>
+      <c r="H356">
+        <v>125.75757575757578</v>
+      </c>
     </row>
     <row r="357">
       <c r="B357" t="str">
@@ -6411,6 +8523,12 @@
       <c r="F357">
         <v>0</v>
       </c>
+      <c r="G357">
+        <v>17.204301075268816</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="B358" t="str">
@@ -6428,6 +8546,12 @@
       <c r="F358">
         <v>25.6</v>
       </c>
+      <c r="G358">
+        <v>11.827956989247312</v>
+      </c>
+      <c r="H358">
+        <v>193.93939393939394</v>
+      </c>
     </row>
     <row r="359">
       <c r="B359" t="str">
@@ -6445,6 +8569,12 @@
       <c r="F359">
         <v>23.5</v>
       </c>
+      <c r="G359">
+        <v>5.376344086021505</v>
+      </c>
+      <c r="H359">
+        <v>178.03030303030303</v>
+      </c>
     </row>
     <row r="360">
       <c r="B360" t="str">
@@ -6462,6 +8592,12 @@
       <c r="F360">
         <v>45.7</v>
       </c>
+      <c r="G360">
+        <v>100</v>
+      </c>
+      <c r="H360">
+        <v>100</v>
+      </c>
     </row>
     <row r="361">
       <c r="B361" t="str">
@@ -6479,6 +8615,12 @@
       <c r="F361">
         <v>54.8</v>
       </c>
+      <c r="G361">
+        <v>43.13725490196079</v>
+      </c>
+      <c r="H361">
+        <v>119.9124726477024</v>
+      </c>
     </row>
     <row r="362">
       <c r="B362" t="str">
@@ -6496,6 +8638,12 @@
       <c r="F362">
         <v>82.3</v>
       </c>
+      <c r="G362">
+        <v>9.803921568627452</v>
+      </c>
+      <c r="H362">
+        <v>180.08752735229757</v>
+      </c>
     </row>
     <row r="363">
       <c r="B363" t="str">
@@ -6513,6 +8661,12 @@
       <c r="F363">
         <v>67.9</v>
       </c>
+      <c r="G363">
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="H363">
+        <v>148.5776805251641</v>
+      </c>
     </row>
     <row r="364">
       <c r="B364" t="str">
@@ -6530,6 +8684,12 @@
       <c r="F364">
         <v>43.6</v>
       </c>
+      <c r="G364">
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="H364">
+        <v>95.40481400437636</v>
+      </c>
     </row>
     <row r="365">
       <c r="B365" t="str">
@@ -6547,6 +8707,12 @@
       <c r="F365">
         <v>15.9</v>
       </c>
+      <c r="G365">
+        <v>100</v>
+      </c>
+      <c r="H365">
+        <v>100</v>
+      </c>
     </row>
     <row r="366">
       <c r="B366" t="str">
@@ -6564,6 +8730,12 @@
       <c r="F366">
         <v>12</v>
       </c>
+      <c r="G366">
+        <v>47.82608695652174</v>
+      </c>
+      <c r="H366">
+        <v>75.47169811320755</v>
+      </c>
     </row>
     <row r="367">
       <c r="B367" t="str">
@@ -6581,6 +8753,12 @@
       <c r="F367">
         <v>14.3</v>
       </c>
+      <c r="G367">
+        <v>15.942028985507246</v>
+      </c>
+      <c r="H367">
+        <v>89.937106918239</v>
+      </c>
     </row>
     <row r="368">
       <c r="B368" t="str">
@@ -6598,6 +8776,12 @@
       <c r="F368">
         <v>16.2</v>
       </c>
+      <c r="G368">
+        <v>10.144927536231885</v>
+      </c>
+      <c r="H368">
+        <v>101.88679245283019</v>
+      </c>
     </row>
     <row r="369">
       <c r="B369" t="str">
@@ -6615,6 +8799,12 @@
       <c r="F369">
         <v>126.8</v>
       </c>
+      <c r="G369">
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="H369">
+        <v>797.4842767295597</v>
+      </c>
     </row>
     <row r="370">
       <c r="B370" t="str">
@@ -6632,6 +8822,12 @@
       <c r="F370">
         <v>24.5</v>
       </c>
+      <c r="G370">
+        <v>100</v>
+      </c>
+      <c r="H370">
+        <v>100</v>
+      </c>
     </row>
     <row r="371">
       <c r="B371" t="str">
@@ -6649,6 +8845,12 @@
       <c r="F371">
         <v>37.4</v>
       </c>
+      <c r="G371">
+        <v>42.10526315789474</v>
+      </c>
+      <c r="H371">
+        <v>152.6530612244898</v>
+      </c>
     </row>
     <row r="372">
       <c r="B372" t="str">
@@ -6666,6 +8868,12 @@
       <c r="F372">
         <v>36.3</v>
       </c>
+      <c r="G372">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="H372">
+        <v>148.16326530612244</v>
+      </c>
     </row>
     <row r="373">
       <c r="B373" t="str">
@@ -6683,6 +8891,12 @@
       <c r="F373">
         <v>24.5</v>
       </c>
+      <c r="G373">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="H373">
+        <v>100</v>
+      </c>
     </row>
     <row r="374">
       <c r="B374" t="str">
@@ -6700,6 +8914,12 @@
       <c r="F374">
         <v>0</v>
       </c>
+      <c r="G374">
+        <v>15.789473684210526</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="B375" t="str">
@@ -6717,6 +8937,12 @@
       <c r="F375">
         <v>0</v>
       </c>
+      <c r="G375">
+        <v>100</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="B376" t="str">
@@ -6734,6 +8960,12 @@
       <c r="F376">
         <v>0</v>
       </c>
+      <c r="G376">
+        <v>46.42857142857143</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="B377" t="str">
@@ -6751,6 +8983,12 @@
       <c r="F377">
         <v>0</v>
       </c>
+      <c r="G377">
+        <v>12.5</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="B378" t="str">
@@ -6768,6 +9006,12 @@
       <c r="F378">
         <v>0</v>
       </c>
+      <c r="G378">
+        <v>8.928571428571429</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="B379" t="str">
@@ -6785,6 +9029,12 @@
       <c r="F379">
         <v>0</v>
       </c>
+      <c r="G379">
+        <v>5.357142857142857</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="B380" t="str">
@@ -6802,6 +9052,12 @@
       <c r="F380">
         <v>33.3</v>
       </c>
+      <c r="G380">
+        <v>100</v>
+      </c>
+      <c r="H380">
+        <v>100</v>
+      </c>
     </row>
     <row r="381">
       <c r="B381" t="str">
@@ -6819,6 +9075,12 @@
       <c r="F381">
         <v>61</v>
       </c>
+      <c r="G381">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="H381">
+        <v>183.1831831831832</v>
+      </c>
     </row>
     <row r="382">
       <c r="B382" t="str">
@@ -6836,6 +9098,12 @@
       <c r="F382">
         <v>48.8</v>
       </c>
+      <c r="G382">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H382">
+        <v>146.54654654654655</v>
+      </c>
     </row>
     <row r="383">
       <c r="B383" t="str">
@@ -6853,6 +9121,12 @@
       <c r="F383">
         <v>61.2</v>
       </c>
+      <c r="G383">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H383">
+        <v>183.7837837837838</v>
+      </c>
     </row>
     <row r="384">
       <c r="B384" t="str">
@@ -6870,6 +9144,12 @@
       <c r="F384">
         <v>36.9</v>
       </c>
+      <c r="G384">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H384">
+        <v>110.81081081081082</v>
+      </c>
     </row>
     <row r="385">
       <c r="B385" t="str">
@@ -6887,6 +9167,12 @@
       <c r="F385">
         <v>26.4</v>
       </c>
+      <c r="G385">
+        <v>100</v>
+      </c>
+      <c r="H385">
+        <v>100</v>
+      </c>
     </row>
     <row r="386">
       <c r="B386" t="str">
@@ -6904,6 +9190,12 @@
       <c r="F386">
         <v>17.4</v>
       </c>
+      <c r="G386">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="H386">
+        <v>65.9090909090909</v>
+      </c>
     </row>
     <row r="387">
       <c r="B387" t="str">
@@ -6921,6 +9213,12 @@
       <c r="F387">
         <v>20</v>
       </c>
+      <c r="G387">
+        <v>18.42105263157895</v>
+      </c>
+      <c r="H387">
+        <v>75.75757575757576</v>
+      </c>
     </row>
     <row r="388">
       <c r="B388" t="str">
@@ -6938,6 +9236,12 @@
       <c r="F388">
         <v>31.9</v>
       </c>
+      <c r="G388">
+        <v>13.157894736842104</v>
+      </c>
+      <c r="H388">
+        <v>120.83333333333334</v>
+      </c>
     </row>
     <row r="389">
       <c r="B389" t="str">
@@ -6955,6 +9259,12 @@
       <c r="F389">
         <v>46</v>
       </c>
+      <c r="G389">
+        <v>10.526315789473685</v>
+      </c>
+      <c r="H389">
+        <v>174.24242424242425</v>
+      </c>
     </row>
     <row r="390">
       <c r="B390" t="str">
@@ -6972,6 +9282,12 @@
       <c r="F390">
         <v>37</v>
       </c>
+      <c r="G390">
+        <v>100</v>
+      </c>
+      <c r="H390">
+        <v>100</v>
+      </c>
     </row>
     <row r="391">
       <c r="B391" t="str">
@@ -6989,6 +9305,12 @@
       <c r="F391">
         <v>32.4</v>
       </c>
+      <c r="G391">
+        <v>75</v>
+      </c>
+      <c r="H391">
+        <v>87.56756756756756</v>
+      </c>
     </row>
     <row r="392">
       <c r="B392" t="str">
@@ -7006,6 +9328,12 @@
       <c r="F392">
         <v>36.5</v>
       </c>
+      <c r="G392">
+        <v>62.5</v>
+      </c>
+      <c r="H392">
+        <v>98.64864864864865</v>
+      </c>
     </row>
     <row r="393">
       <c r="B393" t="str">
@@ -7023,6 +9351,12 @@
       <c r="F393">
         <v>92.5</v>
       </c>
+      <c r="G393">
+        <v>56.25</v>
+      </c>
+      <c r="H393">
+        <v>250</v>
+      </c>
     </row>
     <row r="394">
       <c r="B394" t="str">
@@ -7040,6 +9374,12 @@
       <c r="F394">
         <v>24.5</v>
       </c>
+      <c r="G394">
+        <v>12.5</v>
+      </c>
+      <c r="H394">
+        <v>66.21621621621621</v>
+      </c>
     </row>
     <row r="395">
       <c r="B395" t="str">
@@ -7057,6 +9397,12 @@
       <c r="F395">
         <v>12</v>
       </c>
+      <c r="G395">
+        <v>100</v>
+      </c>
+      <c r="H395">
+        <v>100</v>
+      </c>
     </row>
     <row r="396">
       <c r="B396" t="str">
@@ -7074,6 +9420,12 @@
       <c r="F396">
         <v>13</v>
       </c>
+      <c r="G396">
+        <v>45.90163934426229</v>
+      </c>
+      <c r="H396">
+        <v>108.33333333333333</v>
+      </c>
     </row>
     <row r="397">
       <c r="B397" t="str">
@@ -7091,6 +9443,12 @@
       <c r="F397">
         <v>14.7</v>
       </c>
+      <c r="G397">
+        <v>8.19672131147541</v>
+      </c>
+      <c r="H397">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="398">
       <c r="B398" t="str">
@@ -7108,6 +9466,12 @@
       <c r="F398">
         <v>0</v>
       </c>
+      <c r="G398">
+        <v>6.557377049180328</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="B399" t="str">
@@ -7125,6 +9489,12 @@
       <c r="F399">
         <v>14.1</v>
       </c>
+      <c r="G399">
+        <v>6.557377049180328</v>
+      </c>
+      <c r="H399">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="400">
       <c r="B400" t="str">
@@ -7142,6 +9512,12 @@
       <c r="F400">
         <v>48.1</v>
       </c>
+      <c r="G400">
+        <v>100</v>
+      </c>
+      <c r="H400">
+        <v>100</v>
+      </c>
     </row>
     <row r="401">
       <c r="B401" t="str">
@@ -7159,6 +9535,12 @@
       <c r="F401">
         <v>65.8</v>
       </c>
+      <c r="G401">
+        <v>34.61538461538461</v>
+      </c>
+      <c r="H401">
+        <v>136.7983367983368</v>
+      </c>
     </row>
     <row r="402">
       <c r="B402" t="str">
@@ -7176,6 +9558,12 @@
       <c r="F402">
         <v>38.3</v>
       </c>
+      <c r="G402">
+        <v>21.153846153846153</v>
+      </c>
+      <c r="H402">
+        <v>79.62577962577961</v>
+      </c>
     </row>
     <row r="403">
       <c r="B403" t="str">
@@ -7193,6 +9581,12 @@
       <c r="F403">
         <v>59</v>
       </c>
+      <c r="G403">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="H403">
+        <v>122.66112266112266</v>
+      </c>
     </row>
     <row r="404">
       <c r="B404" t="str">
@@ -7209,6 +9603,12 @@
       </c>
       <c r="F404">
         <v>43.7</v>
+      </c>
+      <c r="G404">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="H404">
+        <v>90.85239085239085</v>
       </c>
     </row>
   </sheetData>

--- a/stats/dataset-cw.xlsx
+++ b/stats/dataset-cw.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:K404"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -410,6 +410,12 @@
       <c r="H4" t="str">
         <v>cpx_percent</v>
       </c>
+      <c r="J4" t="str">
+        <v>solution_rank</v>
+      </c>
+      <c r="K4" t="str">
+        <v>cpx_percent</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
@@ -433,6 +439,12 @@
       <c r="H5">
         <v>100</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
@@ -456,6 +468,12 @@
       <c r="H6">
         <v>104.71698113207547</v>
       </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>121.07360297452914</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
@@ -479,6 +497,12 @@
       <c r="H7">
         <v>141.50943396226415</v>
       </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>114.60631027553346</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
@@ -502,6 +526,12 @@
       <c r="H8">
         <v>168.86792452830187</v>
       </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>160.47001411352298</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
@@ -525,6 +555,12 @@
       <c r="H9">
         <v>120.75471698113208</v>
       </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>137.36285837638655</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
@@ -9613,7 +9649,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H404"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K404"/>
   </ignoredErrors>
 </worksheet>
 </file>